--- a/config-boda-moh-ke-master/forms/app/suspected_case-edit.xlsx
+++ b/config-boda-moh-ke-master/forms/app/suspected_case-edit.xlsx
@@ -17,14 +17,14 @@
     <sheet name="settings" sheetId="3" r:id="rId3"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">survey!$A$1:$N$57</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">survey!$A$1:$N$58</definedName>
   </definedNames>
-  <calcPr calcId="162913" iterateDelta="1E-4"/>
+  <calcPr calcId="162913"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="11540" uniqueCount="3114">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="11544" uniqueCount="3114">
   <si>
     <t>type</t>
   </si>
@@ -9338,7 +9338,7 @@
     <t>dob_debug</t>
   </si>
   <si>
-    <t>Year: ${ephemeral_years} DOB Approx: ${dob_approx} DOB Calendar: ${dob_calendar} AGE Years: ${age_in_years}</t>
+    <t>Year: ${ephemeral_years} DOB Approx: ${dob_approx} DOB Calendar: ${dob_calendar} DOB ISO: ${dob_iso} AGE Years: ${age_in_years}</t>
   </si>
   <si>
     <t>dob_raw</t>
@@ -9665,106 +9665,7 @@
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="391">
-    <dxf>
-      <font>
-        <strike/>
-        <color rgb="FFFFFFFF"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFF0000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFB7E1CD"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFEAD1DC"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FFCCCCCC"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFF2CC"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FFC27BA0"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFCFE2F3"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFF0000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFF9900"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FFFFFFFF"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF980000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FFCCCCCC"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFCE5CD"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF76A5AF"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFCFE2F3"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FFB7B7B7"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFD9EAD3"/>
-        </patternFill>
-      </fill>
-    </dxf>
+  <dxfs count="396">
     <dxf>
       <fill>
         <patternFill>
@@ -9917,6 +9818,105 @@
       <fill>
         <patternFill>
           <bgColor rgb="FFD9EAD3"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFEAD1DC"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FFCCCCCC"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFF2CC"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FFC27BA0"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFCFE2F3"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF9900"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FFFFFFFF"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF980000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FFCCCCCC"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFCE5CD"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF76A5AF"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFCFE2F3"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FFB7B7B7"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFD9EAD3"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <strike/>
+        <color rgb="FFFFFFFF"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFB7E1CD"/>
         </patternFill>
       </fill>
     </dxf>
@@ -10259,6 +10259,13 @@
       </fill>
     </dxf>
     <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF9900"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
       <font>
         <color rgb="FFCCCCCC"/>
       </font>
@@ -10269,12 +10276,46 @@
       </fill>
     </dxf>
     <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF9900"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF76A5AF"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFD9D2E9"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
       <font>
         <color rgb="FFCCCCCC"/>
       </font>
       <fill>
         <patternFill>
           <bgColor rgb="FFFCE5CD"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF76A5AF"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFCFE2F3"/>
         </patternFill>
       </fill>
     </dxf>
@@ -13847,13 +13888,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:N956"/>
+  <dimension ref="A1:N957"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="96" zoomScaleNormal="96" workbookViewId="0">
-      <pane xSplit="2" ySplit="1" topLeftCell="G41" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="2" ySplit="1" topLeftCell="C5" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="I54" sqref="I54"/>
+      <selection pane="bottomRight" activeCell="F26" sqref="F26"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.6640625" defaultRowHeight="13.2" x14ac:dyDescent="0.25"/>
@@ -14280,7 +14321,7 @@
         <v>49</v>
       </c>
       <c r="B18" s="3" t="s">
-        <v>548</v>
+        <v>550</v>
       </c>
       <c r="C18" s="3" t="s">
         <v>16</v>
@@ -14291,7 +14332,7 @@
       <c r="G18" s="3"/>
       <c r="H18" s="3"/>
       <c r="I18" t="s">
-        <v>549</v>
+        <v>551</v>
       </c>
       <c r="J18" s="3"/>
       <c r="K18" s="3"/>
@@ -14301,20 +14342,22 @@
     </row>
     <row r="19" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A19" s="3" t="s">
-        <v>29</v>
+        <v>49</v>
       </c>
       <c r="B19" s="3" t="s">
-        <v>465</v>
+        <v>548</v>
       </c>
       <c r="C19" s="3" t="s">
-        <v>466</v>
+        <v>16</v>
       </c>
       <c r="D19" s="3"/>
       <c r="E19" s="3"/>
       <c r="F19" s="3"/>
       <c r="G19" s="3"/>
       <c r="H19" s="3"/>
-      <c r="I19" s="3"/>
+      <c r="I19" t="s">
+        <v>549</v>
+      </c>
       <c r="J19" s="3"/>
       <c r="K19" s="3"/>
       <c r="L19" s="3"/>
@@ -14323,13 +14366,13 @@
     </row>
     <row r="20" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A20" s="3" t="s">
-        <v>14</v>
+        <v>29</v>
       </c>
       <c r="B20" s="3" t="s">
-        <v>479</v>
+        <v>465</v>
       </c>
       <c r="C20" s="3" t="s">
-        <v>556</v>
+        <v>466</v>
       </c>
       <c r="D20" s="3"/>
       <c r="E20" s="3"/>
@@ -14345,13 +14388,13 @@
     </row>
     <row r="21" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A21" s="3" t="s">
-        <v>29</v>
+        <v>14</v>
       </c>
       <c r="B21" s="3" t="s">
-        <v>471</v>
+        <v>479</v>
       </c>
       <c r="C21" s="3" t="s">
-        <v>472</v>
+        <v>556</v>
       </c>
       <c r="D21" s="3"/>
       <c r="E21" s="3"/>
@@ -14367,21 +14410,17 @@
     </row>
     <row r="22" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A22" s="3" t="s">
-        <v>55</v>
+        <v>29</v>
       </c>
       <c r="B22" s="3" t="s">
-        <v>467</v>
+        <v>471</v>
       </c>
       <c r="C22" s="3" t="s">
-        <v>469</v>
-      </c>
-      <c r="D22" s="3" t="s">
-        <v>44</v>
-      </c>
+        <v>472</v>
+      </c>
+      <c r="D22" s="3"/>
       <c r="E22" s="3"/>
-      <c r="F22" s="3" t="s">
-        <v>71</v>
-      </c>
+      <c r="F22" s="3"/>
       <c r="G22" s="3"/>
       <c r="H22" s="3"/>
       <c r="I22" s="3"/>
@@ -14393,19 +14432,21 @@
     </row>
     <row r="23" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A23" s="3" t="s">
-        <v>29</v>
+        <v>55</v>
       </c>
       <c r="B23" s="3" t="s">
-        <v>473</v>
-      </c>
-      <c r="C23" s="11" t="s">
-        <v>482</v>
-      </c>
-      <c r="D23" s="3"/>
-      <c r="E23" s="3" t="s">
-        <v>474</v>
-      </c>
-      <c r="F23" s="3"/>
+        <v>467</v>
+      </c>
+      <c r="C23" s="3" t="s">
+        <v>469</v>
+      </c>
+      <c r="D23" s="3" t="s">
+        <v>44</v>
+      </c>
+      <c r="E23" s="3"/>
+      <c r="F23" s="3" t="s">
+        <v>71</v>
+      </c>
       <c r="G23" s="3"/>
       <c r="H23" s="3"/>
       <c r="I23" s="3"/>
@@ -14417,23 +14458,19 @@
     </row>
     <row r="24" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A24" s="3" t="s">
-        <v>55</v>
+        <v>29</v>
       </c>
       <c r="B24" s="3" t="s">
-        <v>468</v>
-      </c>
-      <c r="C24" s="3" t="s">
-        <v>470</v>
-      </c>
-      <c r="D24" s="3" t="s">
-        <v>44</v>
-      </c>
+        <v>473</v>
+      </c>
+      <c r="C24" s="11" t="s">
+        <v>482</v>
+      </c>
+      <c r="D24" s="3"/>
       <c r="E24" s="3" t="s">
-        <v>475</v>
-      </c>
-      <c r="F24" s="3" t="s">
-        <v>71</v>
-      </c>
+        <v>474</v>
+      </c>
+      <c r="F24" s="3"/>
       <c r="G24" s="3"/>
       <c r="H24" s="3"/>
       <c r="I24" s="3"/>
@@ -14445,19 +14482,23 @@
     </row>
     <row r="25" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A25" s="3" t="s">
-        <v>72</v>
+        <v>55</v>
       </c>
       <c r="B25" s="3" t="s">
-        <v>557</v>
+        <v>468</v>
       </c>
       <c r="C25" s="3" t="s">
-        <v>558</v>
-      </c>
-      <c r="D25" s="3"/>
+        <v>470</v>
+      </c>
+      <c r="D25" s="3" t="s">
+        <v>44</v>
+      </c>
       <c r="E25" s="3" t="s">
-        <v>483</v>
-      </c>
-      <c r="F25" s="3"/>
+        <v>475</v>
+      </c>
+      <c r="F25" s="3" t="s">
+        <v>71</v>
+      </c>
       <c r="G25" s="3"/>
       <c r="H25" s="3"/>
       <c r="I25" s="3"/>
@@ -14467,15 +14508,15 @@
       <c r="M25" s="3"/>
       <c r="N25" s="3"/>
     </row>
-    <row r="26" spans="1:14" ht="55.2" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A26" s="3" t="s">
-        <v>29</v>
+        <v>72</v>
       </c>
       <c r="B26" s="3" t="s">
-        <v>476</v>
+        <v>557</v>
       </c>
       <c r="C26" s="3" t="s">
-        <v>539</v>
+        <v>558</v>
       </c>
       <c r="D26" s="3"/>
       <c r="E26" s="3" t="s">
@@ -14491,14 +14532,20 @@
       <c r="M26" s="3"/>
       <c r="N26" s="3"/>
     </row>
-    <row r="27" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A27" s="18" t="s">
-        <v>21</v>
-      </c>
-      <c r="B27" s="18"/>
-      <c r="C27" s="18"/>
+    <row r="27" spans="1:14" ht="55.2" x14ac:dyDescent="0.25">
+      <c r="A27" s="3" t="s">
+        <v>29</v>
+      </c>
+      <c r="B27" s="3" t="s">
+        <v>476</v>
+      </c>
+      <c r="C27" s="3" t="s">
+        <v>539</v>
+      </c>
       <c r="D27" s="3"/>
-      <c r="E27" s="3"/>
+      <c r="E27" s="3" t="s">
+        <v>483</v>
+      </c>
       <c r="F27" s="3"/>
       <c r="G27" s="3"/>
       <c r="H27" s="3"/>
@@ -14510,6 +14557,11 @@
       <c r="N27" s="3"/>
     </row>
     <row r="28" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A28" s="18" t="s">
+        <v>21</v>
+      </c>
+      <c r="B28" s="18"/>
+      <c r="C28" s="18"/>
       <c r="D28" s="3"/>
       <c r="E28" s="3"/>
       <c r="F28" s="3"/>
@@ -14523,19 +14575,8 @@
       <c r="N28" s="3"/>
     </row>
     <row r="29" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A29" s="5" t="s">
-        <v>14</v>
-      </c>
-      <c r="B29" s="5" t="s">
-        <v>480</v>
-      </c>
-      <c r="C29" s="5" t="s">
-        <v>559</v>
-      </c>
       <c r="D29" s="3"/>
-      <c r="E29" s="3" t="s">
-        <v>477</v>
-      </c>
+      <c r="E29" s="3"/>
       <c r="F29" s="3"/>
       <c r="G29" s="3"/>
       <c r="H29" s="3"/>
@@ -14547,20 +14588,23 @@
       <c r="N29" s="3"/>
     </row>
     <row r="30" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A30" s="3" t="s">
-        <v>29</v>
-      </c>
-      <c r="B30" s="3" t="s">
-        <v>30</v>
-      </c>
-      <c r="C30" s="3" t="s">
-        <v>31</v>
+      <c r="A30" s="5" t="s">
+        <v>14</v>
+      </c>
+      <c r="B30" s="5" t="s">
+        <v>480</v>
+      </c>
+      <c r="C30" s="5" t="s">
+        <v>559</v>
       </c>
       <c r="D30" s="3"/>
+      <c r="E30" s="3" t="s">
+        <v>477</v>
+      </c>
       <c r="F30" s="3"/>
       <c r="G30" s="3"/>
       <c r="H30" s="3"/>
-      <c r="I30" s="12"/>
+      <c r="I30" s="3"/>
       <c r="J30" s="3"/>
       <c r="K30" s="3"/>
       <c r="L30" s="3"/>
@@ -14569,23 +14613,16 @@
     </row>
     <row r="31" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A31" s="3" t="s">
-        <v>231</v>
+        <v>29</v>
       </c>
       <c r="B31" s="3" t="s">
-        <v>232</v>
+        <v>30</v>
       </c>
       <c r="C31" s="3" t="s">
-        <v>233</v>
-      </c>
-      <c r="D31" s="3" t="s">
-        <v>44</v>
-      </c>
-      <c r="E31" s="3" t="s">
-        <v>477</v>
-      </c>
-      <c r="F31" s="3" t="s">
-        <v>71</v>
-      </c>
+        <v>31</v>
+      </c>
+      <c r="D31" s="3"/>
+      <c r="F31" s="3"/>
       <c r="G31" s="3"/>
       <c r="H31" s="3"/>
       <c r="I31" s="12"/>
@@ -14597,17 +14634,23 @@
     </row>
     <row r="32" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A32" s="3" t="s">
-        <v>25</v>
+        <v>231</v>
       </c>
       <c r="B32" s="3" t="s">
-        <v>530</v>
+        <v>232</v>
       </c>
       <c r="C32" s="3" t="s">
-        <v>16</v>
-      </c>
-      <c r="D32" s="3"/>
-      <c r="E32" s="3"/>
-      <c r="F32" s="3"/>
+        <v>233</v>
+      </c>
+      <c r="D32" s="3" t="s">
+        <v>44</v>
+      </c>
+      <c r="E32" s="3" t="s">
+        <v>477</v>
+      </c>
+      <c r="F32" s="3" t="s">
+        <v>71</v>
+      </c>
       <c r="G32" s="3"/>
       <c r="H32" s="3"/>
       <c r="I32" s="12"/>
@@ -14617,77 +14660,74 @@
       <c r="M32" s="3"/>
       <c r="N32" s="3"/>
     </row>
-    <row r="33" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="33" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A33" s="3" t="s">
-        <v>18</v>
+        <v>25</v>
       </c>
       <c r="B33" s="3" t="s">
-        <v>32</v>
+        <v>530</v>
       </c>
       <c r="C33" s="3" t="s">
-        <v>33</v>
-      </c>
-      <c r="D33" s="7" t="s">
-        <v>44</v>
-      </c>
-      <c r="E33" s="3" t="s">
-        <v>237</v>
-      </c>
+        <v>16</v>
+      </c>
+      <c r="D33" s="3"/>
+      <c r="E33" s="3"/>
       <c r="F33" s="3"/>
-      <c r="G33" s="7"/>
-      <c r="H33" s="7"/>
-      <c r="I33" s="10"/>
-      <c r="J33" s="7"/>
-      <c r="K33" s="3" t="s">
-        <v>241</v>
-      </c>
-      <c r="L33" s="7"/>
-      <c r="M33" s="7"/>
-      <c r="N33" s="7"/>
+      <c r="G33" s="3"/>
+      <c r="H33" s="3"/>
+      <c r="I33" s="12"/>
+      <c r="J33" s="3"/>
+      <c r="K33" s="3"/>
+      <c r="L33" s="3"/>
+      <c r="M33" s="3"/>
+      <c r="N33" s="3"/>
     </row>
     <row r="34" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A34" s="3" t="s">
-        <v>49</v>
+        <v>18</v>
       </c>
       <c r="B34" s="3" t="s">
-        <v>552</v>
-      </c>
-      <c r="C34" s="3"/>
-      <c r="D34" s="7"/>
-      <c r="E34" s="3"/>
+        <v>32</v>
+      </c>
+      <c r="C34" s="3" t="s">
+        <v>33</v>
+      </c>
+      <c r="D34" s="7" t="s">
+        <v>44</v>
+      </c>
+      <c r="E34" s="3" t="s">
+        <v>237</v>
+      </c>
       <c r="F34" s="3"/>
       <c r="G34" s="7"/>
       <c r="H34" s="7"/>
-      <c r="I34" s="10" t="s">
-        <v>542</v>
-      </c>
+      <c r="I34" s="10"/>
       <c r="J34" s="7"/>
-      <c r="K34" s="3"/>
+      <c r="K34" s="3" t="s">
+        <v>241</v>
+      </c>
       <c r="L34" s="7"/>
       <c r="M34" s="7"/>
       <c r="N34" s="7"/>
     </row>
     <row r="35" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A35" s="3" t="s">
-        <v>18</v>
+        <v>49</v>
       </c>
       <c r="B35" s="3" t="s">
-        <v>34</v>
-      </c>
-      <c r="C35" s="3" t="s">
-        <v>35</v>
-      </c>
-      <c r="D35" s="7" t="s">
-        <v>44</v>
-      </c>
-      <c r="E35" s="3" t="s">
-        <v>238</v>
-      </c>
+        <v>552</v>
+      </c>
+      <c r="C35" s="3"/>
+      <c r="D35" s="7"/>
+      <c r="E35" s="3"/>
       <c r="F35" s="3"/>
       <c r="G35" s="7"/>
       <c r="H35" s="7"/>
-      <c r="I35" s="7"/>
+      <c r="I35" s="10" t="s">
+        <v>542</v>
+      </c>
       <c r="J35" s="7"/>
+      <c r="K35" s="3"/>
       <c r="L35" s="7"/>
       <c r="M35" s="7"/>
       <c r="N35" s="7"/>
@@ -14697,47 +14737,50 @@
         <v>18</v>
       </c>
       <c r="B36" s="3" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="C36" s="3" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="D36" s="7" t="s">
         <v>44</v>
       </c>
       <c r="E36" s="3" t="s">
-        <v>239</v>
+        <v>238</v>
       </c>
       <c r="F36" s="3"/>
       <c r="G36" s="7"/>
       <c r="H36" s="7"/>
-      <c r="I36" s="10"/>
+      <c r="I36" s="7"/>
       <c r="J36" s="7"/>
-      <c r="K36" s="7" t="s">
-        <v>240</v>
-      </c>
       <c r="L36" s="7"/>
       <c r="M36" s="7"/>
       <c r="N36" s="7"/>
     </row>
     <row r="37" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A37" s="13" t="s">
-        <v>29</v>
-      </c>
-      <c r="B37" s="9" t="s">
-        <v>38</v>
+      <c r="A37" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="B37" s="3" t="s">
+        <v>36</v>
       </c>
       <c r="C37" s="3" t="s">
-        <v>39</v>
-      </c>
-      <c r="D37" s="7"/>
-      <c r="E37" s="3"/>
+        <v>37</v>
+      </c>
+      <c r="D37" s="7" t="s">
+        <v>44</v>
+      </c>
+      <c r="E37" s="3" t="s">
+        <v>239</v>
+      </c>
       <c r="F37" s="3"/>
       <c r="G37" s="7"/>
       <c r="H37" s="7"/>
-      <c r="I37" s="7"/>
+      <c r="I37" s="10"/>
       <c r="J37" s="7"/>
-      <c r="K37" s="7"/>
+      <c r="K37" s="7" t="s">
+        <v>240</v>
+      </c>
       <c r="L37" s="7"/>
       <c r="M37" s="7"/>
       <c r="N37" s="7"/>
@@ -14747,14 +14790,16 @@
         <v>29</v>
       </c>
       <c r="B38" s="9" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="C38" s="3" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="D38" s="7"/>
       <c r="E38" s="3"/>
       <c r="F38" s="3"/>
+      <c r="G38" s="7"/>
+      <c r="H38" s="7"/>
       <c r="I38" s="7"/>
       <c r="J38" s="7"/>
       <c r="K38" s="7"/>
@@ -14763,26 +14808,18 @@
       <c r="N38" s="7"/>
     </row>
     <row r="39" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A39" s="3" t="s">
-        <v>18</v>
-      </c>
-      <c r="B39" s="3" t="s">
-        <v>42</v>
+      <c r="A39" s="13" t="s">
+        <v>29</v>
+      </c>
+      <c r="B39" s="9" t="s">
+        <v>40</v>
       </c>
       <c r="C39" s="3" t="s">
-        <v>43</v>
-      </c>
-      <c r="D39" s="3" t="s">
-        <v>44</v>
-      </c>
+        <v>41</v>
+      </c>
+      <c r="D39" s="7"/>
       <c r="E39" s="3"/>
       <c r="F39" s="3"/>
-      <c r="G39" s="29" t="s">
-        <v>463</v>
-      </c>
-      <c r="H39" s="29" t="s">
-        <v>462</v>
-      </c>
       <c r="I39" s="7"/>
       <c r="J39" s="7"/>
       <c r="K39" s="7"/>
@@ -14795,10 +14832,10 @@
         <v>18</v>
       </c>
       <c r="B40" s="3" t="s">
-        <v>45</v>
+        <v>42</v>
       </c>
       <c r="C40" s="3" t="s">
-        <v>46</v>
+        <v>43</v>
       </c>
       <c r="D40" s="3" t="s">
         <v>44</v>
@@ -14823,12 +14860,14 @@
         <v>18</v>
       </c>
       <c r="B41" s="3" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="C41" s="3" t="s">
-        <v>48</v>
-      </c>
-      <c r="D41" s="7"/>
+        <v>46</v>
+      </c>
+      <c r="D41" s="3" t="s">
+        <v>44</v>
+      </c>
       <c r="E41" s="3"/>
       <c r="F41" s="3"/>
       <c r="G41" s="29" t="s">
@@ -14845,23 +14884,25 @@
       <c r="N41" s="7"/>
     </row>
     <row r="42" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A42" s="14" t="s">
-        <v>49</v>
-      </c>
-      <c r="B42" s="15" t="s">
-        <v>1</v>
+      <c r="A42" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="B42" s="3" t="s">
+        <v>47</v>
       </c>
       <c r="C42" s="3" t="s">
-        <v>16</v>
-      </c>
-      <c r="D42" s="3"/>
+        <v>48</v>
+      </c>
+      <c r="D42" s="7"/>
       <c r="E42" s="3"/>
       <c r="F42" s="3"/>
-      <c r="G42" s="7"/>
-      <c r="H42" s="7"/>
-      <c r="I42" s="3" t="s">
-        <v>50</v>
-      </c>
+      <c r="G42" s="29" t="s">
+        <v>463</v>
+      </c>
+      <c r="H42" s="29" t="s">
+        <v>462</v>
+      </c>
+      <c r="I42" s="7"/>
       <c r="J42" s="7"/>
       <c r="K42" s="7"/>
       <c r="L42" s="7"/>
@@ -14872,8 +14913,8 @@
       <c r="A43" s="14" t="s">
         <v>49</v>
       </c>
-      <c r="B43" s="3" t="s">
-        <v>51</v>
+      <c r="B43" s="15" t="s">
+        <v>1</v>
       </c>
       <c r="C43" s="3" t="s">
         <v>16</v>
@@ -14884,7 +14925,7 @@
       <c r="G43" s="7"/>
       <c r="H43" s="7"/>
       <c r="I43" s="3" t="s">
-        <v>540</v>
+        <v>50</v>
       </c>
       <c r="J43" s="7"/>
       <c r="K43" s="7"/>
@@ -14893,107 +14934,101 @@
       <c r="N43" s="7"/>
     </row>
     <row r="44" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A44" s="3" t="s">
-        <v>52</v>
+      <c r="A44" s="14" t="s">
+        <v>49</v>
       </c>
       <c r="B44" s="3" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="C44" s="3" t="s">
-        <v>54</v>
-      </c>
-      <c r="D44" s="3" t="s">
-        <v>44</v>
-      </c>
+        <v>16</v>
+      </c>
+      <c r="D44" s="3"/>
       <c r="E44" s="3"/>
-      <c r="F44" s="3" t="s">
-        <v>71</v>
-      </c>
+      <c r="F44" s="3"/>
       <c r="G44" s="7"/>
       <c r="H44" s="7"/>
-      <c r="I44" s="7"/>
+      <c r="I44" s="3" t="s">
+        <v>540</v>
+      </c>
       <c r="J44" s="7"/>
       <c r="K44" s="7"/>
       <c r="L44" s="7"/>
       <c r="M44" s="7"/>
       <c r="N44" s="7"/>
     </row>
-    <row r="45" spans="1:14" s="37" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A45" s="39" t="s">
+    <row r="45" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A45" s="3" t="s">
+        <v>52</v>
+      </c>
+      <c r="B45" s="3" t="s">
+        <v>53</v>
+      </c>
+      <c r="C45" s="3" t="s">
+        <v>54</v>
+      </c>
+      <c r="D45" s="3" t="s">
+        <v>44</v>
+      </c>
+      <c r="E45" s="3"/>
+      <c r="F45" s="3" t="s">
+        <v>71</v>
+      </c>
+      <c r="G45" s="7"/>
+      <c r="H45" s="7"/>
+      <c r="I45" s="7"/>
+      <c r="J45" s="7"/>
+      <c r="K45" s="7"/>
+      <c r="L45" s="7"/>
+      <c r="M45" s="7"/>
+      <c r="N45" s="7"/>
+    </row>
+    <row r="46" spans="1:14" s="37" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A46" s="39" t="s">
         <v>55</v>
       </c>
-      <c r="B45" s="39" t="s">
+      <c r="B46" s="39" t="s">
         <v>56</v>
       </c>
-      <c r="C45" s="39" t="s">
+      <c r="C46" s="39" t="s">
         <v>57</v>
       </c>
-      <c r="D45" s="39" t="s">
+      <c r="D46" s="39" t="s">
         <v>44</v>
       </c>
-      <c r="E45" s="39"/>
-      <c r="F45" s="39" t="s">
+      <c r="E46" s="39"/>
+      <c r="F46" s="39" t="s">
         <v>71</v>
       </c>
-      <c r="G45" s="40"/>
-      <c r="H45" s="40"/>
-      <c r="I45" s="40"/>
-      <c r="J45" s="40"/>
-      <c r="K45" s="40"/>
-      <c r="L45" s="40"/>
-      <c r="M45" s="40"/>
-      <c r="N45" s="40"/>
-    </row>
-    <row r="46" spans="1:14" s="37" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A46" s="44" t="s">
+      <c r="G46" s="40"/>
+      <c r="H46" s="40"/>
+      <c r="I46" s="40"/>
+      <c r="J46" s="40"/>
+      <c r="K46" s="40"/>
+      <c r="L46" s="40"/>
+      <c r="M46" s="40"/>
+      <c r="N46" s="40"/>
+    </row>
+    <row r="47" spans="1:14" s="37" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A47" s="44" t="s">
         <v>58</v>
       </c>
-      <c r="B46" s="44" t="s">
+      <c r="B47" s="44" t="s">
         <v>59</v>
       </c>
-      <c r="C46" s="44" t="s">
+      <c r="C47" s="44" t="s">
         <v>67</v>
-      </c>
-      <c r="D46" s="44" t="s">
-        <v>44</v>
-      </c>
-      <c r="E46" s="44" t="s">
-        <v>60</v>
-      </c>
-      <c r="F46" s="44"/>
-      <c r="G46" s="44"/>
-      <c r="H46" s="44" t="s">
-        <v>61</v>
-      </c>
-      <c r="I46" s="45"/>
-      <c r="J46" s="45"/>
-      <c r="K46" s="45"/>
-      <c r="L46" s="45"/>
-      <c r="M46" s="45"/>
-      <c r="N46" s="45"/>
-    </row>
-    <row r="47" spans="1:14" s="38" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A47" s="44" t="s">
-        <v>62</v>
-      </c>
-      <c r="B47" s="44" t="s">
-        <v>63</v>
-      </c>
-      <c r="C47" s="44" t="s">
-        <v>226</v>
       </c>
       <c r="D47" s="44" t="s">
         <v>44</v>
       </c>
       <c r="E47" s="44" t="s">
-        <v>64</v>
+        <v>60</v>
       </c>
       <c r="F47" s="44"/>
-      <c r="G47" s="44" t="s">
-        <v>65</v>
-      </c>
+      <c r="G47" s="44"/>
       <c r="H47" s="44" t="s">
-        <v>531</v>
+        <v>61</v>
       </c>
       <c r="I47" s="45"/>
       <c r="J47" s="45"/>
@@ -15003,38 +15038,44 @@
       <c r="N47" s="45"/>
     </row>
     <row r="48" spans="1:14" s="38" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A48" s="42" t="s">
-        <v>49</v>
-      </c>
-      <c r="B48" s="39" t="s">
-        <v>3098</v>
-      </c>
-      <c r="C48" s="39" t="s">
-        <v>16</v>
-      </c>
-      <c r="D48" s="40"/>
-      <c r="E48" s="39"/>
-      <c r="F48" s="39"/>
-      <c r="G48" s="40"/>
-      <c r="H48" s="40"/>
-      <c r="I48" s="39" t="s">
-        <v>3099</v>
-      </c>
-      <c r="J48" s="40"/>
-      <c r="K48" s="40"/>
-      <c r="L48" s="40"/>
-      <c r="M48" s="40"/>
-      <c r="N48" s="40"/>
+      <c r="A48" s="44" t="s">
+        <v>62</v>
+      </c>
+      <c r="B48" s="44" t="s">
+        <v>63</v>
+      </c>
+      <c r="C48" s="44" t="s">
+        <v>226</v>
+      </c>
+      <c r="D48" s="44" t="s">
+        <v>44</v>
+      </c>
+      <c r="E48" s="44" t="s">
+        <v>64</v>
+      </c>
+      <c r="F48" s="44"/>
+      <c r="G48" s="44" t="s">
+        <v>65</v>
+      </c>
+      <c r="H48" s="44" t="s">
+        <v>531</v>
+      </c>
+      <c r="I48" s="45"/>
+      <c r="J48" s="45"/>
+      <c r="K48" s="45"/>
+      <c r="L48" s="45"/>
+      <c r="M48" s="45"/>
+      <c r="N48" s="45"/>
     </row>
     <row r="49" spans="1:14" s="38" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A49" s="42" t="s">
         <v>49</v>
       </c>
       <c r="B49" s="39" t="s">
-        <v>3100</v>
+        <v>3098</v>
       </c>
       <c r="C49" s="39" t="s">
-        <v>3101</v>
+        <v>16</v>
       </c>
       <c r="D49" s="40"/>
       <c r="E49" s="39"/>
@@ -15042,7 +15083,7 @@
       <c r="G49" s="40"/>
       <c r="H49" s="40"/>
       <c r="I49" s="39" t="s">
-        <v>3102</v>
+        <v>3099</v>
       </c>
       <c r="J49" s="40"/>
       <c r="K49" s="40"/>
@@ -15051,23 +15092,23 @@
       <c r="N49" s="40"/>
     </row>
     <row r="50" spans="1:14" s="38" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A50" s="41" t="s">
-        <v>29</v>
+      <c r="A50" s="42" t="s">
+        <v>49</v>
       </c>
       <c r="B50" s="39" t="s">
-        <v>3103</v>
+        <v>3100</v>
       </c>
       <c r="C50" s="39" t="s">
-        <v>3104</v>
+        <v>3101</v>
       </c>
       <c r="D50" s="40"/>
-      <c r="E50" s="43" t="b">
-        <v>0</v>
-      </c>
+      <c r="E50" s="39"/>
       <c r="F50" s="39"/>
       <c r="G50" s="40"/>
       <c r="H50" s="40"/>
-      <c r="I50" s="40"/>
+      <c r="I50" s="39" t="s">
+        <v>3102</v>
+      </c>
       <c r="J50" s="40"/>
       <c r="K50" s="40"/>
       <c r="L50" s="40"/>
@@ -15075,11 +15116,19 @@
       <c r="N50" s="40"/>
     </row>
     <row r="51" spans="1:14" s="38" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A51" s="41"/>
-      <c r="B51" s="39"/>
-      <c r="C51" s="39"/>
+      <c r="A51" s="41" t="s">
+        <v>29</v>
+      </c>
+      <c r="B51" s="39" t="s">
+        <v>3103</v>
+      </c>
+      <c r="C51" s="39" t="s">
+        <v>3104</v>
+      </c>
       <c r="D51" s="40"/>
-      <c r="E51" s="43"/>
+      <c r="E51" s="43" t="b">
+        <v>0</v>
+      </c>
       <c r="F51" s="39"/>
       <c r="G51" s="40"/>
       <c r="H51" s="40"/>
@@ -15090,39 +15139,31 @@
       <c r="M51" s="40"/>
       <c r="N51" s="40"/>
     </row>
-    <row r="52" spans="1:14" s="49" customFormat="1" ht="15.6" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A52" s="46" t="s">
-        <v>49</v>
-      </c>
-      <c r="B52" s="47" t="s">
-        <v>3105</v>
-      </c>
-      <c r="C52" s="47" t="s">
-        <v>16</v>
-      </c>
-      <c r="D52" s="48"/>
-      <c r="E52" s="47"/>
-      <c r="F52" s="47"/>
-      <c r="G52" s="48"/>
-      <c r="H52" s="48"/>
-      <c r="I52" s="47" t="s">
-        <v>3106</v>
-      </c>
-      <c r="J52" s="48"/>
-      <c r="K52" s="48"/>
-      <c r="L52" s="48"/>
-      <c r="M52" s="48"/>
-      <c r="N52" s="48"/>
-    </row>
-    <row r="53" spans="1:14" s="49" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="52" spans="1:14" s="38" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A52" s="41"/>
+      <c r="B52" s="39"/>
+      <c r="C52" s="39"/>
+      <c r="D52" s="40"/>
+      <c r="E52" s="43"/>
+      <c r="F52" s="39"/>
+      <c r="G52" s="40"/>
+      <c r="H52" s="40"/>
+      <c r="I52" s="40"/>
+      <c r="J52" s="40"/>
+      <c r="K52" s="40"/>
+      <c r="L52" s="40"/>
+      <c r="M52" s="40"/>
+      <c r="N52" s="40"/>
+    </row>
+    <row r="53" spans="1:14" s="49" customFormat="1" ht="15.6" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A53" s="46" t="s">
         <v>49</v>
       </c>
       <c r="B53" s="47" t="s">
-        <v>3107</v>
+        <v>3105</v>
       </c>
       <c r="C53" s="47" t="s">
-        <v>67</v>
+        <v>16</v>
       </c>
       <c r="D53" s="48"/>
       <c r="E53" s="47"/>
@@ -15130,7 +15171,7 @@
       <c r="G53" s="48"/>
       <c r="H53" s="48"/>
       <c r="I53" s="47" t="s">
-        <v>3108</v>
+        <v>3106</v>
       </c>
       <c r="J53" s="48"/>
       <c r="K53" s="48"/>
@@ -15143,10 +15184,10 @@
         <v>49</v>
       </c>
       <c r="B54" s="47" t="s">
-        <v>3109</v>
+        <v>3107</v>
       </c>
       <c r="C54" s="47" t="s">
-        <v>3110</v>
+        <v>67</v>
       </c>
       <c r="D54" s="48"/>
       <c r="E54" s="47"/>
@@ -15154,7 +15195,7 @@
       <c r="G54" s="48"/>
       <c r="H54" s="48"/>
       <c r="I54" s="47" t="s">
-        <v>3111</v>
+        <v>3108</v>
       </c>
       <c r="J54" s="48"/>
       <c r="K54" s="48"/>
@@ -15167,22 +15208,18 @@
         <v>49</v>
       </c>
       <c r="B55" s="47" t="s">
-        <v>550</v>
+        <v>3109</v>
       </c>
       <c r="C55" s="47" t="s">
-        <v>16</v>
+        <v>3110</v>
       </c>
       <c r="D55" s="48"/>
-      <c r="E55" s="48"/>
+      <c r="E55" s="47"/>
       <c r="F55" s="47"/>
-      <c r="G55" s="47" t="s">
-        <v>3112</v>
-      </c>
-      <c r="H55" s="47" t="s">
-        <v>3113</v>
-      </c>
+      <c r="G55" s="48"/>
+      <c r="H55" s="48"/>
       <c r="I55" s="47" t="s">
-        <v>551</v>
+        <v>3111</v>
       </c>
       <c r="J55" s="48"/>
       <c r="K55" s="48"/>
@@ -15190,55 +15227,59 @@
       <c r="M55" s="48"/>
       <c r="N55" s="48"/>
     </row>
-    <row r="56" spans="1:14" s="38" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A56" s="41"/>
-      <c r="B56" s="39"/>
-      <c r="C56" s="39"/>
-      <c r="D56" s="40"/>
-      <c r="E56" s="43"/>
-      <c r="F56" s="39"/>
-      <c r="G56" s="40"/>
-      <c r="H56" s="40"/>
-      <c r="I56" s="40"/>
-      <c r="J56" s="40"/>
-      <c r="K56" s="40"/>
-      <c r="L56" s="40"/>
-      <c r="M56" s="40"/>
-      <c r="N56" s="40"/>
-    </row>
-    <row r="57" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A57" s="3" t="s">
-        <v>68</v>
-      </c>
-      <c r="B57" s="3" t="s">
-        <v>69</v>
-      </c>
-      <c r="C57" s="3" t="s">
-        <v>70</v>
-      </c>
-      <c r="D57" s="7"/>
-      <c r="E57" s="3"/>
-      <c r="F57" s="3" t="s">
-        <v>71</v>
-      </c>
-      <c r="G57" s="7"/>
-      <c r="H57" s="7"/>
-      <c r="I57" s="7"/>
-      <c r="J57" s="7"/>
-      <c r="K57" s="7"/>
-      <c r="L57" s="7"/>
-      <c r="M57" s="7"/>
-      <c r="N57" s="7"/>
+    <row r="56" spans="1:14" s="49" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A56" s="46" t="s">
+        <v>49</v>
+      </c>
+      <c r="B56" s="47" t="s">
+        <v>550</v>
+      </c>
+      <c r="C56" s="47" t="s">
+        <v>16</v>
+      </c>
+      <c r="D56" s="48"/>
+      <c r="E56" s="48"/>
+      <c r="F56" s="47"/>
+      <c r="G56" s="47" t="s">
+        <v>3112</v>
+      </c>
+      <c r="H56" s="47" t="s">
+        <v>3113</v>
+      </c>
+      <c r="I56" s="47" t="s">
+        <v>551</v>
+      </c>
+      <c r="J56" s="48"/>
+      <c r="K56" s="48"/>
+      <c r="L56" s="48"/>
+      <c r="M56" s="48"/>
+      <c r="N56" s="48"/>
+    </row>
+    <row r="57" spans="1:14" s="38" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A57" s="41"/>
+      <c r="B57" s="39"/>
+      <c r="C57" s="39"/>
+      <c r="D57" s="40"/>
+      <c r="E57" s="43"/>
+      <c r="F57" s="39"/>
+      <c r="G57" s="40"/>
+      <c r="H57" s="40"/>
+      <c r="I57" s="40"/>
+      <c r="J57" s="40"/>
+      <c r="K57" s="40"/>
+      <c r="L57" s="40"/>
+      <c r="M57" s="40"/>
+      <c r="N57" s="40"/>
     </row>
     <row r="58" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A58" s="3" t="s">
-        <v>73</v>
+        <v>68</v>
       </c>
       <c r="B58" s="3" t="s">
-        <v>74</v>
+        <v>69</v>
       </c>
       <c r="C58" s="3" t="s">
-        <v>75</v>
+        <v>70</v>
       </c>
       <c r="D58" s="7"/>
       <c r="E58" s="3"/>
@@ -15255,18 +15296,20 @@
       <c r="N58" s="7"/>
     </row>
     <row r="59" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A59" s="13" t="s">
-        <v>29</v>
+      <c r="A59" s="3" t="s">
+        <v>73</v>
       </c>
       <c r="B59" s="3" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
       <c r="C59" s="3" t="s">
-        <v>39</v>
-      </c>
-      <c r="D59" s="3"/>
+        <v>75</v>
+      </c>
+      <c r="D59" s="7"/>
       <c r="E59" s="3"/>
-      <c r="F59" s="17"/>
+      <c r="F59" s="3" t="s">
+        <v>71</v>
+      </c>
       <c r="G59" s="7"/>
       <c r="H59" s="7"/>
       <c r="I59" s="7"/>
@@ -15278,10 +15321,14 @@
     </row>
     <row r="60" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A60" s="13" t="s">
-        <v>21</v>
-      </c>
-      <c r="B60" s="3"/>
-      <c r="C60" s="3"/>
+        <v>29</v>
+      </c>
+      <c r="B60" s="3" t="s">
+        <v>76</v>
+      </c>
+      <c r="C60" s="3" t="s">
+        <v>39</v>
+      </c>
       <c r="D60" s="3"/>
       <c r="E60" s="3"/>
       <c r="F60" s="17"/>
@@ -15295,7 +15342,9 @@
       <c r="N60" s="7"/>
     </row>
     <row r="61" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A61" s="13"/>
+      <c r="A61" s="13" t="s">
+        <v>21</v>
+      </c>
       <c r="B61" s="3"/>
       <c r="C61" s="3"/>
       <c r="D61" s="3"/>
@@ -15311,19 +15360,11 @@
       <c r="N61" s="7"/>
     </row>
     <row r="62" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A62" s="13" t="s">
-        <v>14</v>
-      </c>
-      <c r="B62" s="3" t="s">
-        <v>481</v>
-      </c>
-      <c r="C62" s="3" t="s">
-        <v>560</v>
-      </c>
+      <c r="A62" s="13"/>
+      <c r="B62" s="3"/>
+      <c r="C62" s="3"/>
       <c r="D62" s="3"/>
-      <c r="E62" s="3" t="s">
-        <v>477</v>
-      </c>
+      <c r="E62" s="3"/>
       <c r="F62" s="17"/>
       <c r="G62" s="7"/>
       <c r="H62" s="7"/>
@@ -15334,18 +15375,20 @@
       <c r="M62" s="7"/>
       <c r="N62" s="7"/>
     </row>
-    <row r="63" spans="1:14" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="63" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A63" s="13" t="s">
-        <v>29</v>
+        <v>14</v>
       </c>
       <c r="B63" s="3" t="s">
-        <v>533</v>
+        <v>481</v>
       </c>
       <c r="C63" s="3" t="s">
-        <v>77</v>
+        <v>560</v>
       </c>
       <c r="D63" s="3"/>
-      <c r="E63" s="3"/>
+      <c r="E63" s="3" t="s">
+        <v>477</v>
+      </c>
       <c r="F63" s="17"/>
       <c r="G63" s="7"/>
       <c r="H63" s="7"/>
@@ -15356,21 +15399,19 @@
       <c r="M63" s="7"/>
       <c r="N63" s="7"/>
     </row>
-    <row r="64" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A64" s="3" t="s">
-        <v>78</v>
+    <row r="64" spans="1:14" ht="14.4" x14ac:dyDescent="0.3">
+      <c r="A64" s="13" t="s">
+        <v>29</v>
       </c>
       <c r="B64" s="3" t="s">
-        <v>79</v>
+        <v>533</v>
       </c>
       <c r="C64" s="3" t="s">
-        <v>80</v>
+        <v>77</v>
       </c>
       <c r="D64" s="3"/>
       <c r="E64" s="3"/>
-      <c r="F64" s="3" t="s">
-        <v>71</v>
-      </c>
+      <c r="F64" s="17"/>
       <c r="G64" s="7"/>
       <c r="H64" s="7"/>
       <c r="I64" s="7"/>
@@ -15382,30 +15423,24 @@
     </row>
     <row r="65" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A65" s="3" t="s">
-        <v>72</v>
+        <v>78</v>
       </c>
       <c r="B65" s="3" t="s">
-        <v>81</v>
+        <v>79</v>
       </c>
       <c r="C65" s="3" t="s">
-        <v>82</v>
-      </c>
-      <c r="D65" s="3" t="s">
-        <v>44</v>
-      </c>
+        <v>80</v>
+      </c>
+      <c r="D65" s="3"/>
       <c r="E65" s="3"/>
-      <c r="F65" s="3"/>
-      <c r="G65" s="16" t="s">
-        <v>554</v>
-      </c>
-      <c r="H65" s="3" t="s">
-        <v>555</v>
-      </c>
+      <c r="F65" s="3" t="s">
+        <v>71</v>
+      </c>
+      <c r="G65" s="7"/>
+      <c r="H65" s="7"/>
       <c r="I65" s="7"/>
       <c r="J65" s="7"/>
-      <c r="K65" s="3" t="s">
-        <v>225</v>
-      </c>
+      <c r="K65" s="7"/>
       <c r="L65" s="7"/>
       <c r="M65" s="7"/>
       <c r="N65" s="7"/>
@@ -15415,13 +15450,13 @@
         <v>72</v>
       </c>
       <c r="B66" s="3" t="s">
-        <v>83</v>
+        <v>81</v>
       </c>
       <c r="C66" s="3" t="s">
-        <v>84</v>
+        <v>82</v>
       </c>
       <c r="D66" s="3" t="s">
-        <v>66</v>
+        <v>44</v>
       </c>
       <c r="E66" s="3"/>
       <c r="F66" s="3"/>
@@ -15442,39 +15477,43 @@
     </row>
     <row r="67" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A67" s="3" t="s">
-        <v>85</v>
+        <v>72</v>
       </c>
       <c r="B67" s="3" t="s">
-        <v>86</v>
+        <v>83</v>
       </c>
       <c r="C67" s="3" t="s">
-        <v>227</v>
+        <v>84</v>
       </c>
       <c r="D67" s="3" t="s">
-        <v>44</v>
+        <v>66</v>
       </c>
       <c r="E67" s="3"/>
-      <c r="F67" s="3" t="s">
-        <v>71</v>
-      </c>
-      <c r="G67" s="7"/>
-      <c r="H67" s="7"/>
+      <c r="F67" s="3"/>
+      <c r="G67" s="16" t="s">
+        <v>554</v>
+      </c>
+      <c r="H67" s="3" t="s">
+        <v>555</v>
+      </c>
       <c r="I67" s="7"/>
       <c r="J67" s="7"/>
-      <c r="K67" s="7"/>
+      <c r="K67" s="3" t="s">
+        <v>225</v>
+      </c>
       <c r="L67" s="7"/>
       <c r="M67" s="7"/>
       <c r="N67" s="7"/>
     </row>
     <row r="68" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A68" s="3" t="s">
-        <v>87</v>
+        <v>85</v>
       </c>
       <c r="B68" s="3" t="s">
-        <v>88</v>
+        <v>86</v>
       </c>
       <c r="C68" s="3" t="s">
-        <v>228</v>
+        <v>227</v>
       </c>
       <c r="D68" s="3" t="s">
         <v>44</v>
@@ -15486,9 +15525,7 @@
       <c r="G68" s="7"/>
       <c r="H68" s="7"/>
       <c r="I68" s="7"/>
-      <c r="J68" s="3" t="s">
-        <v>89</v>
-      </c>
+      <c r="J68" s="7"/>
       <c r="K68" s="7"/>
       <c r="L68" s="7"/>
       <c r="M68" s="7"/>
@@ -15496,13 +15533,13 @@
     </row>
     <row r="69" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A69" s="3" t="s">
-        <v>242</v>
+        <v>87</v>
       </c>
       <c r="B69" s="3" t="s">
-        <v>90</v>
+        <v>88</v>
       </c>
       <c r="C69" s="3" t="s">
-        <v>229</v>
+        <v>228</v>
       </c>
       <c r="D69" s="3" t="s">
         <v>44</v>
@@ -15515,7 +15552,7 @@
       <c r="H69" s="7"/>
       <c r="I69" s="7"/>
       <c r="J69" s="3" t="s">
-        <v>243</v>
+        <v>89</v>
       </c>
       <c r="K69" s="7"/>
       <c r="L69" s="7"/>
@@ -15524,23 +15561,27 @@
     </row>
     <row r="70" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A70" s="3" t="s">
-        <v>18</v>
+        <v>242</v>
       </c>
       <c r="B70" s="3" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="C70" s="3" t="s">
-        <v>532</v>
+        <v>229</v>
       </c>
       <c r="D70" s="3" t="s">
-        <v>66</v>
+        <v>44</v>
       </c>
       <c r="E70" s="3"/>
-      <c r="F70" s="3"/>
+      <c r="F70" s="3" t="s">
+        <v>71</v>
+      </c>
       <c r="G70" s="7"/>
       <c r="H70" s="7"/>
       <c r="I70" s="7"/>
-      <c r="J70" s="7"/>
+      <c r="J70" s="3" t="s">
+        <v>243</v>
+      </c>
       <c r="K70" s="7"/>
       <c r="L70" s="7"/>
       <c r="M70" s="7"/>
@@ -15551,13 +15592,13 @@
         <v>18</v>
       </c>
       <c r="B71" s="3" t="s">
-        <v>478</v>
+        <v>91</v>
       </c>
       <c r="C71" s="3" t="s">
-        <v>561</v>
+        <v>532</v>
       </c>
       <c r="D71" s="3" t="s">
-        <v>44</v>
+        <v>66</v>
       </c>
       <c r="E71" s="3"/>
       <c r="F71" s="3"/>
@@ -15575,66 +15616,64 @@
         <v>18</v>
       </c>
       <c r="B72" s="3" t="s">
-        <v>92</v>
+        <v>478</v>
       </c>
       <c r="C72" s="3" t="s">
-        <v>93</v>
-      </c>
-      <c r="D72" s="3"/>
+        <v>561</v>
+      </c>
+      <c r="D72" s="3" t="s">
+        <v>44</v>
+      </c>
       <c r="E72" s="3"/>
       <c r="F72" s="3"/>
       <c r="G72" s="7"/>
       <c r="H72" s="7"/>
       <c r="I72" s="7"/>
       <c r="J72" s="7"/>
-      <c r="K72" s="7" t="s">
-        <v>230</v>
-      </c>
+      <c r="K72" s="7"/>
       <c r="L72" s="7"/>
       <c r="M72" s="7"/>
       <c r="N72" s="7"/>
     </row>
     <row r="73" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A73" s="3" t="s">
-        <v>916</v>
+        <v>18</v>
       </c>
       <c r="B73" s="3" t="s">
-        <v>94</v>
+        <v>92</v>
       </c>
       <c r="C73" s="3" t="s">
-        <v>95</v>
-      </c>
-      <c r="D73" s="3" t="s">
-        <v>44</v>
-      </c>
+        <v>93</v>
+      </c>
+      <c r="D73" s="3"/>
       <c r="E73" s="3"/>
       <c r="F73" s="3"/>
       <c r="G73" s="7"/>
       <c r="H73" s="7"/>
       <c r="I73" s="7"/>
       <c r="J73" s="7"/>
-      <c r="K73" s="7"/>
+      <c r="K73" s="7" t="s">
+        <v>230</v>
+      </c>
       <c r="L73" s="7"/>
       <c r="M73" s="7"/>
       <c r="N73" s="7"/>
     </row>
     <row r="74" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A74" s="3" t="s">
-        <v>55</v>
+        <v>916</v>
       </c>
       <c r="B74" s="3" t="s">
-        <v>484</v>
+        <v>94</v>
       </c>
       <c r="C74" s="3" t="s">
-        <v>485</v>
+        <v>95</v>
       </c>
       <c r="D74" s="3" t="s">
         <v>44</v>
       </c>
       <c r="E74" s="3"/>
-      <c r="F74" s="3" t="s">
-        <v>71</v>
-      </c>
+      <c r="F74" s="3"/>
       <c r="G74" s="7"/>
       <c r="H74" s="7"/>
       <c r="I74" s="7"/>
@@ -15644,37 +15683,41 @@
       <c r="M74" s="7"/>
       <c r="N74" s="7"/>
     </row>
-    <row r="75" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="75" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A75" s="3" t="s">
-        <v>29</v>
+        <v>55</v>
       </c>
       <c r="B75" s="3" t="s">
-        <v>96</v>
+        <v>484</v>
       </c>
       <c r="C75" s="3" t="s">
-        <v>39</v>
-      </c>
-      <c r="D75" s="3"/>
+        <v>485</v>
+      </c>
+      <c r="D75" s="3" t="s">
+        <v>44</v>
+      </c>
       <c r="E75" s="3"/>
-      <c r="F75" s="3"/>
-      <c r="G75" s="3"/>
-      <c r="H75" s="3"/>
-      <c r="I75" s="3"/>
-      <c r="J75" s="3"/>
-      <c r="K75" s="3"/>
-      <c r="L75" s="3"/>
-      <c r="M75" s="3"/>
-      <c r="N75" s="3"/>
+      <c r="F75" s="3" t="s">
+        <v>71</v>
+      </c>
+      <c r="G75" s="7"/>
+      <c r="H75" s="7"/>
+      <c r="I75" s="7"/>
+      <c r="J75" s="7"/>
+      <c r="K75" s="7"/>
+      <c r="L75" s="7"/>
+      <c r="M75" s="7"/>
+      <c r="N75" s="7"/>
     </row>
     <row r="76" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A76" s="3" t="s">
         <v>29</v>
       </c>
       <c r="B76" s="3" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="C76" s="3" t="s">
-        <v>98</v>
+        <v>39</v>
       </c>
       <c r="D76" s="3"/>
       <c r="E76" s="3"/>
@@ -15690,17 +15733,15 @@
     </row>
     <row r="77" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A77" s="3" t="s">
-        <v>18</v>
+        <v>29</v>
       </c>
       <c r="B77" s="3" t="s">
-        <v>99</v>
+        <v>97</v>
       </c>
       <c r="C77" s="3" t="s">
-        <v>100</v>
-      </c>
-      <c r="D77" s="3" t="s">
-        <v>66</v>
-      </c>
+        <v>98</v>
+      </c>
+      <c r="D77" s="3"/>
       <c r="E77" s="3"/>
       <c r="F77" s="3"/>
       <c r="G77" s="3"/>
@@ -15714,21 +15755,19 @@
     </row>
     <row r="78" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A78" s="3" t="s">
-        <v>101</v>
+        <v>18</v>
       </c>
       <c r="B78" s="3" t="s">
-        <v>102</v>
+        <v>99</v>
       </c>
       <c r="C78" s="3" t="s">
-        <v>103</v>
+        <v>100</v>
       </c>
       <c r="D78" s="3" t="s">
         <v>66</v>
       </c>
       <c r="E78" s="3"/>
-      <c r="F78" s="3" t="s">
-        <v>71</v>
-      </c>
+      <c r="F78" s="3"/>
       <c r="G78" s="3"/>
       <c r="H78" s="3"/>
       <c r="I78" s="3"/>
@@ -15740,19 +15779,21 @@
     </row>
     <row r="79" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A79" s="3" t="s">
-        <v>18</v>
+        <v>101</v>
       </c>
       <c r="B79" s="3" t="s">
-        <v>104</v>
+        <v>102</v>
       </c>
       <c r="C79" s="3" t="s">
-        <v>105</v>
+        <v>103</v>
       </c>
       <c r="D79" s="3" t="s">
         <v>66</v>
       </c>
       <c r="E79" s="3"/>
-      <c r="F79" s="3"/>
+      <c r="F79" s="3" t="s">
+        <v>71</v>
+      </c>
       <c r="G79" s="3"/>
       <c r="H79" s="3"/>
       <c r="I79" s="3"/>
@@ -15764,11 +15805,17 @@
     </row>
     <row r="80" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A80" s="3" t="s">
-        <v>21</v>
-      </c>
-      <c r="B80" s="3"/>
-      <c r="C80" s="3"/>
-      <c r="D80" s="3"/>
+        <v>18</v>
+      </c>
+      <c r="B80" s="3" t="s">
+        <v>104</v>
+      </c>
+      <c r="C80" s="3" t="s">
+        <v>105</v>
+      </c>
+      <c r="D80" s="3" t="s">
+        <v>66</v>
+      </c>
       <c r="E80" s="3"/>
       <c r="F80" s="3"/>
       <c r="G80" s="3"/>
@@ -15782,14 +15829,10 @@
     </row>
     <row r="81" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A81" s="3" t="s">
-        <v>29</v>
-      </c>
-      <c r="B81" s="3" t="s">
-        <v>106</v>
-      </c>
-      <c r="C81" s="3" t="s">
-        <v>39</v>
-      </c>
+        <v>21</v>
+      </c>
+      <c r="B81" s="3"/>
+      <c r="C81" s="3"/>
       <c r="D81" s="3"/>
       <c r="E81" s="3"/>
       <c r="F81" s="3"/>
@@ -15803,9 +15846,15 @@
       <c r="N81" s="3"/>
     </row>
     <row r="82" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A82" s="3"/>
-      <c r="B82" s="3"/>
-      <c r="C82" s="3"/>
+      <c r="A82" s="3" t="s">
+        <v>29</v>
+      </c>
+      <c r="B82" s="3" t="s">
+        <v>106</v>
+      </c>
+      <c r="C82" s="3" t="s">
+        <v>39</v>
+      </c>
       <c r="D82" s="3"/>
       <c r="E82" s="3"/>
       <c r="F82" s="3"/>
@@ -15819,19 +15868,11 @@
       <c r="N82" s="3"/>
     </row>
     <row r="83" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A83" s="3" t="s">
-        <v>14</v>
-      </c>
-      <c r="B83" s="3" t="s">
-        <v>486</v>
-      </c>
-      <c r="C83" s="3" t="s">
-        <v>3096</v>
-      </c>
+      <c r="A83" s="3"/>
+      <c r="B83" s="3"/>
+      <c r="C83" s="3"/>
       <c r="D83" s="3"/>
-      <c r="E83" s="3" t="s">
-        <v>477</v>
-      </c>
+      <c r="E83" s="3"/>
       <c r="F83" s="3"/>
       <c r="G83" s="3"/>
       <c r="H83" s="3"/>
@@ -15842,18 +15883,20 @@
       <c r="M83" s="3"/>
       <c r="N83" s="3"/>
     </row>
-    <row r="84" spans="1:14" ht="27.6" x14ac:dyDescent="0.25">
+    <row r="84" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A84" s="3" t="s">
-        <v>29</v>
+        <v>14</v>
       </c>
       <c r="B84" s="3" t="s">
-        <v>534</v>
+        <v>486</v>
       </c>
       <c r="C84" s="3" t="s">
-        <v>487</v>
+        <v>3096</v>
       </c>
       <c r="D84" s="3"/>
-      <c r="E84" s="3"/>
+      <c r="E84" s="3" t="s">
+        <v>477</v>
+      </c>
       <c r="F84" s="3"/>
       <c r="G84" s="3"/>
       <c r="H84" s="3"/>
@@ -15864,28 +15907,24 @@
       <c r="M84" s="3"/>
       <c r="N84" s="3"/>
     </row>
-    <row r="85" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A85" s="32" t="s">
-        <v>488</v>
-      </c>
-      <c r="B85" s="32" t="s">
-        <v>489</v>
-      </c>
-      <c r="C85" s="32" t="s">
-        <v>494</v>
-      </c>
-      <c r="D85" s="3" t="s">
-        <v>44</v>
-      </c>
+    <row r="85" spans="1:14" ht="27.6" x14ac:dyDescent="0.25">
+      <c r="A85" s="3" t="s">
+        <v>29</v>
+      </c>
+      <c r="B85" s="3" t="s">
+        <v>534</v>
+      </c>
+      <c r="C85" s="3" t="s">
+        <v>487</v>
+      </c>
+      <c r="D85" s="3"/>
       <c r="E85" s="3"/>
       <c r="F85" s="3"/>
       <c r="G85" s="3"/>
       <c r="H85" s="3"/>
       <c r="I85" s="3"/>
       <c r="J85" s="3"/>
-      <c r="K85" s="31" t="s">
-        <v>506</v>
-      </c>
+      <c r="K85" s="3"/>
       <c r="L85" s="3"/>
       <c r="M85" s="3"/>
       <c r="N85" s="3"/>
@@ -15895,10 +15934,10 @@
         <v>488</v>
       </c>
       <c r="B86" s="32" t="s">
-        <v>490</v>
+        <v>489</v>
       </c>
       <c r="C86" s="32" t="s">
-        <v>495</v>
+        <v>494</v>
       </c>
       <c r="D86" s="3" t="s">
         <v>44</v>
@@ -15910,7 +15949,7 @@
       <c r="I86" s="3"/>
       <c r="J86" s="3"/>
       <c r="K86" s="31" t="s">
-        <v>507</v>
+        <v>506</v>
       </c>
       <c r="L86" s="3"/>
       <c r="M86" s="3"/>
@@ -15918,65 +15957,63 @@
     </row>
     <row r="87" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A87" s="32" t="s">
-        <v>49</v>
+        <v>488</v>
       </c>
       <c r="B87" s="32" t="s">
-        <v>491</v>
-      </c>
-      <c r="C87" s="3" t="s">
-        <v>16</v>
-      </c>
-      <c r="D87" s="3"/>
+        <v>490</v>
+      </c>
+      <c r="C87" s="32" t="s">
+        <v>495</v>
+      </c>
+      <c r="D87" s="3" t="s">
+        <v>44</v>
+      </c>
       <c r="E87" s="3"/>
       <c r="F87" s="3"/>
       <c r="G87" s="3"/>
       <c r="H87" s="3"/>
-      <c r="I87" s="31" t="s">
-        <v>509</v>
-      </c>
+      <c r="I87" s="3"/>
       <c r="J87" s="3"/>
-      <c r="K87" s="3"/>
+      <c r="K87" s="31" t="s">
+        <v>507</v>
+      </c>
       <c r="L87" s="3"/>
       <c r="M87" s="3"/>
       <c r="N87" s="3"/>
     </row>
     <row r="88" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A88" s="32" t="s">
-        <v>29</v>
+        <v>49</v>
       </c>
       <c r="B88" s="32" t="s">
-        <v>492</v>
-      </c>
-      <c r="C88" s="32" t="s">
-        <v>496</v>
-      </c>
-      <c r="D88" s="3" t="s">
-        <v>44</v>
-      </c>
+        <v>491</v>
+      </c>
+      <c r="C88" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="D88" s="3"/>
       <c r="E88" s="3"/>
       <c r="F88" s="3"/>
       <c r="G88" s="3"/>
       <c r="H88" s="3"/>
-      <c r="I88" s="3"/>
+      <c r="I88" s="31" t="s">
+        <v>509</v>
+      </c>
       <c r="J88" s="3"/>
-      <c r="K88" s="31" t="s">
-        <v>508</v>
-      </c>
+      <c r="K88" s="3"/>
       <c r="L88" s="3"/>
       <c r="M88" s="3"/>
-      <c r="N88" s="3" t="s">
-        <v>44</v>
-      </c>
+      <c r="N88" s="3"/>
     </row>
     <row r="89" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A89" s="32" t="s">
-        <v>488</v>
+        <v>29</v>
       </c>
       <c r="B89" s="32" t="s">
-        <v>493</v>
+        <v>492</v>
       </c>
       <c r="C89" s="32" t="s">
-        <v>497</v>
+        <v>496</v>
       </c>
       <c r="D89" s="3" t="s">
         <v>44</v>
@@ -15987,20 +16024,24 @@
       <c r="H89" s="3"/>
       <c r="I89" s="3"/>
       <c r="J89" s="3"/>
-      <c r="K89" s="3"/>
+      <c r="K89" s="31" t="s">
+        <v>508</v>
+      </c>
       <c r="L89" s="3"/>
       <c r="M89" s="3"/>
-      <c r="N89" s="3"/>
+      <c r="N89" s="3" t="s">
+        <v>44</v>
+      </c>
     </row>
     <row r="90" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A90" s="32" t="s">
         <v>488</v>
       </c>
       <c r="B90" s="32" t="s">
-        <v>498</v>
+        <v>493</v>
       </c>
       <c r="C90" s="32" t="s">
-        <v>502</v>
+        <v>497</v>
       </c>
       <c r="D90" s="3" t="s">
         <v>44</v>
@@ -16018,13 +16059,13 @@
     </row>
     <row r="91" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A91" s="32" t="s">
-        <v>62</v>
+        <v>488</v>
       </c>
       <c r="B91" s="32" t="s">
-        <v>499</v>
+        <v>498</v>
       </c>
       <c r="C91" s="32" t="s">
-        <v>503</v>
+        <v>502</v>
       </c>
       <c r="D91" s="3" t="s">
         <v>44</v>
@@ -16045,10 +16086,10 @@
         <v>62</v>
       </c>
       <c r="B92" s="32" t="s">
-        <v>500</v>
+        <v>499</v>
       </c>
       <c r="C92" s="32" t="s">
-        <v>504</v>
+        <v>503</v>
       </c>
       <c r="D92" s="3" t="s">
         <v>44</v>
@@ -16069,10 +16110,10 @@
         <v>62</v>
       </c>
       <c r="B93" s="32" t="s">
-        <v>501</v>
+        <v>500</v>
       </c>
       <c r="C93" s="32" t="s">
-        <v>505</v>
+        <v>504</v>
       </c>
       <c r="D93" s="3" t="s">
         <v>44</v>
@@ -16090,11 +16131,17 @@
     </row>
     <row r="94" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A94" s="32" t="s">
-        <v>21</v>
-      </c>
-      <c r="B94" s="32"/>
-      <c r="C94" s="32"/>
-      <c r="D94" s="3"/>
+        <v>62</v>
+      </c>
+      <c r="B94" s="32" t="s">
+        <v>501</v>
+      </c>
+      <c r="C94" s="32" t="s">
+        <v>505</v>
+      </c>
+      <c r="D94" s="3" t="s">
+        <v>44</v>
+      </c>
       <c r="E94" s="3"/>
       <c r="F94" s="3"/>
       <c r="G94" s="3"/>
@@ -16107,9 +16154,11 @@
       <c r="N94" s="3"/>
     </row>
     <row r="95" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A95" s="3"/>
-      <c r="B95" s="3"/>
-      <c r="C95" s="3"/>
+      <c r="A95" s="32" t="s">
+        <v>21</v>
+      </c>
+      <c r="B95" s="32"/>
+      <c r="C95" s="32"/>
       <c r="D95" s="3"/>
       <c r="E95" s="3"/>
       <c r="F95" s="3"/>
@@ -16123,19 +16172,11 @@
       <c r="N95" s="3"/>
     </row>
     <row r="96" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A96" s="3" t="s">
-        <v>14</v>
-      </c>
-      <c r="B96" s="3" t="s">
-        <v>510</v>
-      </c>
-      <c r="C96" s="32" t="s">
-        <v>536</v>
-      </c>
+      <c r="A96" s="3"/>
+      <c r="B96" s="3"/>
+      <c r="C96" s="3"/>
       <c r="D96" s="3"/>
-      <c r="E96" s="3" t="s">
-        <v>477</v>
-      </c>
+      <c r="E96" s="3"/>
       <c r="F96" s="3"/>
       <c r="G96" s="3"/>
       <c r="H96" s="3"/>
@@ -16146,18 +16187,20 @@
       <c r="M96" s="3"/>
       <c r="N96" s="3"/>
     </row>
-    <row r="97" spans="1:14" ht="27.6" x14ac:dyDescent="0.25">
+    <row r="97" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A97" s="3" t="s">
-        <v>29</v>
+        <v>14</v>
       </c>
       <c r="B97" s="3" t="s">
-        <v>535</v>
-      </c>
-      <c r="C97" s="3" t="s">
-        <v>511</v>
+        <v>510</v>
+      </c>
+      <c r="C97" s="32" t="s">
+        <v>536</v>
       </c>
       <c r="D97" s="3"/>
-      <c r="E97" s="3"/>
+      <c r="E97" s="3" t="s">
+        <v>477</v>
+      </c>
       <c r="F97" s="3"/>
       <c r="G97" s="3"/>
       <c r="H97" s="3"/>
@@ -16168,22 +16211,19 @@
       <c r="M97" s="3"/>
       <c r="N97" s="3"/>
     </row>
-    <row r="98" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A98" s="32" t="s">
-        <v>55</v>
-      </c>
-      <c r="B98" s="32" t="s">
-        <v>512</v>
-      </c>
-      <c r="C98" s="35" t="s">
-        <v>519</v>
-      </c>
-      <c r="D98" s="31" t="s">
-        <v>44</v>
-      </c>
-      <c r="F98" s="3" t="s">
-        <v>71</v>
-      </c>
+    <row r="98" spans="1:14" ht="27.6" x14ac:dyDescent="0.25">
+      <c r="A98" s="3" t="s">
+        <v>29</v>
+      </c>
+      <c r="B98" s="3" t="s">
+        <v>535</v>
+      </c>
+      <c r="C98" s="3" t="s">
+        <v>511</v>
+      </c>
+      <c r="D98" s="3"/>
+      <c r="E98" s="3"/>
+      <c r="F98" s="3"/>
       <c r="G98" s="3"/>
       <c r="H98" s="3"/>
       <c r="I98" s="3"/>
@@ -16198,10 +16238,10 @@
         <v>55</v>
       </c>
       <c r="B99" s="32" t="s">
-        <v>513</v>
+        <v>512</v>
       </c>
       <c r="C99" s="35" t="s">
-        <v>520</v>
+        <v>519</v>
       </c>
       <c r="D99" s="31" t="s">
         <v>44</v>
@@ -16223,10 +16263,10 @@
         <v>55</v>
       </c>
       <c r="B100" s="32" t="s">
-        <v>514</v>
+        <v>513</v>
       </c>
       <c r="C100" s="35" t="s">
-        <v>521</v>
+        <v>520</v>
       </c>
       <c r="D100" s="31" t="s">
         <v>44</v>
@@ -16248,10 +16288,10 @@
         <v>55</v>
       </c>
       <c r="B101" s="32" t="s">
-        <v>515</v>
+        <v>514</v>
       </c>
       <c r="C101" s="35" t="s">
-        <v>522</v>
+        <v>521</v>
       </c>
       <c r="D101" s="31" t="s">
         <v>44</v>
@@ -16273,16 +16313,13 @@
         <v>55</v>
       </c>
       <c r="B102" s="32" t="s">
-        <v>516</v>
+        <v>515</v>
       </c>
       <c r="C102" s="35" t="s">
-        <v>523</v>
+        <v>522</v>
       </c>
       <c r="D102" s="31" t="s">
         <v>44</v>
-      </c>
-      <c r="E102" s="32" t="s">
-        <v>517</v>
       </c>
       <c r="F102" s="3" t="s">
         <v>71</v>
@@ -16291,68 +16328,72 @@
       <c r="H102" s="3"/>
       <c r="I102" s="3"/>
       <c r="J102" s="3"/>
-      <c r="K102" s="31" t="s">
-        <v>525</v>
-      </c>
+      <c r="K102" s="3"/>
       <c r="L102" s="3"/>
       <c r="M102" s="3"/>
       <c r="N102" s="3"/>
     </row>
     <row r="103" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A103" s="31" t="s">
-        <v>49</v>
+      <c r="A103" s="32" t="s">
+        <v>55</v>
       </c>
       <c r="B103" s="32" t="s">
-        <v>518</v>
-      </c>
-      <c r="C103" s="32"/>
-      <c r="F103" s="3"/>
+        <v>516</v>
+      </c>
+      <c r="C103" s="35" t="s">
+        <v>523</v>
+      </c>
+      <c r="D103" s="31" t="s">
+        <v>44</v>
+      </c>
+      <c r="E103" s="32" t="s">
+        <v>517</v>
+      </c>
+      <c r="F103" s="3" t="s">
+        <v>71</v>
+      </c>
       <c r="G103" s="3"/>
       <c r="H103" s="3"/>
-      <c r="I103" s="34" t="s">
-        <v>3097</v>
-      </c>
+      <c r="I103" s="3"/>
       <c r="J103" s="3"/>
-      <c r="K103" s="3"/>
+      <c r="K103" s="31" t="s">
+        <v>525</v>
+      </c>
       <c r="L103" s="3"/>
       <c r="M103" s="3"/>
       <c r="N103" s="3"/>
     </row>
     <row r="104" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A104" s="31" t="s">
-        <v>29</v>
+        <v>49</v>
       </c>
       <c r="B104" s="32" t="s">
-        <v>526</v>
-      </c>
-      <c r="C104" s="32" t="s">
-        <v>524</v>
-      </c>
-      <c r="D104" s="31"/>
+        <v>518</v>
+      </c>
+      <c r="C104" s="32"/>
       <c r="F104" s="3"/>
       <c r="G104" s="3"/>
       <c r="H104" s="3"/>
-      <c r="I104" s="3"/>
+      <c r="I104" s="34" t="s">
+        <v>3097</v>
+      </c>
       <c r="J104" s="3"/>
       <c r="K104" s="3"/>
       <c r="L104" s="3"/>
       <c r="M104" s="3"/>
       <c r="N104" s="3"/>
     </row>
-    <row r="105" spans="1:14" ht="41.4" x14ac:dyDescent="0.25">
+    <row r="105" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A105" s="31" t="s">
         <v>29</v>
       </c>
-      <c r="B105" s="31" t="s">
-        <v>29</v>
-      </c>
-      <c r="C105" s="33" t="s">
-        <v>538</v>
+      <c r="B105" s="32" t="s">
+        <v>526</v>
+      </c>
+      <c r="C105" s="32" t="s">
+        <v>524</v>
       </c>
       <c r="D105" s="31"/>
-      <c r="E105" s="36" t="s">
-        <v>537</v>
-      </c>
       <c r="F105" s="3"/>
       <c r="G105" s="3"/>
       <c r="H105" s="3"/>
@@ -16363,14 +16404,20 @@
       <c r="M105" s="3"/>
       <c r="N105" s="3"/>
     </row>
-    <row r="106" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A106" s="3" t="s">
-        <v>21</v>
-      </c>
-      <c r="B106" s="3"/>
-      <c r="C106" s="3"/>
-      <c r="D106" s="3"/>
-      <c r="E106" s="3"/>
+    <row r="106" spans="1:14" ht="41.4" x14ac:dyDescent="0.25">
+      <c r="A106" s="31" t="s">
+        <v>29</v>
+      </c>
+      <c r="B106" s="31" t="s">
+        <v>29</v>
+      </c>
+      <c r="C106" s="33" t="s">
+        <v>538</v>
+      </c>
+      <c r="D106" s="31"/>
+      <c r="E106" s="36" t="s">
+        <v>537</v>
+      </c>
       <c r="F106" s="3"/>
       <c r="G106" s="3"/>
       <c r="H106" s="3"/>
@@ -16382,7 +16429,9 @@
       <c r="N106" s="3"/>
     </row>
     <row r="107" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A107" s="3"/>
+      <c r="A107" s="3" t="s">
+        <v>21</v>
+      </c>
       <c r="B107" s="3"/>
       <c r="C107" s="3"/>
       <c r="D107" s="3"/>
@@ -16397,58 +16446,50 @@
       <c r="M107" s="3"/>
       <c r="N107" s="3"/>
     </row>
-    <row r="108" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A108" s="5" t="s">
+    <row r="108" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A108" s="3"/>
+      <c r="B108" s="3"/>
+      <c r="C108" s="3"/>
+      <c r="D108" s="3"/>
+      <c r="E108" s="3"/>
+      <c r="F108" s="3"/>
+      <c r="G108" s="3"/>
+      <c r="H108" s="3"/>
+      <c r="I108" s="3"/>
+      <c r="J108" s="3"/>
+      <c r="K108" s="3"/>
+      <c r="L108" s="3"/>
+      <c r="M108" s="3"/>
+      <c r="N108" s="3"/>
+    </row>
+    <row r="109" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A109" s="5" t="s">
         <v>14</v>
       </c>
-      <c r="B108" s="5" t="s">
+      <c r="B109" s="5" t="s">
         <v>527</v>
       </c>
-      <c r="C108" s="5"/>
-      <c r="D108" s="17"/>
-      <c r="E108" s="17"/>
-      <c r="F108" s="5" t="s">
+      <c r="C109" s="5"/>
+      <c r="D109" s="17"/>
+      <c r="E109" s="17"/>
+      <c r="F109" s="5" t="s">
         <v>25</v>
       </c>
-      <c r="G108" s="17"/>
-      <c r="H108" s="17"/>
-      <c r="I108" s="17"/>
-      <c r="J108" s="17"/>
-      <c r="K108" s="17"/>
-      <c r="L108" s="17"/>
-      <c r="M108" s="17"/>
-      <c r="N108" s="17"/>
-    </row>
-    <row r="109" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A109" s="14" t="s">
-        <v>49</v>
-      </c>
-      <c r="B109" s="3" t="s">
-        <v>107</v>
-      </c>
-      <c r="C109" s="3" t="s">
-        <v>16</v>
-      </c>
-      <c r="D109" s="7"/>
-      <c r="E109" s="8"/>
-      <c r="F109" s="8"/>
-      <c r="G109" s="8"/>
-      <c r="H109" s="8"/>
-      <c r="I109" s="3" t="s">
-        <v>108</v>
-      </c>
-      <c r="J109" s="8"/>
-      <c r="K109" s="8"/>
-      <c r="L109" s="8"/>
-      <c r="M109" s="8"/>
-      <c r="N109" s="8"/>
+      <c r="G109" s="17"/>
+      <c r="H109" s="17"/>
+      <c r="I109" s="17"/>
+      <c r="J109" s="17"/>
+      <c r="K109" s="17"/>
+      <c r="L109" s="17"/>
+      <c r="M109" s="17"/>
+      <c r="N109" s="17"/>
     </row>
     <row r="110" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A110" s="14" t="s">
         <v>49</v>
       </c>
       <c r="B110" s="3" t="s">
-        <v>109</v>
+        <v>107</v>
       </c>
       <c r="C110" s="3" t="s">
         <v>16</v>
@@ -16459,7 +16500,7 @@
       <c r="G110" s="8"/>
       <c r="H110" s="8"/>
       <c r="I110" s="3" t="s">
-        <v>110</v>
+        <v>108</v>
       </c>
       <c r="J110" s="8"/>
       <c r="K110" s="8"/>
@@ -16472,7 +16513,7 @@
         <v>49</v>
       </c>
       <c r="B111" s="3" t="s">
-        <v>111</v>
+        <v>109</v>
       </c>
       <c r="C111" s="3" t="s">
         <v>16</v>
@@ -16483,7 +16524,7 @@
       <c r="G111" s="8"/>
       <c r="H111" s="8"/>
       <c r="I111" s="3" t="s">
-        <v>112</v>
+        <v>110</v>
       </c>
       <c r="J111" s="8"/>
       <c r="K111" s="8"/>
@@ -16492,22 +16533,28 @@
       <c r="N111" s="8"/>
     </row>
     <row r="112" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A112" s="18" t="s">
-        <v>21</v>
-      </c>
-      <c r="B112" s="17"/>
-      <c r="C112" s="17"/>
-      <c r="D112" s="17"/>
-      <c r="E112" s="17"/>
-      <c r="F112" s="17"/>
-      <c r="G112" s="17"/>
-      <c r="H112" s="17"/>
-      <c r="I112" s="17"/>
-      <c r="J112" s="17"/>
-      <c r="K112" s="17"/>
-      <c r="L112" s="17"/>
-      <c r="M112" s="17"/>
-      <c r="N112" s="17"/>
+      <c r="A112" s="14" t="s">
+        <v>49</v>
+      </c>
+      <c r="B112" s="3" t="s">
+        <v>111</v>
+      </c>
+      <c r="C112" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="D112" s="7"/>
+      <c r="E112" s="8"/>
+      <c r="F112" s="8"/>
+      <c r="G112" s="8"/>
+      <c r="H112" s="8"/>
+      <c r="I112" s="3" t="s">
+        <v>112</v>
+      </c>
+      <c r="J112" s="8"/>
+      <c r="K112" s="8"/>
+      <c r="L112" s="8"/>
+      <c r="M112" s="8"/>
+      <c r="N112" s="8"/>
     </row>
     <row r="113" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A113" s="18" t="s">
@@ -16527,7 +16574,24 @@
       <c r="M113" s="17"/>
       <c r="N113" s="17"/>
     </row>
-    <row r="114" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="114" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A114" s="18" t="s">
+        <v>21</v>
+      </c>
+      <c r="B114" s="17"/>
+      <c r="C114" s="17"/>
+      <c r="D114" s="17"/>
+      <c r="E114" s="17"/>
+      <c r="F114" s="17"/>
+      <c r="G114" s="17"/>
+      <c r="H114" s="17"/>
+      <c r="I114" s="17"/>
+      <c r="J114" s="17"/>
+      <c r="K114" s="17"/>
+      <c r="L114" s="17"/>
+      <c r="M114" s="17"/>
+      <c r="N114" s="17"/>
+    </row>
     <row r="115" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
     <row r="116" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
     <row r="117" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -17370,1831 +17434,1857 @@
     <row r="954" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
     <row r="955" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
     <row r="956" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="957" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
   </sheetData>
-  <conditionalFormatting sqref="A37:J37 A38:F41 I38:J41 A42:J51 K36:K51 D28:N28 E31:E32 A29:N29 F58:K64 A1:N13 A108:N956 A70:D79 F70:N79 D98:D102 E106:E107 A104:D107 F81:N107 J30:N32 F30:H32 A30:D32 A58:D66 C83:C84 C97 A18:H18 J18:N18 A19:N27 A80:N80 A74:F74 L33:N51 L56:N69 A56:K57">
-    <cfRule type="containsText" dxfId="390" priority="209" operator="containsText" text="calculate"/>
+  <conditionalFormatting sqref="A38:J38 A39:F42 I39:J42 A43:J52 K37:K52 D29:N29 E32:E33 A30:N30 F59:K65 A1:N13 A109:N957 A71:D80 F71:N80 D99:D103 E107:E108 A105:D108 F82:N108 J31:N33 F31:H33 A31:D33 A59:D67 C84:C85 C98 A19:H19 J19:N19 A20:N28 A81:N81 A75:F75 L34:N52 L57:N70 A57:K58">
+    <cfRule type="containsText" dxfId="395" priority="209" operator="containsText" text="calculate"/>
   </conditionalFormatting>
-  <conditionalFormatting sqref="I69 K69:N69 A37:H37 A38:F41 F33:H36 A67:H68 A1:N13 A21:N21 A27:C27 A31:H32 A58:D61 A64:D66 A62:B63 D62:D63 F58:H64 A108:N956 D98:D102 E106:E107 A104:D107 F81:N107 J30:N32 A30:D30 F30:H30 C62 C83 A19:N19 C22:C23 A22:B27 D22:N27 I70:N73 A70:D73 A75:D79 F69:H73 F75:N79 A80:N80 A74:F74 E73 I33:J51 A42:H51 K36:K51 L33:N51 A56:H57 I56:N68 A17:H18 J17:N18">
-    <cfRule type="expression" dxfId="389" priority="210">
+  <conditionalFormatting sqref="I70 K70:N70 A38:H38 A39:F42 F34:H37 A68:H69 A1:N13 A22:N22 A28:C28 A32:H33 A59:D62 A65:D67 A63:B64 D63:D64 F59:H65 A109:N957 D99:D103 E107:E108 A105:D108 F82:N108 J31:N33 A31:D31 F31:H31 C63 C84 A20:N20 A19:H19 J19:N19 C23:C24 A23:B28 D23:N28 I71:N74 A71:D74 A76:D80 F70:H74 F76:N80 A81:N81 A75:F75 E74 I34:J52 A43:H52 K37:K52 L34:N52 A57:H58 I57:N69">
+    <cfRule type="expression" dxfId="394" priority="210">
       <formula>AND($A1="begin group", NOT($B1 = ""))</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="A37:J37 A38:F41 I38:J41 K36:K51 L33:N51 D28:N28 E31:E32 A29:N29 F58:J64 A1:N13 A108:N956 A70:D79 F70:N79 D98:D102 E106:E107 A104:D107 F81:N107 J30:N32 F30:H32 A30:D32 A58:D66 C83:C84 C97 A18:H18 J18:N18 A19:N27 A80:N80 A74:F74 A42:J51 A56:J57 K56:N69">
-    <cfRule type="cellIs" dxfId="388" priority="212" operator="equal">
+  <conditionalFormatting sqref="A38:J38 A39:F42 I39:J42 K37:K52 L34:N52 D29:N29 E32:E33 A30:N30 F59:J65 A1:N13 A109:N957 A71:D80 F71:N80 D99:D103 E107:E108 A105:D108 F82:N108 J31:N33 F31:H33 A31:D33 A59:D67 C84:C85 C98 A19:H19 J19:N19 A20:N28 A81:N81 A75:F75 A43:J52 A57:J58 K57:N70">
+    <cfRule type="cellIs" dxfId="393" priority="212" operator="equal">
       <formula>"note"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="I1:I13 I20:I27 I75:I956 I33:I51 I56:I73">
-    <cfRule type="expression" dxfId="387" priority="213">
+  <conditionalFormatting sqref="I1:I13 I21:I28 I76:I957 I34:I52 I57:I74">
+    <cfRule type="expression" dxfId="392" priority="213">
       <formula>AND($I1 = "", $A1 = "calculate")</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="C1:C13 C98:C956 C83 C19 C21:C23 C64:C80 C30:C51 C56:C62 C17">
-    <cfRule type="expression" dxfId="386" priority="214">
+  <conditionalFormatting sqref="C1:C13 C99:C957 C84 C20 C22:C24 C65:C81 C31:C52 C57:C63">
+    <cfRule type="expression" dxfId="391" priority="214">
       <formula>AND(AND(NOT($A1 = "end group"), NOT($A1 = "end repeat"), NOT($A1 = "")), $C1 = "")</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="B1:B13 B19 B21:B27 B30:B51 B56:B956 B17">
-    <cfRule type="expression" dxfId="385" priority="215">
+  <conditionalFormatting sqref="B1:B13 B20 B22:B28 B31:B52 B57:B957">
+    <cfRule type="expression" dxfId="390" priority="215">
       <formula>AND(AND(NOT($A1 = "end group"), NOT($A1 = "end repeat"), NOT($A1 = "")), $B1 = "")</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="A1:A13 A29:C29 A19:A27 A70:A956 A29:A51 A56:A68">
-    <cfRule type="cellIs" dxfId="384" priority="216" operator="equal">
+  <conditionalFormatting sqref="A1:A13 A30:C30 A20:A28 A71:A957 A30:A52 A57:A69">
+    <cfRule type="cellIs" dxfId="389" priority="216" operator="equal">
       <formula>"hidden"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B1">
-    <cfRule type="cellIs" dxfId="383" priority="218" operator="notEqual">
+    <cfRule type="cellIs" dxfId="388" priority="218" operator="notEqual">
       <formula>"name"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C1">
-    <cfRule type="notContainsText" dxfId="382" priority="219" operator="notContains" text="label"/>
+    <cfRule type="notContainsText" dxfId="387" priority="219" operator="notContains" text="label"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="D1">
-    <cfRule type="cellIs" dxfId="381" priority="220" operator="notEqual">
+    <cfRule type="cellIs" dxfId="386" priority="220" operator="notEqual">
       <formula>"required"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E1">
-    <cfRule type="cellIs" dxfId="380" priority="221" operator="notEqual">
+    <cfRule type="cellIs" dxfId="385" priority="221" operator="notEqual">
       <formula>"relevant"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F1">
-    <cfRule type="cellIs" dxfId="379" priority="222" operator="notEqual">
+    <cfRule type="cellIs" dxfId="384" priority="222" operator="notEqual">
       <formula>"appearance"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G1">
-    <cfRule type="cellIs" dxfId="378" priority="223" operator="notEqual">
+    <cfRule type="cellIs" dxfId="383" priority="223" operator="notEqual">
       <formula>"constraint"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H1">
-    <cfRule type="notContainsText" dxfId="377" priority="224" operator="notContains" text="constraint_message"/>
+    <cfRule type="notContainsText" dxfId="382" priority="224" operator="notContains" text="constraint_message"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="I1">
-    <cfRule type="cellIs" dxfId="376" priority="225" operator="notEqual">
+    <cfRule type="cellIs" dxfId="381" priority="225" operator="notEqual">
       <formula>"calculation"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="J1">
-    <cfRule type="cellIs" dxfId="375" priority="226" operator="notEqual">
+    <cfRule type="cellIs" dxfId="380" priority="226" operator="notEqual">
       <formula>"choice_filter"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="K1">
-    <cfRule type="notContainsText" dxfId="374" priority="227" operator="notContains" text="hint"/>
+    <cfRule type="notContainsText" dxfId="379" priority="227" operator="notContains" text="hint"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="L1">
-    <cfRule type="cellIs" dxfId="373" priority="228" operator="notEqual">
+    <cfRule type="cellIs" dxfId="378" priority="228" operator="notEqual">
       <formula>"default"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="M1:N1">
-    <cfRule type="cellIs" dxfId="372" priority="229" operator="notEqual">
+    <cfRule type="cellIs" dxfId="377" priority="229" operator="notEqual">
       <formula>"media::image"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="H1:H13 H19:H37 H42:H51 H56:H956 H17">
-    <cfRule type="expression" dxfId="371" priority="230">
+  <conditionalFormatting sqref="H1:H13 H20:H38 H43:H52 H57:H957">
+    <cfRule type="expression" dxfId="376" priority="230">
       <formula>AND(NOT($G1 = ""), $H1 = "")</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="I69 K69:N69 A37:H37 A38:F41 F33:H36 A67:H68 A1:N13 A21:N21 A27:C27 A31:H32 A58:D61 A64:D66 A62:B63 D62:D63 F58:H64 A108:N956 D98:D102 E106:E107 A104:D107 F81:N107 J30:N32 A30:D30 F30:H30 C62 C83 A19:N19 C22:C23 A22:B27 D22:N27 I70:N73 A70:D73 A75:D79 F69:H73 F75:N79 A80:N80 A74:F74 E73 I33:J51 A42:H51 K36:K51 L33:N51 A56:H57 I56:N68 A17:H18 J17:N18">
-    <cfRule type="expression" dxfId="370" priority="231">
+  <conditionalFormatting sqref="I70 K70:N70 A38:H38 A39:F42 F34:H37 A68:H69 A1:N13 A22:N22 A28:C28 A32:H33 A59:D62 A65:D67 A63:B64 D63:D64 F59:H65 A109:N957 D99:D103 E107:E108 A105:D108 F82:N108 J31:N33 A31:D31 F31:H31 C63 C84 A20:N20 A19:H19 J19:N19 C23:C24 A23:B28 D23:N28 I71:N74 A71:D74 A76:D80 F70:H74 F76:N80 A81:N81 A75:F75 E74 I34:J52 A43:H52 K37:K52 L34:N52 A57:H58 I57:N69">
+    <cfRule type="expression" dxfId="375" priority="231">
       <formula>AND($A1="begin repeat", NOT($B1 = ""))</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="E59:E61">
-    <cfRule type="expression" dxfId="369" priority="233">
+  <conditionalFormatting sqref="E60:E62">
+    <cfRule type="expression" dxfId="374" priority="233">
+      <formula>AND($A60="begin repeat", NOT($B60 = ""))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="F59:J59 A59:D62 A65:D67 F65:J65 E60:J62 F107:N108 A107:D108 C63 F82:N83 C84 F86:N96 A71:D74 A76:D80 F71:J74 F76:J80 A81:J81 E74">
+    <cfRule type="expression" dxfId="373" priority="234">
+      <formula>AND($A59="end repeat", $B59 = "", $C59 = "", $D59 = "", $E59 = "", $F59 = "", $G59 = "", $H59 = "", $I59 = "", $J59 = "", $K59 = "", $L59 = "", $M59 = "")</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E65">
+    <cfRule type="expression" dxfId="372" priority="235">
+      <formula>AND($A65="begin group", NOT($B65 = ""))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="F59:J59 A59:D62 A65:D67 E65:J65 E60:J62 F107:N108 A107:D108 C63 F82:N83 C84 F86:N96 A71:D74 A76:D80 F71:J74 F76:J80 A81:J81 E74">
+    <cfRule type="expression" dxfId="371" priority="236">
+      <formula>AND($A59="end group", $B59 = "", $C59 = "", $D59 = "", $E59 = "", $F59 = "", $G59 = "", $H59 = "", $I59 = "", $J59 = "", $K59 = "", $L59 = "", $M59 = "")</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E82:E83 E86:E87 E89:E96">
+    <cfRule type="expression" dxfId="370" priority="239">
+      <formula>AND($A82="begin group", NOT($B82 = ""))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E82:E83 E86:E87 E89:E96">
+    <cfRule type="cellIs" dxfId="369" priority="240" operator="equal">
+      <formula>"note"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="K34:K35">
+    <cfRule type="expression" dxfId="368" priority="243">
+      <formula>AND($A36="end repeat", $B36 = "", $C36 = "", $D36 = "", $E36 = "", $F36 = "", $G36 = "", $H36 = "", $I36 = "", $J36 = "", $K34 = "", $L36 = "", $M36 = "")</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E30">
+    <cfRule type="expression" dxfId="367" priority="244">
+      <formula>AND($A31="begin repeat", NOT($B31 = ""))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="K34:K35">
+    <cfRule type="expression" dxfId="366" priority="245">
+      <formula>AND($A36="end group", $B36 = "", $C36 = "", $D36 = "", $E36 = "", $F36 = "", $G36 = "", $H36 = "", $I36 = "", $J36 = "", $K34 = "", $L36 = "", $M36 = "")</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E30">
+    <cfRule type="expression" dxfId="365" priority="246">
+      <formula>AND($A31="begin group", NOT($B31 = ""))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C20 C31:C33 C22:C24">
+    <cfRule type="expression" dxfId="364" priority="247">
+      <formula>AND($C20 = "", $A20 = "calculate")</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C32:C33 C20 C22:C24">
+    <cfRule type="expression" dxfId="363" priority="248">
+      <formula>AND($A20="end repeat", $B20 = "", $C20 = "", $D20 = "", $E20 = "", $F20 = "", $G20 = "", $H20 = "", $C20 = "", $J20 = "", $K20 = "", $L20 = "", $M20 = "")</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C32:C33 C20 C22:C24">
+    <cfRule type="expression" dxfId="362" priority="249">
+      <formula>AND($A20="end group", $B20 = "", $C20 = "", $D20 = "", $E20 = "", $F20 = "", $G20 = "", $H20 = "", $C20 = "", $J20 = "", $K20 = "", $L20 = "", $M20 = "")</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="K34:K35 F34:J37 A68:K69 A34:C37 F66:F67 B70:D70 F70:I70 K70 H66:K67">
+    <cfRule type="containsText" dxfId="361" priority="250" operator="containsText" text="calculate"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A34:C37 F66:F67 B70:D70 H66:H67">
+    <cfRule type="expression" dxfId="360" priority="251">
+      <formula>AND($A34="begin group", NOT($B34 = ""))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A34:C37 F34:J37 F66:F67 B70:D70 F70:I70 H66:J67">
+    <cfRule type="expression" dxfId="359" priority="252">
+      <formula>AND($A34="end group", $B34 = "", $C34 = "", $D34 = "", $E34 = "", $F34 = "", $G34 = "", $H34 = "", $I34 = "", $J34 = "", $K34 = "", $L34 = "", $M34 = "")</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="K34:K35 F34:J37 A68:J69 A34:C37 F66:F67 B70:D70 F70:I70 H66:J67">
+    <cfRule type="cellIs" dxfId="358" priority="253" operator="equal">
+      <formula>"note"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="I39">
+    <cfRule type="expression" dxfId="357" priority="256">
+      <formula>AND(AND(NOT($A39 = "end group"), NOT($A39 = "end repeat"), NOT($A39 = "")), $B39 = "")</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A34:C37 F66:F67 B70:D70 H66:H67">
+    <cfRule type="expression" dxfId="356" priority="259">
+      <formula>AND($A34="begin repeat", NOT($B34 = ""))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A34:C37 F34:J37 F66:F67 B70:D70 F70:I70 H66:J67">
+    <cfRule type="expression" dxfId="355" priority="260">
+      <formula>AND($A34="end repeat", $B34 = "", $C34 = "", $D34 = "", $E34 = "", $F34 = "", $G34 = "", $H34 = "", $I34 = "", $J34 = "", $K34 = "", $L34 = "", $M34 = "")</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E58">
+    <cfRule type="containsText" dxfId="354" priority="273" operator="containsText" text="calculate"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E58">
+    <cfRule type="cellIs" dxfId="353" priority="274" operator="equal">
+      <formula>"note"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E59">
+    <cfRule type="containsText" dxfId="352" priority="281" operator="containsText" text="calculate"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E59">
+    <cfRule type="expression" dxfId="351" priority="282">
+      <formula>AND($A59="begin group", NOT($B59 = ""))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E59">
+    <cfRule type="expression" dxfId="350" priority="283">
+      <formula>AND($A59="end group", $B59 = "", $C59 = "", $D59 = "", $E59 = "", $F59 = "", $G59 = "", $H59 = "", $I59 = "", $J59 = "", $K59 = "", $L59 = "", $M59 = "")</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E59">
+    <cfRule type="cellIs" dxfId="349" priority="284" operator="equal">
+      <formula>"note"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E59">
+    <cfRule type="expression" dxfId="348" priority="285">
       <formula>AND($A59="begin repeat", NOT($B59 = ""))</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="F58:J58 A58:D61 A64:D66 F64:J64 E59:J61 F106:N107 A106:D107 C62 F81:N82 C83 F85:N95 A70:D73 A75:D79 F70:J73 F75:J79 A80:J80 E73">
-    <cfRule type="expression" dxfId="368" priority="234">
-      <formula>AND($A58="end repeat", $B58 = "", $C58 = "", $D58 = "", $E58 = "", $F58 = "", $G58 = "", $H58 = "", $I58 = "", $J58 = "", $K58 = "", $L58 = "", $M58 = "")</formula>
+  <conditionalFormatting sqref="E59">
+    <cfRule type="expression" dxfId="347" priority="286">
+      <formula>AND($A59="end repeat", $B59 = "", $C59 = "", $D59 = "", $E59 = "", $F59 = "", $G59 = "", $H59 = "", $I59 = "", $J59 = "", $K59 = "", $L59 = "", $M59 = "")</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="E64">
-    <cfRule type="expression" dxfId="367" priority="235">
-      <formula>AND($A64="begin group", NOT($B64 = ""))</formula>
+  <conditionalFormatting sqref="E60:E62">
+    <cfRule type="containsText" dxfId="346" priority="293" operator="containsText" text="calculate"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E60:E62">
+    <cfRule type="expression" dxfId="345" priority="294">
+      <formula>AND($A60="begin group", NOT($B60 = ""))</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="F58:J58 A58:D61 A64:D66 E64:J64 E59:J61 F106:N107 A106:D107 C62 F81:N82 C83 F85:N95 A70:D73 A75:D79 F70:J73 F75:J79 A80:J80 E73">
-    <cfRule type="expression" dxfId="366" priority="236">
-      <formula>AND($A58="end group", $B58 = "", $C58 = "", $D58 = "", $E58 = "", $F58 = "", $G58 = "", $H58 = "", $I58 = "", $J58 = "", $K58 = "", $L58 = "", $M58 = "")</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E81:E82 E85:E86 E88:E95">
-    <cfRule type="expression" dxfId="365" priority="239">
-      <formula>AND($A81="begin group", NOT($B81 = ""))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E81:E82 E85:E86 E88:E95">
-    <cfRule type="cellIs" dxfId="364" priority="240" operator="equal">
-      <formula>"note"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="K33:K34">
-    <cfRule type="expression" dxfId="363" priority="243">
-      <formula>AND($A35="end repeat", $B35 = "", $C35 = "", $D35 = "", $E35 = "", $F35 = "", $G35 = "", $H35 = "", $I35 = "", $J35 = "", $K33 = "", $L35 = "", $M35 = "")</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E29">
-    <cfRule type="expression" dxfId="362" priority="244">
-      <formula>AND($A30="begin repeat", NOT($B30 = ""))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="K33:K34">
-    <cfRule type="expression" dxfId="361" priority="245">
-      <formula>AND($A35="end group", $B35 = "", $C35 = "", $D35 = "", $E35 = "", $F35 = "", $G35 = "", $H35 = "", $I35 = "", $J35 = "", $K33 = "", $L35 = "", $M35 = "")</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E29">
-    <cfRule type="expression" dxfId="360" priority="246">
-      <formula>AND($A30="begin group", NOT($B30 = ""))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="C19 C30:C32 C21:C23">
-    <cfRule type="expression" dxfId="359" priority="247">
-      <formula>AND($C19 = "", $A19 = "calculate")</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="C31:C32 C19 C21:C23">
-    <cfRule type="expression" dxfId="358" priority="248">
-      <formula>AND($A19="end repeat", $B19 = "", $C19 = "", $D19 = "", $E19 = "", $F19 = "", $G19 = "", $H19 = "", $C19 = "", $J19 = "", $K19 = "", $L19 = "", $M19 = "")</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="C31:C32 C19 C21:C23">
-    <cfRule type="expression" dxfId="357" priority="249">
-      <formula>AND($A19="end group", $B19 = "", $C19 = "", $D19 = "", $E19 = "", $F19 = "", $G19 = "", $H19 = "", $C19 = "", $J19 = "", $K19 = "", $L19 = "", $M19 = "")</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="K33:K34 F33:J36 A67:K68 A33:C36 F65:F66 B69:D69 F69:I69 K69 H65:K66">
-    <cfRule type="containsText" dxfId="356" priority="250" operator="containsText" text="calculate"/>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="A33:C36 F65:F66 B69:D69 H65:H66">
-    <cfRule type="expression" dxfId="355" priority="251">
-      <formula>AND($A33="begin group", NOT($B33 = ""))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="A33:C36 F33:J36 F65:F66 B69:D69 F69:I69 H65:J66">
-    <cfRule type="expression" dxfId="354" priority="252">
-      <formula>AND($A33="end group", $B33 = "", $C33 = "", $D33 = "", $E33 = "", $F33 = "", $G33 = "", $H33 = "", $I33 = "", $J33 = "", $K33 = "", $L33 = "", $M33 = "")</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="K33:K34 F33:J36 A67:J68 A33:C36 F65:F66 B69:D69 F69:I69 H65:J66">
-    <cfRule type="cellIs" dxfId="353" priority="253" operator="equal">
-      <formula>"note"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="I38">
-    <cfRule type="expression" dxfId="352" priority="256">
-      <formula>AND(AND(NOT($A38 = "end group"), NOT($A38 = "end repeat"), NOT($A38 = "")), $B38 = "")</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="A33:C36 F65:F66 B69:D69 H65:H66">
-    <cfRule type="expression" dxfId="351" priority="259">
-      <formula>AND($A33="begin repeat", NOT($B33 = ""))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="A33:C36 F33:J36 F65:F66 B69:D69 F69:I69 H65:J66">
-    <cfRule type="expression" dxfId="350" priority="260">
-      <formula>AND($A33="end repeat", $B33 = "", $C33 = "", $D33 = "", $E33 = "", $F33 = "", $G33 = "", $H33 = "", $I33 = "", $J33 = "", $K33 = "", $L33 = "", $M33 = "")</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E57">
-    <cfRule type="containsText" dxfId="349" priority="273" operator="containsText" text="calculate"/>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E57">
-    <cfRule type="cellIs" dxfId="348" priority="274" operator="equal">
-      <formula>"note"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E58">
-    <cfRule type="containsText" dxfId="347" priority="281" operator="containsText" text="calculate"/>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E58">
-    <cfRule type="expression" dxfId="346" priority="282">
-      <formula>AND($A58="begin group", NOT($B58 = ""))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E58">
-    <cfRule type="expression" dxfId="345" priority="283">
-      <formula>AND($A58="end group", $B58 = "", $C58 = "", $D58 = "", $E58 = "", $F58 = "", $G58 = "", $H58 = "", $I58 = "", $J58 = "", $K58 = "", $L58 = "", $M58 = "")</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E58">
-    <cfRule type="cellIs" dxfId="344" priority="284" operator="equal">
-      <formula>"note"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E58">
-    <cfRule type="expression" dxfId="343" priority="285">
-      <formula>AND($A58="begin repeat", NOT($B58 = ""))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E58">
-    <cfRule type="expression" dxfId="342" priority="286">
-      <formula>AND($A58="end repeat", $B58 = "", $C58 = "", $D58 = "", $E58 = "", $F58 = "", $G58 = "", $H58 = "", $I58 = "", $J58 = "", $K58 = "", $L58 = "", $M58 = "")</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E59:E61">
-    <cfRule type="containsText" dxfId="341" priority="293" operator="containsText" text="calculate"/>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E59:E61">
-    <cfRule type="expression" dxfId="340" priority="294">
-      <formula>AND($A59="begin group", NOT($B59 = ""))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E59:E61">
-    <cfRule type="cellIs" dxfId="339" priority="296" operator="equal">
-      <formula>"note"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E64">
-    <cfRule type="containsText" dxfId="338" priority="303" operator="containsText" text="calculate"/>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E64">
-    <cfRule type="cellIs" dxfId="337" priority="304" operator="equal">
-      <formula>"note"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E64">
-    <cfRule type="expression" dxfId="336" priority="305">
-      <formula>AND($A64="begin repeat", NOT($B64 = ""))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E64">
-    <cfRule type="expression" dxfId="335" priority="306">
-      <formula>AND($A64="end repeat", $B64 = "", $C64 = "", $D64 = "", $E64 = "", $F64 = "", $G64 = "", $H64 = "", $I64 = "", $J64 = "", $K64 = "", $L64 = "", $M64 = "")</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E65">
-    <cfRule type="containsText" dxfId="334" priority="307" operator="containsText" text="calculate"/>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E65">
-    <cfRule type="expression" dxfId="333" priority="308">
-      <formula>AND($A65="begin group", NOT($B65 = ""))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E65">
-    <cfRule type="expression" dxfId="332" priority="309">
-      <formula>AND($A65="end group", $B65 = "", $C65 = "", $D65 = "", $E65 = "", $F65 = "", $G65 = "", $H65 = "", $I65 = "", $J65 = "", $K65 = "", $L65 = "", $M65 = "")</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E65">
-    <cfRule type="cellIs" dxfId="331" priority="310" operator="equal">
+  <conditionalFormatting sqref="E60:E62">
+    <cfRule type="cellIs" dxfId="344" priority="296" operator="equal">
       <formula>"note"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E65">
-    <cfRule type="expression" dxfId="330" priority="311">
+    <cfRule type="containsText" dxfId="343" priority="303" operator="containsText" text="calculate"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E65">
+    <cfRule type="cellIs" dxfId="342" priority="304" operator="equal">
+      <formula>"note"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E65">
+    <cfRule type="expression" dxfId="341" priority="305">
       <formula>AND($A65="begin repeat", NOT($B65 = ""))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E65">
-    <cfRule type="expression" dxfId="329" priority="312">
+    <cfRule type="expression" dxfId="340" priority="306">
       <formula>AND($A65="end repeat", $B65 = "", $C65 = "", $D65 = "", $E65 = "", $F65 = "", $G65 = "", $H65 = "", $I65 = "", $J65 = "", $K65 = "", $L65 = "", $M65 = "")</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E66">
-    <cfRule type="containsText" dxfId="328" priority="313" operator="containsText" text="calculate"/>
+    <cfRule type="containsText" dxfId="339" priority="307" operator="containsText" text="calculate"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="E66">
-    <cfRule type="expression" dxfId="327" priority="314">
+    <cfRule type="expression" dxfId="338" priority="308">
       <formula>AND($A66="begin group", NOT($B66 = ""))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E66">
-    <cfRule type="expression" dxfId="326" priority="315">
+    <cfRule type="expression" dxfId="337" priority="309">
       <formula>AND($A66="end group", $B66 = "", $C66 = "", $D66 = "", $E66 = "", $F66 = "", $G66 = "", $H66 = "", $I66 = "", $J66 = "", $K66 = "", $L66 = "", $M66 = "")</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E66">
-    <cfRule type="cellIs" dxfId="325" priority="316" operator="equal">
+    <cfRule type="cellIs" dxfId="336" priority="310" operator="equal">
       <formula>"note"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E66">
-    <cfRule type="expression" dxfId="324" priority="317">
+    <cfRule type="expression" dxfId="335" priority="311">
       <formula>AND($A66="begin repeat", NOT($B66 = ""))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E66">
-    <cfRule type="expression" dxfId="323" priority="318">
+    <cfRule type="expression" dxfId="334" priority="312">
       <formula>AND($A66="end repeat", $B66 = "", $C66 = "", $D66 = "", $E66 = "", $F66 = "", $G66 = "", $H66 = "", $I66 = "", $J66 = "", $K66 = "", $L66 = "", $M66 = "")</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="E69">
-    <cfRule type="containsText" dxfId="322" priority="331" operator="containsText" text="calculate"/>
+  <conditionalFormatting sqref="E67">
+    <cfRule type="containsText" dxfId="333" priority="313" operator="containsText" text="calculate"/>
   </conditionalFormatting>
-  <conditionalFormatting sqref="E69">
-    <cfRule type="expression" dxfId="321" priority="332">
-      <formula>AND($A69="begin group", NOT($B69 = ""))</formula>
+  <conditionalFormatting sqref="E67">
+    <cfRule type="expression" dxfId="332" priority="314">
+      <formula>AND($A67="begin group", NOT($B67 = ""))</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="E69">
-    <cfRule type="expression" dxfId="320" priority="333">
-      <formula>AND($A69="end group", $B69 = "", $C69 = "", $D69 = "", $E69 = "", $F69 = "", $G69 = "", $H69 = "", $I69 = "", $J69 = "", $K69 = "", $L69 = "", $M69 = "")</formula>
+  <conditionalFormatting sqref="E67">
+    <cfRule type="expression" dxfId="331" priority="315">
+      <formula>AND($A67="end group", $B67 = "", $C67 = "", $D67 = "", $E67 = "", $F67 = "", $G67 = "", $H67 = "", $I67 = "", $J67 = "", $K67 = "", $L67 = "", $M67 = "")</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="E69">
-    <cfRule type="cellIs" dxfId="319" priority="334" operator="equal">
+  <conditionalFormatting sqref="E67">
+    <cfRule type="cellIs" dxfId="330" priority="316" operator="equal">
       <formula>"note"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="E69">
-    <cfRule type="expression" dxfId="318" priority="335">
-      <formula>AND($A69="begin repeat", NOT($B69 = ""))</formula>
+  <conditionalFormatting sqref="E67">
+    <cfRule type="expression" dxfId="329" priority="317">
+      <formula>AND($A67="begin repeat", NOT($B67 = ""))</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="E69">
-    <cfRule type="expression" dxfId="317" priority="336">
-      <formula>AND($A69="end repeat", $B69 = "", $C69 = "", $D69 = "", $E69 = "", $F69 = "", $G69 = "", $H69 = "", $I69 = "", $J69 = "", $K69 = "", $L69 = "", $M69 = "")</formula>
+  <conditionalFormatting sqref="E67">
+    <cfRule type="expression" dxfId="328" priority="318">
+      <formula>AND($A67="end repeat", $B67 = "", $C67 = "", $D67 = "", $E67 = "", $F67 = "", $G67 = "", $H67 = "", $I67 = "", $J67 = "", $K67 = "", $L67 = "", $M67 = "")</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E70">
-    <cfRule type="containsText" dxfId="316" priority="343" operator="containsText" text="calculate"/>
+    <cfRule type="containsText" dxfId="327" priority="331" operator="containsText" text="calculate"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="E70">
-    <cfRule type="expression" dxfId="315" priority="344">
+    <cfRule type="expression" dxfId="326" priority="332">
       <formula>AND($A70="begin group", NOT($B70 = ""))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E70">
-    <cfRule type="expression" dxfId="314" priority="345">
+    <cfRule type="expression" dxfId="325" priority="333">
       <formula>AND($A70="end group", $B70 = "", $C70 = "", $D70 = "", $E70 = "", $F70 = "", $G70 = "", $H70 = "", $I70 = "", $J70 = "", $K70 = "", $L70 = "", $M70 = "")</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E70">
-    <cfRule type="cellIs" dxfId="313" priority="346" operator="equal">
+    <cfRule type="cellIs" dxfId="324" priority="334" operator="equal">
       <formula>"note"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E70">
-    <cfRule type="expression" dxfId="312" priority="347">
+    <cfRule type="expression" dxfId="323" priority="335">
       <formula>AND($A70="begin repeat", NOT($B70 = ""))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E70">
-    <cfRule type="expression" dxfId="311" priority="348">
+    <cfRule type="expression" dxfId="322" priority="336">
       <formula>AND($A70="end repeat", $B70 = "", $C70 = "", $D70 = "", $E70 = "", $F70 = "", $G70 = "", $H70 = "", $I70 = "", $J70 = "", $K70 = "", $L70 = "", $M70 = "")</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E71">
-    <cfRule type="containsText" dxfId="310" priority="355" operator="containsText" text="calculate"/>
+    <cfRule type="containsText" dxfId="321" priority="343" operator="containsText" text="calculate"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="E71">
-    <cfRule type="expression" dxfId="309" priority="356">
+    <cfRule type="expression" dxfId="320" priority="344">
       <formula>AND($A71="begin group", NOT($B71 = ""))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E71">
-    <cfRule type="expression" dxfId="308" priority="357">
+    <cfRule type="expression" dxfId="319" priority="345">
       <formula>AND($A71="end group", $B71 = "", $C71 = "", $D71 = "", $E71 = "", $F71 = "", $G71 = "", $H71 = "", $I71 = "", $J71 = "", $K71 = "", $L71 = "", $M71 = "")</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E71">
-    <cfRule type="cellIs" dxfId="307" priority="358" operator="equal">
+    <cfRule type="cellIs" dxfId="318" priority="346" operator="equal">
       <formula>"note"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E71">
-    <cfRule type="expression" dxfId="306" priority="359">
+    <cfRule type="expression" dxfId="317" priority="347">
       <formula>AND($A71="begin repeat", NOT($B71 = ""))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E71">
-    <cfRule type="expression" dxfId="305" priority="360">
+    <cfRule type="expression" dxfId="316" priority="348">
       <formula>AND($A71="end repeat", $B71 = "", $C71 = "", $D71 = "", $E71 = "", $F71 = "", $G71 = "", $H71 = "", $I71 = "", $J71 = "", $K71 = "", $L71 = "", $M71 = "")</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E72">
-    <cfRule type="containsText" dxfId="304" priority="361" operator="containsText" text="calculate"/>
+    <cfRule type="containsText" dxfId="315" priority="355" operator="containsText" text="calculate"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="E72">
-    <cfRule type="expression" dxfId="303" priority="362">
+    <cfRule type="expression" dxfId="314" priority="356">
       <formula>AND($A72="begin group", NOT($B72 = ""))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E72">
-    <cfRule type="expression" dxfId="302" priority="363">
+    <cfRule type="expression" dxfId="313" priority="357">
       <formula>AND($A72="end group", $B72 = "", $C72 = "", $D72 = "", $E72 = "", $F72 = "", $G72 = "", $H72 = "", $I72 = "", $J72 = "", $K72 = "", $L72 = "", $M72 = "")</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E72">
-    <cfRule type="cellIs" dxfId="301" priority="364" operator="equal">
+    <cfRule type="cellIs" dxfId="312" priority="358" operator="equal">
       <formula>"note"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E72">
-    <cfRule type="expression" dxfId="300" priority="365">
+    <cfRule type="expression" dxfId="311" priority="359">
       <formula>AND($A72="begin repeat", NOT($B72 = ""))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E72">
-    <cfRule type="expression" dxfId="299" priority="366">
+    <cfRule type="expression" dxfId="310" priority="360">
       <formula>AND($A72="end repeat", $B72 = "", $C72 = "", $D72 = "", $E72 = "", $F72 = "", $G72 = "", $H72 = "", $I72 = "", $J72 = "", $K72 = "", $L72 = "", $M72 = "")</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="E73:E74">
-    <cfRule type="containsText" dxfId="298" priority="367" operator="containsText" text="calculate"/>
+  <conditionalFormatting sqref="E73">
+    <cfRule type="containsText" dxfId="309" priority="361" operator="containsText" text="calculate"/>
   </conditionalFormatting>
-  <conditionalFormatting sqref="E73:E74">
-    <cfRule type="cellIs" dxfId="297" priority="370" operator="equal">
+  <conditionalFormatting sqref="E73">
+    <cfRule type="expression" dxfId="308" priority="362">
+      <formula>AND($A73="begin group", NOT($B73 = ""))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E73">
+    <cfRule type="expression" dxfId="307" priority="363">
+      <formula>AND($A73="end group", $B73 = "", $C73 = "", $D73 = "", $E73 = "", $F73 = "", $G73 = "", $H73 = "", $I73 = "", $J73 = "", $K73 = "", $L73 = "", $M73 = "")</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E73">
+    <cfRule type="cellIs" dxfId="306" priority="364" operator="equal">
       <formula>"note"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="E75">
-    <cfRule type="containsText" dxfId="296" priority="373" operator="containsText" text="calculate"/>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E75">
-    <cfRule type="expression" dxfId="295" priority="374">
-      <formula>AND($A75="begin group", NOT($B75 = ""))</formula>
+  <conditionalFormatting sqref="E73">
+    <cfRule type="expression" dxfId="305" priority="365">
+      <formula>AND($A73="begin repeat", NOT($B73 = ""))</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="E75">
-    <cfRule type="expression" dxfId="294" priority="375">
-      <formula>AND($A75="end group", $B75 = "", $C75 = "", $D75 = "", $E75 = "", $F75 = "", $G75 = "", $H75 = "", $I75 = "", $J75 = "", $K75 = "", $L75 = "", $M75 = "")</formula>
+  <conditionalFormatting sqref="E73">
+    <cfRule type="expression" dxfId="304" priority="366">
+      <formula>AND($A73="end repeat", $B73 = "", $C73 = "", $D73 = "", $E73 = "", $F73 = "", $G73 = "", $H73 = "", $I73 = "", $J73 = "", $K73 = "", $L73 = "", $M73 = "")</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="E75">
-    <cfRule type="cellIs" dxfId="293" priority="376" operator="equal">
+  <conditionalFormatting sqref="E74:E75">
+    <cfRule type="containsText" dxfId="303" priority="367" operator="containsText" text="calculate"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E74:E75">
+    <cfRule type="cellIs" dxfId="302" priority="370" operator="equal">
       <formula>"note"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="E75">
-    <cfRule type="expression" dxfId="292" priority="377">
-      <formula>AND($A75="begin repeat", NOT($B75 = ""))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E75">
-    <cfRule type="expression" dxfId="291" priority="378">
-      <formula>AND($A75="end repeat", $B75 = "", $C75 = "", $D75 = "", $E75 = "", $F75 = "", $G75 = "", $H75 = "", $I75 = "", $J75 = "", $K75 = "", $L75 = "", $M75 = "")</formula>
-    </cfRule>
+  <conditionalFormatting sqref="E76">
+    <cfRule type="containsText" dxfId="301" priority="373" operator="containsText" text="calculate"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="E76">
-    <cfRule type="containsText" dxfId="290" priority="379" operator="containsText" text="calculate"/>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E76">
-    <cfRule type="expression" dxfId="289" priority="380">
+    <cfRule type="expression" dxfId="300" priority="374">
       <formula>AND($A76="begin group", NOT($B76 = ""))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E76">
-    <cfRule type="expression" dxfId="288" priority="381">
+    <cfRule type="expression" dxfId="299" priority="375">
       <formula>AND($A76="end group", $B76 = "", $C76 = "", $D76 = "", $E76 = "", $F76 = "", $G76 = "", $H76 = "", $I76 = "", $J76 = "", $K76 = "", $L76 = "", $M76 = "")</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E76">
-    <cfRule type="cellIs" dxfId="287" priority="382" operator="equal">
+    <cfRule type="cellIs" dxfId="298" priority="376" operator="equal">
       <formula>"note"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E76">
-    <cfRule type="expression" dxfId="286" priority="383">
+    <cfRule type="expression" dxfId="297" priority="377">
       <formula>AND($A76="begin repeat", NOT($B76 = ""))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E76">
-    <cfRule type="expression" dxfId="285" priority="384">
+    <cfRule type="expression" dxfId="296" priority="378">
       <formula>AND($A76="end repeat", $B76 = "", $C76 = "", $D76 = "", $E76 = "", $F76 = "", $G76 = "", $H76 = "", $I76 = "", $J76 = "", $K76 = "", $L76 = "", $M76 = "")</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E77">
-    <cfRule type="containsText" dxfId="284" priority="385" operator="containsText" text="calculate"/>
+    <cfRule type="containsText" dxfId="295" priority="379" operator="containsText" text="calculate"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="E77">
-    <cfRule type="expression" dxfId="283" priority="386">
+    <cfRule type="expression" dxfId="294" priority="380">
       <formula>AND($A77="begin group", NOT($B77 = ""))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E77">
-    <cfRule type="expression" dxfId="282" priority="387">
+    <cfRule type="expression" dxfId="293" priority="381">
       <formula>AND($A77="end group", $B77 = "", $C77 = "", $D77 = "", $E77 = "", $F77 = "", $G77 = "", $H77 = "", $I77 = "", $J77 = "", $K77 = "", $L77 = "", $M77 = "")</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E77">
-    <cfRule type="cellIs" dxfId="281" priority="388" operator="equal">
+    <cfRule type="cellIs" dxfId="292" priority="382" operator="equal">
       <formula>"note"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E77">
-    <cfRule type="expression" dxfId="280" priority="389">
+    <cfRule type="expression" dxfId="291" priority="383">
       <formula>AND($A77="begin repeat", NOT($B77 = ""))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E77">
-    <cfRule type="expression" dxfId="279" priority="390">
+    <cfRule type="expression" dxfId="290" priority="384">
       <formula>AND($A77="end repeat", $B77 = "", $C77 = "", $D77 = "", $E77 = "", $F77 = "", $G77 = "", $H77 = "", $I77 = "", $J77 = "", $K77 = "", $L77 = "", $M77 = "")</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E78">
-    <cfRule type="containsText" dxfId="278" priority="391" operator="containsText" text="calculate"/>
+    <cfRule type="containsText" dxfId="289" priority="385" operator="containsText" text="calculate"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="E78">
-    <cfRule type="expression" dxfId="277" priority="392">
+    <cfRule type="expression" dxfId="288" priority="386">
       <formula>AND($A78="begin group", NOT($B78 = ""))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E78">
-    <cfRule type="expression" dxfId="276" priority="393">
+    <cfRule type="expression" dxfId="287" priority="387">
       <formula>AND($A78="end group", $B78 = "", $C78 = "", $D78 = "", $E78 = "", $F78 = "", $G78 = "", $H78 = "", $I78 = "", $J78 = "", $K78 = "", $L78 = "", $M78 = "")</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E78">
-    <cfRule type="cellIs" dxfId="275" priority="394" operator="equal">
+    <cfRule type="cellIs" dxfId="286" priority="388" operator="equal">
       <formula>"note"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E78">
-    <cfRule type="expression" dxfId="274" priority="395">
+    <cfRule type="expression" dxfId="285" priority="389">
       <formula>AND($A78="begin repeat", NOT($B78 = ""))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E78">
-    <cfRule type="expression" dxfId="273" priority="396">
+    <cfRule type="expression" dxfId="284" priority="390">
       <formula>AND($A78="end repeat", $B78 = "", $C78 = "", $D78 = "", $E78 = "", $F78 = "", $G78 = "", $H78 = "", $I78 = "", $J78 = "", $K78 = "", $L78 = "", $M78 = "")</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E79">
-    <cfRule type="containsText" dxfId="272" priority="397" operator="containsText" text="calculate"/>
+    <cfRule type="containsText" dxfId="283" priority="391" operator="containsText" text="calculate"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="E79">
-    <cfRule type="expression" dxfId="271" priority="398">
+    <cfRule type="expression" dxfId="282" priority="392">
       <formula>AND($A79="begin group", NOT($B79 = ""))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E79">
-    <cfRule type="expression" dxfId="270" priority="399">
+    <cfRule type="expression" dxfId="281" priority="393">
       <formula>AND($A79="end group", $B79 = "", $C79 = "", $D79 = "", $E79 = "", $F79 = "", $G79 = "", $H79 = "", $I79 = "", $J79 = "", $K79 = "", $L79 = "", $M79 = "")</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E79">
-    <cfRule type="cellIs" dxfId="269" priority="400" operator="equal">
+    <cfRule type="cellIs" dxfId="280" priority="394" operator="equal">
       <formula>"note"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E79">
-    <cfRule type="expression" dxfId="268" priority="401">
+    <cfRule type="expression" dxfId="279" priority="395">
       <formula>AND($A79="begin repeat", NOT($B79 = ""))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E79">
-    <cfRule type="expression" dxfId="267" priority="402">
+    <cfRule type="expression" dxfId="278" priority="396">
       <formula>AND($A79="end repeat", $B79 = "", $C79 = "", $D79 = "", $E79 = "", $F79 = "", $G79 = "", $H79 = "", $I79 = "", $J79 = "", $K79 = "", $L79 = "", $M79 = "")</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="A81:D82 A85:D86 A83:B84 D83:D84 A88:D95 A87:B87 D87 A98:D102 A96:B97 D96:D97 A103:C103 C96">
-    <cfRule type="containsText" dxfId="266" priority="421" operator="containsText" text="calculate"/>
+  <conditionalFormatting sqref="E80">
+    <cfRule type="containsText" dxfId="277" priority="397" operator="containsText" text="calculate"/>
   </conditionalFormatting>
-  <conditionalFormatting sqref="A81:D82 A85:D86 A83:B84 D83:D84 A88:D95 A87:B87 D87 A98:D102 A96:B97 D96:D97 A103:C103 C96">
-    <cfRule type="expression" dxfId="265" priority="422">
-      <formula>AND($A81="begin group", NOT($B81 = ""))</formula>
+  <conditionalFormatting sqref="E80">
+    <cfRule type="expression" dxfId="276" priority="398">
+      <formula>AND($A80="begin group", NOT($B80 = ""))</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="A81:D82 A85:D86 A88:D95 A87:B87 D87 C96">
-    <cfRule type="expression" dxfId="264" priority="423">
-      <formula>AND($A81="end group", $B81 = "", $C81 = "", $D81 = "", $E81 = "", $F81 = "", $G81 = "", $H81 = "", $I81 = "", $J81 = "", $K81 = "", $L81 = "", $M81 = "")</formula>
+  <conditionalFormatting sqref="E80">
+    <cfRule type="expression" dxfId="275" priority="399">
+      <formula>AND($A80="end group", $B80 = "", $C80 = "", $D80 = "", $E80 = "", $F80 = "", $G80 = "", $H80 = "", $I80 = "", $J80 = "", $K80 = "", $L80 = "", $M80 = "")</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="A81:D82 A85:D86 A83:B84 D83:D84 A88:D95 A87:B87 D87 A98:D102 A96:B97 D96:D97 A103:C103 C96">
-    <cfRule type="cellIs" dxfId="263" priority="424" operator="equal">
+  <conditionalFormatting sqref="E80">
+    <cfRule type="cellIs" dxfId="274" priority="400" operator="equal">
       <formula>"note"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="C81:C82 C85:C86 C88:C96">
-    <cfRule type="expression" dxfId="262" priority="426">
-      <formula>AND(AND(NOT($A81 = "end group"), NOT($A81 = "end repeat"), NOT($A81 = "")), $C81 = "")</formula>
+  <conditionalFormatting sqref="E80">
+    <cfRule type="expression" dxfId="273" priority="401">
+      <formula>AND($A80="begin repeat", NOT($B80 = ""))</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="A81:D82 A85:D86 A83:B84 D83:D84 A88:D95 A87:B87 D87 A98:D102 A96:B97 D96:D97 A103:C103 C96">
-    <cfRule type="expression" dxfId="261" priority="430">
-      <formula>AND($A81="begin repeat", NOT($B81 = ""))</formula>
+  <conditionalFormatting sqref="E80">
+    <cfRule type="expression" dxfId="272" priority="402">
+      <formula>AND($A80="end repeat", $B80 = "", $C80 = "", $D80 = "", $E80 = "", $F80 = "", $G80 = "", $H80 = "", $I80 = "", $J80 = "", $K80 = "", $L80 = "", $M80 = "")</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="A81:D82 A85:D86 A88:D95 A87:B87 D87 C96">
-    <cfRule type="expression" dxfId="260" priority="431">
-      <formula>AND($A81="end repeat", $B81 = "", $C81 = "", $D81 = "", $E81 = "", $F81 = "", $G81 = "", $H81 = "", $I81 = "", $J81 = "", $K81 = "", $L81 = "", $M81 = "")</formula>
+  <conditionalFormatting sqref="A82:D83 A86:D87 A84:B85 D84:D85 A89:D96 A88:B88 D88 A99:D103 A97:B98 D97:D98 A104:C104 C97">
+    <cfRule type="containsText" dxfId="271" priority="421" operator="containsText" text="calculate"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A82:D83 A86:D87 A84:B85 D84:D85 A89:D96 A88:B88 D88 A99:D103 A97:B98 D97:D98 A104:C104 C97">
+    <cfRule type="expression" dxfId="270" priority="422">
+      <formula>AND($A82="begin group", NOT($B82 = ""))</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="E81:E82 E85:E86 E88:E95">
-    <cfRule type="expression" dxfId="259" priority="437">
-      <formula>AND($A81="begin repeat", NOT($B81 = ""))</formula>
+  <conditionalFormatting sqref="A82:D83 A86:D87 A89:D96 A88:B88 D88 C97">
+    <cfRule type="expression" dxfId="269" priority="423">
+      <formula>AND($A82="end group", $B82 = "", $C82 = "", $D82 = "", $E82 = "", $F82 = "", $G82 = "", $H82 = "", $I82 = "", $J82 = "", $K82 = "", $L82 = "", $M82 = "")</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="E81:E82 E85:E86 E88:E95 E106:E107">
-    <cfRule type="expression" dxfId="258" priority="438">
-      <formula>AND($E81 = "", $A81 = "calculate")</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E81:E82 E85:E86 E88:E95 E106:E107">
-    <cfRule type="expression" dxfId="257" priority="439">
-      <formula>AND($A81="end repeat", $B81 = "", $C81 = "", $D81 = "", $E81 = "", $F81 = "", $G81 = "", $H81 = "", $E81 = "", $J81 = "", $K81 = "", $L81 = "", $M81 = "")</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E81:E82 E85:E86 E88:E95 E106:E107">
-    <cfRule type="expression" dxfId="256" priority="440">
-      <formula>AND($A81="end group", $B81 = "", $C81 = "", $D81 = "", $E81 = "", $F81 = "", $G81 = "", $H81 = "", $E81 = "", $J81 = "", $K81 = "", $L81 = "", $M81 = "")</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E81:E82 E85:E86 E88:E95">
-    <cfRule type="containsText" dxfId="255" priority="441" operator="containsText" text="calculate"/>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="D33:D36">
-    <cfRule type="containsText" dxfId="254" priority="192" operator="containsText" text="calculate"/>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="D33:D36">
-    <cfRule type="expression" dxfId="253" priority="193">
-      <formula>AND($A33="begin group", NOT($B33 = ""))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="D33:D36">
-    <cfRule type="expression" dxfId="252" priority="194">
-      <formula>AND($A33="end group", $B33 = "", $C33 = "", $D33 = "", $E33 = "", $F33 = "", $G33 = "", $H33 = "", $I33 = "", $J33 = "", $K33 = "", $L33 = "", $M33 = "")</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="D33:D36">
-    <cfRule type="cellIs" dxfId="251" priority="195" operator="equal">
+  <conditionalFormatting sqref="A82:D83 A86:D87 A84:B85 D84:D85 A89:D96 A88:B88 D88 A99:D103 A97:B98 D97:D98 A104:C104 C97">
+    <cfRule type="cellIs" dxfId="268" priority="424" operator="equal">
       <formula>"note"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="D33:D36">
-    <cfRule type="expression" dxfId="250" priority="196">
-      <formula>AND($A33="begin repeat", NOT($B33 = ""))</formula>
+  <conditionalFormatting sqref="C82:C83 C86:C87 C89:C97">
+    <cfRule type="expression" dxfId="267" priority="426">
+      <formula>AND(AND(NOT($A82 = "end group"), NOT($A82 = "end repeat"), NOT($A82 = "")), $C82 = "")</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="D33:D36">
-    <cfRule type="expression" dxfId="249" priority="197">
-      <formula>AND($A33="end repeat", $B33 = "", $C33 = "", $D33 = "", $E33 = "", $F33 = "", $G33 = "", $H33 = "", $I33 = "", $J33 = "", $K33 = "", $L33 = "", $M33 = "")</formula>
+  <conditionalFormatting sqref="A82:D83 A86:D87 A84:B85 D84:D85 A89:D96 A88:B88 D88 A99:D103 A97:B98 D97:D98 A104:C104 C97">
+    <cfRule type="expression" dxfId="266" priority="430">
+      <formula>AND($A82="begin repeat", NOT($B82 = ""))</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="E33:E36">
-    <cfRule type="containsText" dxfId="248" priority="198" operator="containsText" text="calculate"/>
+  <conditionalFormatting sqref="A82:D83 A86:D87 A89:D96 A88:B88 D88 C97">
+    <cfRule type="expression" dxfId="265" priority="431">
+      <formula>AND($A82="end repeat", $B82 = "", $C82 = "", $D82 = "", $E82 = "", $F82 = "", $G82 = "", $H82 = "", $I82 = "", $J82 = "", $K82 = "", $L82 = "", $M82 = "")</formula>
+    </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="E33:E36">
-    <cfRule type="expression" dxfId="247" priority="199">
-      <formula>AND($A33="begin group", NOT($B33 = ""))</formula>
+  <conditionalFormatting sqref="E82:E83 E86:E87 E89:E96">
+    <cfRule type="expression" dxfId="264" priority="437">
+      <formula>AND($A82="begin repeat", NOT($B82 = ""))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E82:E83 E86:E87 E89:E96 E107:E108">
+    <cfRule type="expression" dxfId="263" priority="438">
+      <formula>AND($E82 = "", $A82 = "calculate")</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E82:E83 E86:E87 E89:E96 E107:E108">
+    <cfRule type="expression" dxfId="262" priority="439">
+      <formula>AND($A82="end repeat", $B82 = "", $C82 = "", $D82 = "", $E82 = "", $F82 = "", $G82 = "", $H82 = "", $E82 = "", $J82 = "", $K82 = "", $L82 = "", $M82 = "")</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E82:E83 E86:E87 E89:E96 E107:E108">
+    <cfRule type="expression" dxfId="261" priority="440">
+      <formula>AND($A82="end group", $B82 = "", $C82 = "", $D82 = "", $E82 = "", $F82 = "", $G82 = "", $H82 = "", $E82 = "", $J82 = "", $K82 = "", $L82 = "", $M82 = "")</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E82:E83 E86:E87 E89:E96">
+    <cfRule type="containsText" dxfId="260" priority="441" operator="containsText" text="calculate"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D34:D37">
+    <cfRule type="containsText" dxfId="259" priority="192" operator="containsText" text="calculate"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D34:D37">
+    <cfRule type="expression" dxfId="258" priority="193">
+      <formula>AND($A34="begin group", NOT($B34 = ""))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D34:D37">
+    <cfRule type="expression" dxfId="257" priority="194">
+      <formula>AND($A34="end group", $B34 = "", $C34 = "", $D34 = "", $E34 = "", $F34 = "", $G34 = "", $H34 = "", $I34 = "", $J34 = "", $K34 = "", $L34 = "", $M34 = "")</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D34:D37">
+    <cfRule type="cellIs" dxfId="256" priority="195" operator="equal">
+      <formula>"note"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D34:D37">
+    <cfRule type="expression" dxfId="255" priority="196">
+      <formula>AND($A34="begin repeat", NOT($B34 = ""))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D34:D37">
+    <cfRule type="expression" dxfId="254" priority="197">
+      <formula>AND($A34="end repeat", $B34 = "", $C34 = "", $D34 = "", $E34 = "", $F34 = "", $G34 = "", $H34 = "", $I34 = "", $J34 = "", $K34 = "", $L34 = "", $M34 = "")</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E34:E37">
+    <cfRule type="containsText" dxfId="253" priority="198" operator="containsText" text="calculate"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E34:E37">
+    <cfRule type="expression" dxfId="252" priority="199">
+      <formula>AND($A34="begin group", NOT($B34 = ""))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E37">
+    <cfRule type="expression" dxfId="251" priority="200">
+      <formula>AND($A37="end group", $B37 = "", $C37 = "", $D37 = "", $E37 = "", $F37 = "", $G37 = "", $H37 = "", $I37 = "", $J37 = "", $K37 = "", $L37 = "", $M37 = "")</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E34:E37">
+    <cfRule type="cellIs" dxfId="250" priority="201" operator="equal">
+      <formula>"note"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E34:E37">
+    <cfRule type="expression" dxfId="249" priority="202">
+      <formula>AND($A34="begin repeat", NOT($B34 = ""))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E37">
+    <cfRule type="expression" dxfId="248" priority="203">
+      <formula>AND($A37="end repeat", $B37 = "", $C37 = "", $D37 = "", $E37 = "", $F37 = "", $G37 = "", $H37 = "", $I37 = "", $J37 = "", $K37 = "", $L37 = "", $M37 = "")</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E36">
-    <cfRule type="expression" dxfId="246" priority="200">
-      <formula>AND($A36="end group", $B36 = "", $C36 = "", $D36 = "", $E36 = "", $F36 = "", $G36 = "", $H36 = "", $I36 = "", $J36 = "", $K36 = "", $L36 = "", $M36 = "")</formula>
+    <cfRule type="expression" dxfId="247" priority="204">
+      <formula>AND($A36="end group", $B36 = "", $C36 = "", $D36 = "", $E36 = "", $F36 = "", $G36 = "", $H36 = "", $I36 = "", $J36 = "", $K34 = "", $L36 = "", $M36 = "")</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="E33:E36">
-    <cfRule type="cellIs" dxfId="245" priority="201" operator="equal">
+  <conditionalFormatting sqref="E34:E35">
+    <cfRule type="expression" dxfId="246" priority="205">
+      <formula>AND($A34="end group", $B34 = "", $C34 = "", $D34 = "", $E34 = "", $F34 = "", $G34 = "", $H34 = "", $I34 = "", $J34 = "", #REF! = "", $L34 = "", $M34 = "")</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E36">
+    <cfRule type="expression" dxfId="245" priority="206">
+      <formula>AND($A36="end repeat", $B36 = "", $C36 = "", $D36 = "", $E36 = "", $F36 = "", $G36 = "", $H36 = "", $I36 = "", $J36 = "", $K34 = "", $L36 = "", $M36 = "")</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E34:E35">
+    <cfRule type="expression" dxfId="244" priority="207">
+      <formula>AND($A34="end repeat", $B34 = "", $C34 = "", $D34 = "", $E34 = "", $F34 = "", $G34 = "", $H34 = "", $I34 = "", $J34 = "", #REF! = "", $L34 = "", $M34 = "")</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="G66">
+    <cfRule type="containsText" dxfId="243" priority="186" operator="containsText" text="calculate"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="G66">
+    <cfRule type="expression" dxfId="242" priority="187">
+      <formula>AND($A66="begin group", NOT($B66 = ""))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="G66">
+    <cfRule type="expression" dxfId="241" priority="188">
+      <formula>AND($A66="end group", $B66 = "", $C66 = "", $D66 = "", $E66 = "", $F66 = "", $G66 = "", $H66 = "", $I66 = "", $J66 = "", $K66 = "", $L66 = "", $M66 = "")</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="G66">
+    <cfRule type="cellIs" dxfId="240" priority="189" operator="equal">
       <formula>"note"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="E33:E36">
-    <cfRule type="expression" dxfId="244" priority="202">
-      <formula>AND($A33="begin repeat", NOT($B33 = ""))</formula>
+  <conditionalFormatting sqref="G66">
+    <cfRule type="expression" dxfId="239" priority="190">
+      <formula>AND($A66="begin repeat", NOT($B66 = ""))</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="E36">
-    <cfRule type="expression" dxfId="243" priority="203">
-      <formula>AND($A36="end repeat", $B36 = "", $C36 = "", $D36 = "", $E36 = "", $F36 = "", $G36 = "", $H36 = "", $I36 = "", $J36 = "", $K36 = "", $L36 = "", $M36 = "")</formula>
+  <conditionalFormatting sqref="G66">
+    <cfRule type="expression" dxfId="238" priority="191">
+      <formula>AND($A66="end repeat", $B66 = "", $C66 = "", $D66 = "", $E66 = "", $F66 = "", $G66 = "", $H66 = "", $I66 = "", $J66 = "", $K66 = "", $L66 = "", $M66 = "")</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="E35">
-    <cfRule type="expression" dxfId="242" priority="204">
-      <formula>AND($A35="end group", $B35 = "", $C35 = "", $D35 = "", $E35 = "", $F35 = "", $G35 = "", $H35 = "", $I35 = "", $J35 = "", $K33 = "", $L35 = "", $M35 = "")</formula>
+  <conditionalFormatting sqref="A70">
+    <cfRule type="expression" dxfId="237" priority="178">
+      <formula>AND($A70="begin repeat", NOT($B70 = ""))</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="E33:E34">
-    <cfRule type="expression" dxfId="241" priority="205">
-      <formula>AND($A33="end group", $B33 = "", $C33 = "", $D33 = "", $E33 = "", $F33 = "", $G33 = "", $H33 = "", $I33 = "", $J33 = "", #REF! = "", $L33 = "", $M33 = "")</formula>
+  <conditionalFormatting sqref="A70">
+    <cfRule type="expression" dxfId="236" priority="179">
+      <formula>AND($A70="end repeat", $B70 = "", $C70 = "", $D70 = "", $E70 = "", $F70 = "", $G70 = "", $H70 = "", $I70 = "", $J70 = "", $K70 = "", $L70 = "", $M70 = "")</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="E35">
-    <cfRule type="expression" dxfId="240" priority="206">
-      <formula>AND($A35="end repeat", $B35 = "", $C35 = "", $D35 = "", $E35 = "", $F35 = "", $G35 = "", $H35 = "", $I35 = "", $J35 = "", $K33 = "", $L35 = "", $M35 = "")</formula>
+  <conditionalFormatting sqref="A70">
+    <cfRule type="containsText" dxfId="235" priority="173" operator="containsText" text="calculate"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A70">
+    <cfRule type="expression" dxfId="234" priority="174">
+      <formula>AND($A70="begin group", NOT($B70 = ""))</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="E33:E34">
-    <cfRule type="expression" dxfId="239" priority="207">
-      <formula>AND($A33="end repeat", $B33 = "", $C33 = "", $D33 = "", $E33 = "", $F33 = "", $G33 = "", $H33 = "", $I33 = "", $J33 = "", #REF! = "", $L33 = "", $M33 = "")</formula>
+  <conditionalFormatting sqref="A70">
+    <cfRule type="expression" dxfId="233" priority="175">
+      <formula>AND($A70="end group", $B70 = "", $C70 = "", $D70 = "", $E70 = "", $F70 = "", $G70 = "", $H70 = "", $I70 = "", $J70 = "", $K70 = "", $L70 = "", $M70 = "")</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="G65">
-    <cfRule type="containsText" dxfId="238" priority="186" operator="containsText" text="calculate"/>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="G65">
-    <cfRule type="expression" dxfId="237" priority="187">
-      <formula>AND($A65="begin group", NOT($B65 = ""))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="G65">
-    <cfRule type="expression" dxfId="236" priority="188">
-      <formula>AND($A65="end group", $B65 = "", $C65 = "", $D65 = "", $E65 = "", $F65 = "", $G65 = "", $H65 = "", $I65 = "", $J65 = "", $K65 = "", $L65 = "", $M65 = "")</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="G65">
-    <cfRule type="cellIs" dxfId="235" priority="189" operator="equal">
+  <conditionalFormatting sqref="A70">
+    <cfRule type="cellIs" dxfId="232" priority="176" operator="equal">
       <formula>"note"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="G65">
-    <cfRule type="expression" dxfId="234" priority="190">
-      <formula>AND($A65="begin repeat", NOT($B65 = ""))</formula>
+  <conditionalFormatting sqref="A70">
+    <cfRule type="cellIs" dxfId="231" priority="177" operator="equal">
+      <formula>"hidden"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="G65">
-    <cfRule type="expression" dxfId="233" priority="191">
-      <formula>AND($A65="end repeat", $B65 = "", $C65 = "", $D65 = "", $E65 = "", $F65 = "", $G65 = "", $H65 = "", $I65 = "", $J65 = "", $K65 = "", $L65 = "", $M65 = "")</formula>
+  <conditionalFormatting sqref="J70">
+    <cfRule type="containsText" dxfId="230" priority="167" operator="containsText" text="calculate"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="J70">
+    <cfRule type="expression" dxfId="229" priority="168">
+      <formula>AND($A70="begin group", NOT($B70 = ""))</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="A69">
-    <cfRule type="expression" dxfId="232" priority="178">
-      <formula>AND($A69="begin repeat", NOT($B69 = ""))</formula>
+  <conditionalFormatting sqref="J70">
+    <cfRule type="expression" dxfId="228" priority="169">
+      <formula>AND($A70="end group", $B70 = "", $C70 = "", $D70 = "", $E70 = "", $F70 = "", $G70 = "", $H70 = "", $I70 = "", $J70 = "", $K70 = "", $L70 = "", $M70 = "")</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="A69">
-    <cfRule type="expression" dxfId="231" priority="179">
-      <formula>AND($A69="end repeat", $B69 = "", $C69 = "", $D69 = "", $E69 = "", $F69 = "", $G69 = "", $H69 = "", $I69 = "", $J69 = "", $K69 = "", $L69 = "", $M69 = "")</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="A69">
-    <cfRule type="containsText" dxfId="230" priority="173" operator="containsText" text="calculate"/>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="A69">
-    <cfRule type="expression" dxfId="229" priority="174">
-      <formula>AND($A69="begin group", NOT($B69 = ""))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="A69">
-    <cfRule type="expression" dxfId="228" priority="175">
-      <formula>AND($A69="end group", $B69 = "", $C69 = "", $D69 = "", $E69 = "", $F69 = "", $G69 = "", $H69 = "", $I69 = "", $J69 = "", $K69 = "", $L69 = "", $M69 = "")</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="A69">
-    <cfRule type="cellIs" dxfId="227" priority="176" operator="equal">
+  <conditionalFormatting sqref="J70">
+    <cfRule type="cellIs" dxfId="227" priority="170" operator="equal">
       <formula>"note"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="A69">
-    <cfRule type="cellIs" dxfId="226" priority="177" operator="equal">
+  <conditionalFormatting sqref="J70">
+    <cfRule type="expression" dxfId="226" priority="171">
+      <formula>AND($A70="begin repeat", NOT($B70 = ""))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="J70">
+    <cfRule type="expression" dxfId="225" priority="172">
+      <formula>AND($A70="end repeat", $B70 = "", $C70 = "", $D70 = "", $E70 = "", $F70 = "", $G70 = "", $H70 = "", $I70 = "", $J70 = "", $K70 = "", $L70 = "", $M70 = "")</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A42:F42 I42:N42">
+    <cfRule type="expression" dxfId="224" priority="538">
+      <formula>AND($A42="end group", $B42 = "", $C42 = "", $D42 = "", $E42 = "", $F42 = "", #REF! = "", #REF! = "", $I42 = "", $J42 = "", $K42 = "", $L42 = "", $M42 = "")</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="I39:N41">
+    <cfRule type="expression" dxfId="223" priority="540">
+      <formula>AND($A39="end group", $B39 = "", $C39 = "", $D39 = "", $E39 = "", $F39 = "", $G40 = "", $H40 = "", $I39 = "", $J39 = "", $K39 = "", $L39 = "", $M39 = "")</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A42:F42 I42:N42">
+    <cfRule type="expression" dxfId="222" priority="552">
+      <formula>AND($A42="end repeat", $B42 = "", $C42 = "", $D42 = "", $E42 = "", $F42 = "", #REF! = "", #REF! = "", $I42 = "", $J42 = "", $K42 = "", $L42 = "", $M42 = "")</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="I39:N41">
+    <cfRule type="expression" dxfId="221" priority="554">
+      <formula>AND($A39="end repeat", $B39 = "", $C39 = "", $D39 = "", $E39 = "", $F39 = "", $G40 = "", $H40 = "", $I39 = "", $J39 = "", $K39 = "", $L39 = "", $M39 = "")</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="G40:G42">
+    <cfRule type="expression" dxfId="220" priority="161">
+      <formula>AND($A40="begin group", NOT($B40 = ""))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="G40:G42">
+    <cfRule type="expression" dxfId="219" priority="162">
+      <formula>AND($A40="end group", $B40 = "", $C40 = "", $D40 = "", $E40 = "", $F40 = "", $G40 = "", $H40 = "", $I40 = "", $J40 = "", $K40 = "", $L40 = "", $M40 = "")</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="G40:G42">
+    <cfRule type="expression" dxfId="218" priority="163">
+      <formula>AND($A40="begin repeat", NOT($B40 = ""))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="G40:G42">
+    <cfRule type="expression" dxfId="217" priority="164">
+      <formula>AND($A40="end repeat", $B40 = "", $C40 = "", $D40 = "", $E40 = "", $F40 = "", $G40 = "", $H40 = "", $I40 = "", $J40 = "", $K40 = "", $L40 = "", $M40 = "")</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="G40:G42">
+    <cfRule type="containsText" dxfId="216" priority="165" operator="containsText" text="calculate"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="G40:G42">
+    <cfRule type="cellIs" dxfId="215" priority="166" operator="equal">
+      <formula>"note"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="H40:H42">
+    <cfRule type="expression" dxfId="214" priority="154">
+      <formula>AND($A40="begin group", NOT($B40 = ""))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="H40:H42">
+    <cfRule type="expression" dxfId="213" priority="155">
+      <formula>AND($A40="end group", $B40 = "", $C40 = "", $D40 = "", $E40 = "", $F40 = "", $G40 = "", $H40 = "", $I40 = "", $J40 = "", $K40 = "", $L40 = "", $M40 = "")</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="H40:H42">
+    <cfRule type="expression" dxfId="212" priority="156">
+      <formula>AND(NOT($G40 = ""), $H40 = "")</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="H40:H42">
+    <cfRule type="expression" dxfId="211" priority="157">
+      <formula>AND($A40="begin repeat", NOT($B40 = ""))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="H40:H42">
+    <cfRule type="expression" dxfId="210" priority="158">
+      <formula>AND($A40="end repeat", $B40 = "", $C40 = "", $D40 = "", $E40 = "", $F40 = "", $G40 = "", $H40 = "", $I40 = "", $J40 = "", $K40 = "", $L40 = "", $M40 = "")</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="H40:H42">
+    <cfRule type="containsText" dxfId="209" priority="159" operator="containsText" text="calculate"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="H40:H42">
+    <cfRule type="cellIs" dxfId="208" priority="160" operator="equal">
+      <formula>"note"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C27:C28">
+    <cfRule type="expression" dxfId="207" priority="699">
+      <formula>AND($A24="begin group", NOT($B24 = ""))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C25:C26">
+    <cfRule type="expression" dxfId="206" priority="701">
+      <formula>AND($A23="end group", $B23 = "", $C25 = "", $D23 = "", $E23 = "", $F23 = "", $G23 = "", $H23 = "", $I23 = "", $J23 = "", $K23 = "", $L23 = "", $M23 = "")</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C25:C26">
+    <cfRule type="expression" dxfId="205" priority="711">
+      <formula>AND(AND(NOT($A23 = "end group"), NOT($A23 = "end repeat"), NOT($A23 = "")), $C25 = "")</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C27:C28">
+    <cfRule type="expression" dxfId="204" priority="713">
+      <formula>AND($A24="begin repeat", NOT($B24 = ""))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C25:C26">
+    <cfRule type="expression" dxfId="203" priority="715">
+      <formula>AND($A23="end repeat", $B23 = "", $C25 = "", $D23 = "", $E23 = "", $F23 = "", $G23 = "", $H23 = "", $I23 = "", $J23 = "", $K23 = "", $L23 = "", $M23 = "")</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C25:C26">
+    <cfRule type="expression" dxfId="202" priority="726">
+      <formula>AND($C25 = "", $A23 = "calculate")</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C25:C26">
+    <cfRule type="expression" dxfId="201" priority="728">
+      <formula>AND($A23="end repeat", $B23 = "", $C25 = "", $D23 = "", $E23 = "", $F23 = "", $G23 = "", $H23 = "", $C25 = "", $J23 = "", $K23 = "", $L23 = "", $M23 = "")</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C25:C26">
+    <cfRule type="expression" dxfId="200" priority="730">
+      <formula>AND($A23="end group", $B23 = "", $C25 = "", $D23 = "", $E23 = "", $F23 = "", $G23 = "", $H23 = "", $C25 = "", $J23 = "", $K23 = "", $L23 = "", $M23 = "")</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C30">
+    <cfRule type="expression" dxfId="199" priority="974">
+      <formula>AND($A25="begin group", NOT($B25 = ""))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C30">
+    <cfRule type="expression" dxfId="198" priority="976">
+      <formula>AND($A25="end group", $B25 = "", $C30 = "", $D25 = "", $E25 = "", $F25 = "", $G25 = "", $H25 = "", $I25 = "", $J25 = "", $K25 = "", $L25 = "", $M25 = "")</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C30">
+    <cfRule type="expression" dxfId="197" priority="978">
+      <formula>AND(AND(NOT($A25 = "end group"), NOT($A25 = "end repeat"), NOT($A25 = "")), $C30 = "")</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C30">
+    <cfRule type="expression" dxfId="196" priority="980">
+      <formula>AND($A25="begin repeat", NOT($B25 = ""))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C30">
+    <cfRule type="expression" dxfId="195" priority="982">
+      <formula>AND($A25="end repeat", $B25 = "", $C30 = "", $D25 = "", $E25 = "", $F25 = "", $G25 = "", $H25 = "", $I25 = "", $J25 = "", $K25 = "", $L25 = "", $M25 = "")</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C30">
+    <cfRule type="expression" dxfId="194" priority="984">
+      <formula>AND($C30 = "", $A25 = "calculate")</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C30">
+    <cfRule type="expression" dxfId="193" priority="986">
+      <formula>AND($A25="end repeat", $B25 = "", $C30 = "", $D25 = "", $E25 = "", $F25 = "", $G25 = "", $H25 = "", $C30 = "", $J25 = "", $K25 = "", $L25 = "", $M25 = "")</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C30">
+    <cfRule type="expression" dxfId="192" priority="988">
+      <formula>AND($A25="end group", $B25 = "", $C30 = "", $D25 = "", $E25 = "", $F25 = "", $G25 = "", $H25 = "", $C30 = "", $J25 = "", $K25 = "", $L25 = "", $M25 = "")</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C21">
+    <cfRule type="expression" dxfId="191" priority="995">
+      <formula>AND($A25="begin group", NOT($B25 = ""))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C21">
+    <cfRule type="expression" dxfId="190" priority="1001">
+      <formula>AND($A25="begin repeat", NOT($B25 = ""))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A21 D21:N21">
+    <cfRule type="expression" dxfId="189" priority="1017">
+      <formula>AND($A21="begin group", NOT(#REF! = ""))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A21 D21:N21">
+    <cfRule type="expression" dxfId="188" priority="1033">
+      <formula>AND($A21="begin repeat", NOT(#REF! = ""))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C21">
+    <cfRule type="cellIs" dxfId="187" priority="133" operator="equal">
       <formula>"hidden"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="J69">
-    <cfRule type="containsText" dxfId="225" priority="167" operator="containsText" text="calculate"/>
+  <conditionalFormatting sqref="C21">
+    <cfRule type="containsText" dxfId="186" priority="131" operator="containsText" text="calculate"/>
   </conditionalFormatting>
-  <conditionalFormatting sqref="J69">
-    <cfRule type="expression" dxfId="224" priority="168">
-      <formula>AND($A69="begin group", NOT($B69 = ""))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="J69">
-    <cfRule type="expression" dxfId="223" priority="169">
-      <formula>AND($A69="end group", $B69 = "", $C69 = "", $D69 = "", $E69 = "", $F69 = "", $G69 = "", $H69 = "", $I69 = "", $J69 = "", $K69 = "", $L69 = "", $M69 = "")</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="J69">
-    <cfRule type="cellIs" dxfId="222" priority="170" operator="equal">
+  <conditionalFormatting sqref="C21">
+    <cfRule type="cellIs" dxfId="185" priority="132" operator="equal">
       <formula>"note"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="J69">
-    <cfRule type="expression" dxfId="221" priority="171">
-      <formula>AND($A69="begin repeat", NOT($B69 = ""))</formula>
+  <conditionalFormatting sqref="C21">
+    <cfRule type="expression" dxfId="184" priority="134">
+      <formula>AND($A21="begin group", NOT(#REF! = ""))</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="J69">
-    <cfRule type="expression" dxfId="220" priority="172">
-      <formula>AND($A69="end repeat", $B69 = "", $C69 = "", $D69 = "", $E69 = "", $F69 = "", $G69 = "", $H69 = "", $I69 = "", $J69 = "", $K69 = "", $L69 = "", $M69 = "")</formula>
+  <conditionalFormatting sqref="C21">
+    <cfRule type="expression" dxfId="183" priority="135">
+      <formula>AND($A21="begin repeat", NOT(#REF! = ""))</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="A41:F41 I41:N41">
-    <cfRule type="expression" dxfId="219" priority="538">
-      <formula>AND($A41="end group", $B41 = "", $C41 = "", $D41 = "", $E41 = "", $F41 = "", #REF! = "", #REF! = "", $I41 = "", $J41 = "", $K41 = "", $L41 = "", $M41 = "")</formula>
+  <conditionalFormatting sqref="B28:C28">
+    <cfRule type="containsText" dxfId="182" priority="124" operator="containsText" text="calculate"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="B28:C28">
+    <cfRule type="cellIs" dxfId="181" priority="126" operator="equal">
+      <formula>"hidden"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="I38:N40">
-    <cfRule type="expression" dxfId="218" priority="540">
-      <formula>AND($A38="end group", $B38 = "", $C38 = "", $D38 = "", $E38 = "", $F38 = "", $G39 = "", $H39 = "", $I38 = "", $J38 = "", $K38 = "", $L38 = "", $M38 = "")</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="A41:F41 I41:N41">
-    <cfRule type="expression" dxfId="217" priority="552">
-      <formula>AND($A41="end repeat", $B41 = "", $C41 = "", $D41 = "", $E41 = "", $F41 = "", #REF! = "", #REF! = "", $I41 = "", $J41 = "", $K41 = "", $L41 = "", $M41 = "")</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="I38:N40">
-    <cfRule type="expression" dxfId="216" priority="554">
-      <formula>AND($A38="end repeat", $B38 = "", $C38 = "", $D38 = "", $E38 = "", $F38 = "", $G39 = "", $H39 = "", $I38 = "", $J38 = "", $K38 = "", $L38 = "", $M38 = "")</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="G39:G41">
-    <cfRule type="expression" dxfId="215" priority="161">
-      <formula>AND($A39="begin group", NOT($B39 = ""))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="G39:G41">
-    <cfRule type="expression" dxfId="214" priority="162">
-      <formula>AND($A39="end group", $B39 = "", $C39 = "", $D39 = "", $E39 = "", $F39 = "", $G39 = "", $H39 = "", $I39 = "", $J39 = "", $K39 = "", $L39 = "", $M39 = "")</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="G39:G41">
-    <cfRule type="expression" dxfId="213" priority="163">
-      <formula>AND($A39="begin repeat", NOT($B39 = ""))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="G39:G41">
-    <cfRule type="expression" dxfId="212" priority="164">
-      <formula>AND($A39="end repeat", $B39 = "", $C39 = "", $D39 = "", $E39 = "", $F39 = "", $G39 = "", $H39 = "", $I39 = "", $J39 = "", $K39 = "", $L39 = "", $M39 = "")</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="G39:G41">
-    <cfRule type="containsText" dxfId="211" priority="165" operator="containsText" text="calculate"/>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="G39:G41">
-    <cfRule type="cellIs" dxfId="210" priority="166" operator="equal">
+  <conditionalFormatting sqref="B28:C28">
+    <cfRule type="cellIs" dxfId="180" priority="125" operator="equal">
       <formula>"note"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="H39:H41">
-    <cfRule type="expression" dxfId="209" priority="154">
-      <formula>AND($A39="begin group", NOT($B39 = ""))</formula>
+  <conditionalFormatting sqref="C27">
+    <cfRule type="expression" dxfId="179" priority="1085">
+      <formula>AND($A27="end group", $B27 = "", $C32 = "", $D27 = "", $E27 = "", $F27 = "", $G27 = "", $H27 = "", $I27 = "", $J27 = "", $K27 = "", $L27 = "", $M27 = "")</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="H39:H41">
-    <cfRule type="expression" dxfId="208" priority="155">
-      <formula>AND($A39="end group", $B39 = "", $C39 = "", $D39 = "", $E39 = "", $F39 = "", $G39 = "", $H39 = "", $I39 = "", $J39 = "", $K39 = "", $L39 = "", $M39 = "")</formula>
+  <conditionalFormatting sqref="C27">
+    <cfRule type="expression" dxfId="178" priority="1086">
+      <formula>AND($A27="end repeat", $B27 = "", $C32 = "", $D27 = "", $E27 = "", $F27 = "", $G27 = "", $H27 = "", $I27 = "", $J27 = "", $K27 = "", $L27 = "", $M27 = "")</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="H39:H41">
-    <cfRule type="expression" dxfId="207" priority="156">
-      <formula>AND(NOT($G39 = ""), $H39 = "")</formula>
+  <conditionalFormatting sqref="A30">
+    <cfRule type="expression" dxfId="177" priority="1090">
+      <formula>AND($A30="begin group", NOT($B29 = ""))</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="H39:H41">
-    <cfRule type="expression" dxfId="206" priority="157">
-      <formula>AND($A39="begin repeat", NOT($B39 = ""))</formula>
+  <conditionalFormatting sqref="B30 D30:N30">
+    <cfRule type="expression" dxfId="176" priority="1091">
+      <formula>AND(#REF!="begin group", NOT($B30 = ""))</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="H39:H41">
-    <cfRule type="expression" dxfId="205" priority="158">
-      <formula>AND($A39="end repeat", $B39 = "", $C39 = "", $D39 = "", $E39 = "", $F39 = "", $G39 = "", $H39 = "", $I39 = "", $J39 = "", $K39 = "", $L39 = "", $M39 = "")</formula>
+  <conditionalFormatting sqref="I29">
+    <cfRule type="expression" dxfId="175" priority="1094">
+      <formula>AND($I29 = "", $A30 = "calculate")</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="H39:H41">
-    <cfRule type="containsText" dxfId="204" priority="159" operator="containsText" text="calculate"/>
+  <conditionalFormatting sqref="I30">
+    <cfRule type="expression" dxfId="174" priority="1095">
+      <formula>AND($I30 = "", #REF! = "calculate")</formula>
+    </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="H39:H41">
-    <cfRule type="cellIs" dxfId="203" priority="160" operator="equal">
+  <conditionalFormatting sqref="B30">
+    <cfRule type="expression" dxfId="173" priority="1097">
+      <formula>AND(AND(NOT(#REF! = "end group"), NOT(#REF! = "end repeat"), NOT(#REF! = "")), $B30 = "")</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A30">
+    <cfRule type="expression" dxfId="172" priority="1101">
+      <formula>AND($A30="begin repeat", NOT($B29 = ""))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="B30 D30:N30">
+    <cfRule type="expression" dxfId="171" priority="1102">
+      <formula>AND(#REF!="begin repeat", NOT($B30 = ""))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A30:C30">
+    <cfRule type="expression" dxfId="170" priority="119">
+      <formula>AND($A30="begin group", NOT(#REF! = ""))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A30:C30">
+    <cfRule type="expression" dxfId="169" priority="120">
+      <formula>AND($A30="begin repeat", NOT(#REF! = ""))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A30">
+    <cfRule type="expression" dxfId="168" priority="117">
+      <formula>AND($A30="begin group", NOT($B30 = ""))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A30">
+    <cfRule type="expression" dxfId="167" priority="118">
+      <formula>AND($A30="begin repeat", NOT($B30 = ""))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="B30:C30">
+    <cfRule type="expression" dxfId="166" priority="115">
+      <formula>AND($A30="begin group", NOT($B29 = ""))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="B30:C30">
+    <cfRule type="expression" dxfId="165" priority="116">
+      <formula>AND($A30="begin repeat", NOT($B29 = ""))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="B30:C30">
+    <cfRule type="expression" dxfId="164" priority="113">
+      <formula>AND($A30="begin group", NOT($B30 = ""))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="B30:C30">
+    <cfRule type="expression" dxfId="163" priority="114">
+      <formula>AND($A30="begin repeat", NOT($B30 = ""))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C31">
+    <cfRule type="expression" dxfId="162" priority="1138">
+      <formula>AND($A31="end repeat", $B31 = "", $C31 = "", $D31 = "", $E30 = "", $F31 = "", $G31 = "", $H31 = "", $C31 = "", $J31 = "", $K31 = "", $L31 = "", $M31 = "")</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C31">
+    <cfRule type="expression" dxfId="161" priority="1140">
+      <formula>AND($A31="end group", $B31 = "", $C31 = "", $D31 = "", $E30 = "", $F31 = "", $G31 = "", $H31 = "", $C31 = "", $J31 = "", $K31 = "", $L31 = "", $M31 = "")</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A63:B64 F63:J64">
+    <cfRule type="expression" dxfId="160" priority="1175">
+      <formula>AND($A63="end group", $B63 = "", #REF! = "", $D63 = "", $E63 = "", $F63 = "", $G63 = "", $H63 = "", $I63 = "", $J63 = "", $K63 = "", $L63 = "", $M63 = "")</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C64">
+    <cfRule type="expression" dxfId="159" priority="1200">
+      <formula>AND(#REF!="begin repeat", NOT(#REF! = ""))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C64">
+    <cfRule type="expression" dxfId="158" priority="1201">
+      <formula>AND(#REF!="begin group", NOT(#REF! = ""))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C64">
+    <cfRule type="expression" dxfId="157" priority="1215">
+      <formula>AND(AND(NOT(#REF! = "end group"), NOT(#REF! = "end repeat"), NOT(#REF! = "")), $C64 = "")</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C64">
+    <cfRule type="expression" dxfId="156" priority="1216">
+      <formula>AND(#REF!="end repeat", #REF! = "", $C64 = "", #REF! = "", #REF! = "", #REF! = "", #REF! = "", #REF! = "", #REF! = "", #REF! = "", #REF! = "", #REF! = "", #REF! = "")</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C64">
+    <cfRule type="expression" dxfId="155" priority="1217">
+      <formula>AND(#REF!="end group", #REF! = "", $C64 = "", #REF! = "", #REF! = "", #REF! = "", #REF! = "", #REF! = "", #REF! = "", #REF! = "", #REF! = "", #REF! = "", #REF! = "")</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E63:E64">
+    <cfRule type="containsText" dxfId="154" priority="107" operator="containsText" text="calculate"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E63:E64">
+    <cfRule type="cellIs" dxfId="153" priority="108" operator="equal">
       <formula>"note"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="C26:C27">
-    <cfRule type="expression" dxfId="202" priority="699">
-      <formula>AND($A23="begin group", NOT($B23 = ""))</formula>
+  <conditionalFormatting sqref="E63:E64 K34:K35">
+    <cfRule type="expression" dxfId="152" priority="109">
+      <formula>AND($A36="begin repeat", NOT($B36 = ""))</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="C24:C25">
-    <cfRule type="expression" dxfId="201" priority="701">
-      <formula>AND($A22="end group", $B22 = "", $C24 = "", $D22 = "", $E22 = "", $F22 = "", $G22 = "", $H22 = "", $I22 = "", $J22 = "", $K22 = "", $L22 = "", $M22 = "")</formula>
+  <conditionalFormatting sqref="E63:E64 K34:K35">
+    <cfRule type="expression" dxfId="151" priority="110">
+      <formula>AND($A36="begin group", NOT($B36 = ""))</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="C24:C25">
-    <cfRule type="expression" dxfId="200" priority="711">
-      <formula>AND(AND(NOT($A22 = "end group"), NOT($A22 = "end repeat"), NOT($A22 = "")), $C24 = "")</formula>
+  <conditionalFormatting sqref="E63:E64">
+    <cfRule type="expression" dxfId="150" priority="111">
+      <formula>AND(#REF!="begin group", NOT($B63 = ""))</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="C26:C27">
-    <cfRule type="expression" dxfId="199" priority="713">
-      <formula>AND($A23="begin repeat", NOT($B23 = ""))</formula>
+  <conditionalFormatting sqref="E63:E64">
+    <cfRule type="expression" dxfId="149" priority="112">
+      <formula>AND(#REF!="begin repeat", NOT($B63 = ""))</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="C24:C25">
-    <cfRule type="expression" dxfId="198" priority="715">
-      <formula>AND($A22="end repeat", $B22 = "", $C24 = "", $D22 = "", $E22 = "", $F22 = "", $G22 = "", $H22 = "", $I22 = "", $J22 = "", $K22 = "", $L22 = "", $M22 = "")</formula>
+  <conditionalFormatting sqref="B109:B957 A21 C21 A30:C30 B2:B28">
+    <cfRule type="expression" dxfId="148" priority="1232">
+      <formula>COUNTIF($B$2:$B$965,A2)&gt;1</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="C24:C25">
-    <cfRule type="expression" dxfId="197" priority="726">
-      <formula>AND($C24 = "", $A22 = "calculate")</formula>
+  <conditionalFormatting sqref="C85 C98">
+    <cfRule type="expression" dxfId="147" priority="102">
+      <formula>AND(#REF!="begin repeat", NOT(#REF! = ""))</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="C24:C25">
-    <cfRule type="expression" dxfId="196" priority="728">
-      <formula>AND($A22="end repeat", $B22 = "", $C24 = "", $D22 = "", $E22 = "", $F22 = "", $G22 = "", $H22 = "", $C24 = "", $J22 = "", $K22 = "", $L22 = "", $M22 = "")</formula>
+  <conditionalFormatting sqref="C85 C98">
+    <cfRule type="expression" dxfId="146" priority="103">
+      <formula>AND(#REF!="begin group", NOT(#REF! = ""))</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="C24:C25">
-    <cfRule type="expression" dxfId="195" priority="730">
-      <formula>AND($A22="end group", $B22 = "", $C24 = "", $D22 = "", $E22 = "", $F22 = "", $G22 = "", $H22 = "", $C24 = "", $J22 = "", $K22 = "", $L22 = "", $M22 = "")</formula>
+  <conditionalFormatting sqref="C85">
+    <cfRule type="expression" dxfId="145" priority="104">
+      <formula>AND(AND(NOT(#REF! = "end group"), NOT(#REF! = "end repeat"), NOT(#REF! = "")), $C85 = "")</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="C29">
-    <cfRule type="expression" dxfId="194" priority="974">
-      <formula>AND($A24="begin group", NOT($B24 = ""))</formula>
+  <conditionalFormatting sqref="C85">
+    <cfRule type="expression" dxfId="144" priority="105">
+      <formula>AND(#REF!="end repeat", #REF! = "", $C85 = "", #REF! = "", #REF! = "", #REF! = "", #REF! = "", #REF! = "", #REF! = "", #REF! = "", #REF! = "", #REF! = "", #REF! = "")</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="C29">
-    <cfRule type="expression" dxfId="193" priority="976">
-      <formula>AND($A24="end group", $B24 = "", $C29 = "", $D24 = "", $E24 = "", $F24 = "", $G24 = "", $H24 = "", $I24 = "", $J24 = "", $K24 = "", $L24 = "", $M24 = "")</formula>
+  <conditionalFormatting sqref="C85 C98">
+    <cfRule type="expression" dxfId="143" priority="106">
+      <formula>AND(#REF!="end group", #REF! = "", $C85 = "", #REF! = "", #REF! = "", #REF! = "", #REF! = "", #REF! = "", #REF! = "", #REF! = "", #REF! = "", #REF! = "", #REF! = "")</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="C29">
-    <cfRule type="expression" dxfId="192" priority="978">
-      <formula>AND(AND(NOT($A24 = "end group"), NOT($A24 = "end repeat"), NOT($A24 = "")), $C29 = "")</formula>
+  <conditionalFormatting sqref="E84:E85">
+    <cfRule type="containsText" dxfId="142" priority="94" operator="containsText" text="calculate"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E84:E85">
+    <cfRule type="cellIs" dxfId="141" priority="95" operator="equal">
+      <formula>"note"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="C29">
-    <cfRule type="expression" dxfId="191" priority="980">
-      <formula>AND($A24="begin repeat", NOT($B24 = ""))</formula>
+  <conditionalFormatting sqref="E84:E85">
+    <cfRule type="expression" dxfId="140" priority="96">
+      <formula>AND($A86="begin repeat", NOT($B86 = ""))</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="C29">
-    <cfRule type="expression" dxfId="190" priority="982">
-      <formula>AND($A24="end repeat", $B24 = "", $C29 = "", $D24 = "", $E24 = "", $F24 = "", $G24 = "", $H24 = "", $I24 = "", $J24 = "", $K24 = "", $L24 = "", $M24 = "")</formula>
+  <conditionalFormatting sqref="E84:E85">
+    <cfRule type="expression" dxfId="139" priority="97">
+      <formula>AND($A86="begin group", NOT($B86 = ""))</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="C29">
-    <cfRule type="expression" dxfId="189" priority="984">
-      <formula>AND($C29 = "", $A24 = "calculate")</formula>
+  <conditionalFormatting sqref="E84:E85">
+    <cfRule type="expression" dxfId="138" priority="98">
+      <formula>AND(#REF!="begin group", NOT($B84 = ""))</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="C29">
-    <cfRule type="expression" dxfId="188" priority="986">
-      <formula>AND($A24="end repeat", $B24 = "", $C29 = "", $D24 = "", $E24 = "", $F24 = "", $G24 = "", $H24 = "", $C29 = "", $J24 = "", $K24 = "", $L24 = "", $M24 = "")</formula>
+  <conditionalFormatting sqref="E84:E85">
+    <cfRule type="expression" dxfId="137" priority="99">
+      <formula>AND(#REF!="begin repeat", NOT($B84 = ""))</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="C29">
-    <cfRule type="expression" dxfId="187" priority="988">
-      <formula>AND($A24="end group", $B24 = "", $C29 = "", $D24 = "", $E24 = "", $F24 = "", $G24 = "", $H24 = "", $C29 = "", $J24 = "", $K24 = "", $L24 = "", $M24 = "")</formula>
+  <conditionalFormatting sqref="C88">
+    <cfRule type="containsText" dxfId="136" priority="89" operator="containsText" text="calculate"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C88">
+    <cfRule type="expression" dxfId="135" priority="90">
+      <formula>AND($A88="begin group", NOT($B88 = ""))</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="C20">
-    <cfRule type="expression" dxfId="186" priority="995">
-      <formula>AND($A24="begin group", NOT($B24 = ""))</formula>
+  <conditionalFormatting sqref="C88">
+    <cfRule type="cellIs" dxfId="134" priority="91" operator="equal">
+      <formula>"note"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="C20">
-    <cfRule type="expression" dxfId="185" priority="1001">
-      <formula>AND($A24="begin repeat", NOT($B24 = ""))</formula>
+  <conditionalFormatting sqref="C88">
+    <cfRule type="expression" dxfId="133" priority="92">
+      <formula>AND(AND(NOT($A88 = "end group"), NOT($A88 = "end repeat"), NOT($A88 = "")), $C88 = "")</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="A20 D20:N20">
-    <cfRule type="expression" dxfId="184" priority="1017">
-      <formula>AND($A20="begin group", NOT(#REF! = ""))</formula>
+  <conditionalFormatting sqref="C88">
+    <cfRule type="expression" dxfId="132" priority="93">
+      <formula>AND($A88="begin repeat", NOT($B88 = ""))</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="A20 D20:N20">
-    <cfRule type="expression" dxfId="183" priority="1033">
-      <formula>AND($A20="begin repeat", NOT(#REF! = ""))</formula>
+  <conditionalFormatting sqref="E88">
+    <cfRule type="containsText" dxfId="131" priority="85" operator="containsText" text="calculate"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E88">
+    <cfRule type="expression" dxfId="130" priority="86">
+      <formula>AND($A88="begin group", NOT($B88 = ""))</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="C20">
-    <cfRule type="cellIs" dxfId="182" priority="133" operator="equal">
+  <conditionalFormatting sqref="E88">
+    <cfRule type="cellIs" dxfId="129" priority="87" operator="equal">
+      <formula>"note"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E88">
+    <cfRule type="expression" dxfId="128" priority="88">
+      <formula>AND($A88="begin repeat", NOT($B88 = ""))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C98">
+    <cfRule type="expression" dxfId="127" priority="82">
+      <formula>AND(AND(NOT(#REF! = "end group"), NOT(#REF! = "end repeat"), NOT(#REF! = "")), $C98 = "")</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C98">
+    <cfRule type="expression" dxfId="126" priority="83">
+      <formula>AND(#REF!="end repeat", #REF! = "", $C98 = "", #REF! = "", #REF! = "", #REF! = "", #REF! = "", #REF! = "", #REF! = "", #REF! = "", #REF! = "", #REF! = "", #REF! = "")</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E97:E98">
+    <cfRule type="containsText" dxfId="125" priority="72" operator="containsText" text="calculate"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E97:E98">
+    <cfRule type="cellIs" dxfId="124" priority="73" operator="equal">
+      <formula>"note"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E97:E98">
+    <cfRule type="expression" dxfId="123" priority="74">
+      <formula>AND($A99="begin repeat", NOT($B99 = ""))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E97:E98">
+    <cfRule type="expression" dxfId="122" priority="75">
+      <formula>AND($A99="begin group", NOT($B99 = ""))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E97:E98">
+    <cfRule type="expression" dxfId="121" priority="76">
+      <formula>AND(#REF!="begin group", NOT($B97 = ""))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E97:E98">
+    <cfRule type="expression" dxfId="120" priority="77">
+      <formula>AND(#REF!="begin repeat", NOT($B97 = ""))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="F99:N106 A99:C106">
+    <cfRule type="expression" dxfId="119" priority="1304">
+      <formula>AND($A99="end group", $B99 = "", $C99 = "", #REF! = "", $D99 = "", $F99 = "", $G99 = "", $H99 = "", $I99 = "", $J99 = "", $K99 = "", $L99 = "", $M99 = "")</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="F99:N106 A99:C106">
+    <cfRule type="expression" dxfId="118" priority="1309">
+      <formula>AND($A99="end repeat", $B99 = "", $C99 = "", #REF! = "", $D99 = "", $F99 = "", $G99 = "", $H99 = "", $I99 = "", $J99 = "", $K99 = "", $L99 = "", $M99 = "")</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D99:D103 D105:D106">
+    <cfRule type="expression" dxfId="117" priority="1315">
+      <formula>AND($D99 = "", $A99 = "calculate")</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D99:D103 D105:D106">
+    <cfRule type="expression" dxfId="116" priority="1317">
+      <formula>AND($A99="end repeat", $B99 = "", $C99 = "", #REF! = "", $D99 = "", $F99 = "", $G99 = "", $H99 = "", $D99 = "", $J99 = "", $K99 = "", $L99 = "", $M99 = "")</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D99:D103 D105:D106">
+    <cfRule type="expression" dxfId="115" priority="1319">
+      <formula>AND($A99="end group", $B99 = "", $C99 = "", #REF! = "", $D99 = "", $F99 = "", $G99 = "", $H99 = "", $D99 = "", $J99 = "", $K99 = "", $L99 = "", $M99 = "")</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="F99:F103">
+    <cfRule type="expression" dxfId="114" priority="70">
+      <formula>AND($A99="end repeat", $B99 = "", $C99 = "", $D99 = "", $E99 = "", $F99 = "", $G99 = "", $H99 = "", $I99 = "", $J99 = "", $K99 = "", $L99 = "", $M99 = "")</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="F99:F103">
+    <cfRule type="expression" dxfId="113" priority="71">
+      <formula>AND($A99="end group", $B99 = "", $C99 = "", $D99 = "", $E99 = "", $F99 = "", $G99 = "", $H99 = "", $I99 = "", $J99 = "", $K99 = "", $L99 = "", $M99 = "")</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C28 C25:C26">
+    <cfRule type="expression" dxfId="112" priority="1378">
+      <formula>AND($A25="end group", $B25 = "", $C31 = "", $D25 = "", $E25 = "", $F25 = "", $G25 = "", $H25 = "", $I25 = "", $J25 = "", $K25 = "", $L25 = "", $M25 = "")</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C28 C25:C26">
+    <cfRule type="expression" dxfId="111" priority="1380">
+      <formula>AND($A25="end repeat", $B25 = "", $C31 = "", $D25 = "", $E25 = "", $F25 = "", $G25 = "", $H25 = "", $I25 = "", $J25 = "", $K25 = "", $L25 = "", $M25 = "")</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A30:C30">
+    <cfRule type="expression" dxfId="110" priority="1422">
+      <formula>AND($A40="begin group", NOT($B30 = ""))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A30:C30">
+    <cfRule type="expression" dxfId="109" priority="1423">
+      <formula>AND(AND(NOT($A40 = "end group"), NOT($A40 = "end repeat"), NOT($A40 = "")), $B30 = "")</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A30:C30">
+    <cfRule type="expression" dxfId="108" priority="1424">
+      <formula>AND($A40="begin repeat", NOT($B30 = ""))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C30">
+    <cfRule type="expression" dxfId="107" priority="1427">
+      <formula>AND(#REF!="end group", $B30 = "", $C34 = "", $D30 = "", #REF! = "", $F30 = "", $G30 = "", $H30 = "", $I30 = "", $J30 = "", $K30 = "", $L30 = "", $M30 = "")</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C30">
+    <cfRule type="expression" dxfId="106" priority="1428">
+      <formula>AND(#REF!="end repeat", $B30 = "", $C34 = "", $D30 = "", #REF! = "", $F30 = "", $G30 = "", $H30 = "", $I30 = "", $J30 = "", $K30 = "", $L30 = "", $M30 = "")</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D64 F85:N85 A85:B85 D85 F98:N98 A98:B98 D98">
+    <cfRule type="expression" dxfId="105" priority="1442">
+      <formula>AND($A64="end group", $B64 = "", #REF! = "", $D64 = "", $E64 = "", $F64 = "", $G64 = "", $H64 = "", $I64 = "", $J64 = "", $K64 = "", $L64 = "", $M64 = "")</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D63 F84:N84 A84:B84 D84 F97:N97 A97:B97 D97">
+    <cfRule type="expression" dxfId="104" priority="1443">
+      <formula>AND($A63="end group", $B63 = "", $C64 = "", $D63 = "", $E63 = "", $F63 = "", $G63 = "", $H63 = "", $I63 = "", $J63 = "", $K63 = "", $L63 = "", $M63 = "")</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="F84:N84 A84:B84 D84 F97:N97 A97:B97 D97">
+    <cfRule type="expression" dxfId="103" priority="1446">
+      <formula>AND($A84="end repeat", $B84 = "", $C85 = "", $D84 = "", $E84 = "", $F84 = "", $G84 = "", $H84 = "", $I84 = "", $J84 = "", $K84 = "", $L84 = "", $M84 = "")</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="F85:N85 A85:B85 D85 F98:N98 A98:B98 D98">
+    <cfRule type="expression" dxfId="102" priority="1447">
+      <formula>AND($A85="end repeat", $B85 = "", #REF! = "", $D85 = "", $E85 = "", $F85 = "", $G85 = "", $H85 = "", $I85 = "", $J85 = "", $K85 = "", $L85 = "", $M85 = "")</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C19">
+    <cfRule type="expression" dxfId="101" priority="64">
+      <formula>AND(AND(NOT($A19 = "end group"), NOT($A19 = "end repeat"), NOT($A19 = "")), $C19 = "")</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="B19">
+    <cfRule type="expression" dxfId="100" priority="65">
+      <formula>AND(AND(NOT($A19 = "end group"), NOT($A19 = "end repeat"), NOT($A19 = "")), $B19 = "")</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A19">
+    <cfRule type="cellIs" dxfId="99" priority="66" operator="equal">
       <formula>"hidden"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="C20">
-    <cfRule type="containsText" dxfId="181" priority="131" operator="containsText" text="calculate"/>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="C20">
-    <cfRule type="cellIs" dxfId="180" priority="132" operator="equal">
-      <formula>"note"</formula>
+  <conditionalFormatting sqref="H19">
+    <cfRule type="expression" dxfId="98" priority="67">
+      <formula>AND(NOT($G19 = ""), $H19 = "")</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="C20">
-    <cfRule type="expression" dxfId="179" priority="134">
-      <formula>AND($A20="begin group", NOT(#REF! = ""))</formula>
+  <conditionalFormatting sqref="I20">
+    <cfRule type="expression" dxfId="97" priority="1454">
+      <formula>AND($A19="begin group", NOT($B19 = ""))</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="C20">
-    <cfRule type="expression" dxfId="178" priority="135">
-      <formula>AND($A20="begin repeat", NOT(#REF! = ""))</formula>
+  <conditionalFormatting sqref="I20">
+    <cfRule type="expression" dxfId="96" priority="1457">
+      <formula>AND($I20 = "", $A19 = "calculate")</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="B27:C27">
-    <cfRule type="containsText" dxfId="177" priority="124" operator="containsText" text="calculate"/>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="B27:C27">
-    <cfRule type="cellIs" dxfId="176" priority="126" operator="equal">
-      <formula>"hidden"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="B27:C27">
-    <cfRule type="cellIs" dxfId="175" priority="125" operator="equal">
-      <formula>"note"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="C26">
-    <cfRule type="expression" dxfId="174" priority="1085">
-      <formula>AND($A26="end group", $B26 = "", $C31 = "", $D26 = "", $E26 = "", $F26 = "", $G26 = "", $H26 = "", $I26 = "", $J26 = "", $K26 = "", $L26 = "", $M26 = "")</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="C26">
-    <cfRule type="expression" dxfId="173" priority="1086">
-      <formula>AND($A26="end repeat", $B26 = "", $C31 = "", $D26 = "", $E26 = "", $F26 = "", $G26 = "", $H26 = "", $I26 = "", $J26 = "", $K26 = "", $L26 = "", $M26 = "")</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="A29">
-    <cfRule type="expression" dxfId="172" priority="1090">
-      <formula>AND($A29="begin group", NOT($B28 = ""))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="B29 D29:N29">
-    <cfRule type="expression" dxfId="171" priority="1091">
-      <formula>AND(#REF!="begin group", NOT($B29 = ""))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="I28">
-    <cfRule type="expression" dxfId="170" priority="1094">
-      <formula>AND($I28 = "", $A29 = "calculate")</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="I29">
-    <cfRule type="expression" dxfId="169" priority="1095">
-      <formula>AND($I29 = "", #REF! = "calculate")</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="B29">
-    <cfRule type="expression" dxfId="168" priority="1097">
-      <formula>AND(AND(NOT(#REF! = "end group"), NOT(#REF! = "end repeat"), NOT(#REF! = "")), $B29 = "")</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="A29">
-    <cfRule type="expression" dxfId="167" priority="1101">
-      <formula>AND($A29="begin repeat", NOT($B28 = ""))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="B29 D29:N29">
-    <cfRule type="expression" dxfId="166" priority="1102">
-      <formula>AND(#REF!="begin repeat", NOT($B29 = ""))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="A29:C29">
-    <cfRule type="expression" dxfId="165" priority="119">
-      <formula>AND($A29="begin group", NOT(#REF! = ""))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="A29:C29">
-    <cfRule type="expression" dxfId="164" priority="120">
-      <formula>AND($A29="begin repeat", NOT(#REF! = ""))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="A29">
-    <cfRule type="expression" dxfId="163" priority="117">
-      <formula>AND($A29="begin group", NOT($B29 = ""))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="A29">
-    <cfRule type="expression" dxfId="162" priority="118">
-      <formula>AND($A29="begin repeat", NOT($B29 = ""))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="B29:C29">
-    <cfRule type="expression" dxfId="161" priority="115">
-      <formula>AND($A29="begin group", NOT($B28 = ""))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="B29:C29">
-    <cfRule type="expression" dxfId="160" priority="116">
-      <formula>AND($A29="begin repeat", NOT($B28 = ""))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="B29:C29">
-    <cfRule type="expression" dxfId="159" priority="113">
-      <formula>AND($A29="begin group", NOT($B29 = ""))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="B29:C29">
-    <cfRule type="expression" dxfId="158" priority="114">
-      <formula>AND($A29="begin repeat", NOT($B29 = ""))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="C30">
-    <cfRule type="expression" dxfId="157" priority="1138">
-      <formula>AND($A30="end repeat", $B30 = "", $C30 = "", $D30 = "", $E29 = "", $F30 = "", $G30 = "", $H30 = "", $C30 = "", $J30 = "", $K30 = "", $L30 = "", $M30 = "")</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="C30">
-    <cfRule type="expression" dxfId="156" priority="1140">
-      <formula>AND($A30="end group", $B30 = "", $C30 = "", $D30 = "", $E29 = "", $F30 = "", $G30 = "", $H30 = "", $C30 = "", $J30 = "", $K30 = "", $L30 = "", $M30 = "")</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="A62:B63 F62:J63">
-    <cfRule type="expression" dxfId="155" priority="1175">
-      <formula>AND($A62="end group", $B62 = "", #REF! = "", $D62 = "", $E62 = "", $F62 = "", $G62 = "", $H62 = "", $I62 = "", $J62 = "", $K62 = "", $L62 = "", $M62 = "")</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="C63">
-    <cfRule type="expression" dxfId="154" priority="1200">
-      <formula>AND(#REF!="begin repeat", NOT(#REF! = ""))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="C63">
-    <cfRule type="expression" dxfId="153" priority="1201">
-      <formula>AND(#REF!="begin group", NOT(#REF! = ""))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="C63">
-    <cfRule type="expression" dxfId="152" priority="1215">
-      <formula>AND(AND(NOT(#REF! = "end group"), NOT(#REF! = "end repeat"), NOT(#REF! = "")), $C63 = "")</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="C63">
-    <cfRule type="expression" dxfId="151" priority="1216">
-      <formula>AND(#REF!="end repeat", #REF! = "", $C63 = "", #REF! = "", #REF! = "", #REF! = "", #REF! = "", #REF! = "", #REF! = "", #REF! = "", #REF! = "", #REF! = "", #REF! = "")</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="C63">
-    <cfRule type="expression" dxfId="150" priority="1217">
-      <formula>AND(#REF!="end group", #REF! = "", $C63 = "", #REF! = "", #REF! = "", #REF! = "", #REF! = "", #REF! = "", #REF! = "", #REF! = "", #REF! = "", #REF! = "", #REF! = "")</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E62:E63">
-    <cfRule type="containsText" dxfId="149" priority="107" operator="containsText" text="calculate"/>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E62:E63">
-    <cfRule type="cellIs" dxfId="148" priority="108" operator="equal">
-      <formula>"note"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E62:E63 K33:K34">
-    <cfRule type="expression" dxfId="147" priority="109">
-      <formula>AND($A35="begin repeat", NOT($B35 = ""))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E62:E63 K33:K34">
-    <cfRule type="expression" dxfId="146" priority="110">
-      <formula>AND($A35="begin group", NOT($B35 = ""))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E62:E63">
-    <cfRule type="expression" dxfId="145" priority="111">
-      <formula>AND(#REF!="begin group", NOT($B62 = ""))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E62:E63">
-    <cfRule type="expression" dxfId="144" priority="112">
-      <formula>AND(#REF!="begin repeat", NOT($B62 = ""))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="B108:B956 A20 C20 A29:C29 B2:B27">
-    <cfRule type="expression" dxfId="143" priority="1232">
-      <formula>COUNTIF($B$2:$B$964,A2)&gt;1</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="C84 C97">
-    <cfRule type="expression" dxfId="142" priority="102">
-      <formula>AND(#REF!="begin repeat", NOT(#REF! = ""))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="C84 C97">
-    <cfRule type="expression" dxfId="141" priority="103">
-      <formula>AND(#REF!="begin group", NOT(#REF! = ""))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="C84">
-    <cfRule type="expression" dxfId="140" priority="104">
-      <formula>AND(AND(NOT(#REF! = "end group"), NOT(#REF! = "end repeat"), NOT(#REF! = "")), $C84 = "")</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="C84">
-    <cfRule type="expression" dxfId="139" priority="105">
-      <formula>AND(#REF!="end repeat", #REF! = "", $C84 = "", #REF! = "", #REF! = "", #REF! = "", #REF! = "", #REF! = "", #REF! = "", #REF! = "", #REF! = "", #REF! = "", #REF! = "")</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="C84 C97">
-    <cfRule type="expression" dxfId="138" priority="106">
-      <formula>AND(#REF!="end group", #REF! = "", $C84 = "", #REF! = "", #REF! = "", #REF! = "", #REF! = "", #REF! = "", #REF! = "", #REF! = "", #REF! = "", #REF! = "", #REF! = "")</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E83:E84">
-    <cfRule type="containsText" dxfId="137" priority="94" operator="containsText" text="calculate"/>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E83:E84">
-    <cfRule type="cellIs" dxfId="136" priority="95" operator="equal">
-      <formula>"note"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E83:E84">
-    <cfRule type="expression" dxfId="135" priority="96">
-      <formula>AND($A85="begin repeat", NOT($B85 = ""))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E83:E84">
-    <cfRule type="expression" dxfId="134" priority="97">
-      <formula>AND($A85="begin group", NOT($B85 = ""))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E83:E84">
-    <cfRule type="expression" dxfId="133" priority="98">
-      <formula>AND(#REF!="begin group", NOT($B83 = ""))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E83:E84">
-    <cfRule type="expression" dxfId="132" priority="99">
-      <formula>AND(#REF!="begin repeat", NOT($B83 = ""))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="C87">
-    <cfRule type="containsText" dxfId="131" priority="89" operator="containsText" text="calculate"/>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="C87">
-    <cfRule type="expression" dxfId="130" priority="90">
-      <formula>AND($A87="begin group", NOT($B87 = ""))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="C87">
-    <cfRule type="cellIs" dxfId="129" priority="91" operator="equal">
-      <formula>"note"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="C87">
-    <cfRule type="expression" dxfId="128" priority="92">
-      <formula>AND(AND(NOT($A87 = "end group"), NOT($A87 = "end repeat"), NOT($A87 = "")), $C87 = "")</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="C87">
-    <cfRule type="expression" dxfId="127" priority="93">
-      <formula>AND($A87="begin repeat", NOT($B87 = ""))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E87">
-    <cfRule type="containsText" dxfId="126" priority="85" operator="containsText" text="calculate"/>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E87">
-    <cfRule type="expression" dxfId="125" priority="86">
-      <formula>AND($A87="begin group", NOT($B87 = ""))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E87">
-    <cfRule type="cellIs" dxfId="124" priority="87" operator="equal">
-      <formula>"note"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E87">
-    <cfRule type="expression" dxfId="123" priority="88">
-      <formula>AND($A87="begin repeat", NOT($B87 = ""))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="C97">
-    <cfRule type="expression" dxfId="122" priority="82">
-      <formula>AND(AND(NOT(#REF! = "end group"), NOT(#REF! = "end repeat"), NOT(#REF! = "")), $C97 = "")</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="C97">
-    <cfRule type="expression" dxfId="121" priority="83">
-      <formula>AND(#REF!="end repeat", #REF! = "", $C97 = "", #REF! = "", #REF! = "", #REF! = "", #REF! = "", #REF! = "", #REF! = "", #REF! = "", #REF! = "", #REF! = "", #REF! = "")</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E96:E97">
-    <cfRule type="containsText" dxfId="120" priority="72" operator="containsText" text="calculate"/>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E96:E97">
-    <cfRule type="cellIs" dxfId="119" priority="73" operator="equal">
-      <formula>"note"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E96:E97">
-    <cfRule type="expression" dxfId="118" priority="74">
-      <formula>AND($A98="begin repeat", NOT($B98 = ""))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E96:E97">
-    <cfRule type="expression" dxfId="117" priority="75">
-      <formula>AND($A98="begin group", NOT($B98 = ""))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E96:E97">
-    <cfRule type="expression" dxfId="116" priority="76">
-      <formula>AND(#REF!="begin group", NOT($B96 = ""))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E96:E97">
-    <cfRule type="expression" dxfId="115" priority="77">
-      <formula>AND(#REF!="begin repeat", NOT($B96 = ""))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="F98:N105 A98:C105">
-    <cfRule type="expression" dxfId="114" priority="1304">
-      <formula>AND($A98="end group", $B98 = "", $C98 = "", #REF! = "", $D98 = "", $F98 = "", $G98 = "", $H98 = "", $I98 = "", $J98 = "", $K98 = "", $L98 = "", $M98 = "")</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="F98:N105 A98:C105">
-    <cfRule type="expression" dxfId="113" priority="1309">
-      <formula>AND($A98="end repeat", $B98 = "", $C98 = "", #REF! = "", $D98 = "", $F98 = "", $G98 = "", $H98 = "", $I98 = "", $J98 = "", $K98 = "", $L98 = "", $M98 = "")</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="D98:D102 D104:D105">
-    <cfRule type="expression" dxfId="112" priority="1315">
-      <formula>AND($D98 = "", $A98 = "calculate")</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="D98:D102 D104:D105">
-    <cfRule type="expression" dxfId="111" priority="1317">
-      <formula>AND($A98="end repeat", $B98 = "", $C98 = "", #REF! = "", $D98 = "", $F98 = "", $G98 = "", $H98 = "", $D98 = "", $J98 = "", $K98 = "", $L98 = "", $M98 = "")</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="D98:D102 D104:D105">
-    <cfRule type="expression" dxfId="110" priority="1319">
-      <formula>AND($A98="end group", $B98 = "", $C98 = "", #REF! = "", $D98 = "", $F98 = "", $G98 = "", $H98 = "", $D98 = "", $J98 = "", $K98 = "", $L98 = "", $M98 = "")</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="F98:F102">
-    <cfRule type="expression" dxfId="109" priority="70">
-      <formula>AND($A98="end repeat", $B98 = "", $C98 = "", $D98 = "", $E98 = "", $F98 = "", $G98 = "", $H98 = "", $I98 = "", $J98 = "", $K98 = "", $L98 = "", $M98 = "")</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="F98:F102">
-    <cfRule type="expression" dxfId="108" priority="71">
-      <formula>AND($A98="end group", $B98 = "", $C98 = "", $D98 = "", $E98 = "", $F98 = "", $G98 = "", $H98 = "", $I98 = "", $J98 = "", $K98 = "", $L98 = "", $M98 = "")</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="C27 C24:C25">
-    <cfRule type="expression" dxfId="107" priority="1378">
-      <formula>AND($A24="end group", $B24 = "", $C30 = "", $D24 = "", $E24 = "", $F24 = "", $G24 = "", $H24 = "", $I24 = "", $J24 = "", $K24 = "", $L24 = "", $M24 = "")</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="C27 C24:C25">
-    <cfRule type="expression" dxfId="106" priority="1380">
-      <formula>AND($A24="end repeat", $B24 = "", $C30 = "", $D24 = "", $E24 = "", $F24 = "", $G24 = "", $H24 = "", $I24 = "", $J24 = "", $K24 = "", $L24 = "", $M24 = "")</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="A29:C29">
-    <cfRule type="expression" dxfId="105" priority="1422">
-      <formula>AND($A39="begin group", NOT($B29 = ""))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="A29:C29">
-    <cfRule type="expression" dxfId="104" priority="1423">
-      <formula>AND(AND(NOT($A39 = "end group"), NOT($A39 = "end repeat"), NOT($A39 = "")), $B29 = "")</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="A29:C29">
-    <cfRule type="expression" dxfId="103" priority="1424">
-      <formula>AND($A39="begin repeat", NOT($B29 = ""))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="C29">
-    <cfRule type="expression" dxfId="102" priority="1427">
-      <formula>AND(#REF!="end group", $B29 = "", $C33 = "", $D29 = "", #REF! = "", $F29 = "", $G29 = "", $H29 = "", $I29 = "", $J29 = "", $K29 = "", $L29 = "", $M29 = "")</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="C29">
-    <cfRule type="expression" dxfId="101" priority="1428">
-      <formula>AND(#REF!="end repeat", $B29 = "", $C33 = "", $D29 = "", #REF! = "", $F29 = "", $G29 = "", $H29 = "", $I29 = "", $J29 = "", $K29 = "", $L29 = "", $M29 = "")</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="D63 F84:N84 A84:B84 D84 F97:N97 A97:B97 D97">
-    <cfRule type="expression" dxfId="100" priority="1442">
-      <formula>AND($A63="end group", $B63 = "", #REF! = "", $D63 = "", $E63 = "", $F63 = "", $G63 = "", $H63 = "", $I63 = "", $J63 = "", $K63 = "", $L63 = "", $M63 = "")</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="D62 F83:N83 A83:B83 D83 F96:N96 A96:B96 D96">
-    <cfRule type="expression" dxfId="99" priority="1443">
-      <formula>AND($A62="end group", $B62 = "", $C63 = "", $D62 = "", $E62 = "", $F62 = "", $G62 = "", $H62 = "", $I62 = "", $J62 = "", $K62 = "", $L62 = "", $M62 = "")</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="F83:N83 A83:B83 D83 F96:N96 A96:B96 D96">
-    <cfRule type="expression" dxfId="98" priority="1446">
-      <formula>AND($A83="end repeat", $B83 = "", $C84 = "", $D83 = "", $E83 = "", $F83 = "", $G83 = "", $H83 = "", $I83 = "", $J83 = "", $K83 = "", $L83 = "", $M83 = "")</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="F84:N84 A84:B84 D84 F97:N97 A97:B97 D97">
-    <cfRule type="expression" dxfId="97" priority="1447">
-      <formula>AND($A84="end repeat", $B84 = "", #REF! = "", $D84 = "", $E84 = "", $F84 = "", $G84 = "", $H84 = "", $I84 = "", $J84 = "", $K84 = "", $L84 = "", $M84 = "")</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="C18">
-    <cfRule type="expression" dxfId="96" priority="64">
-      <formula>AND(AND(NOT($A18 = "end group"), NOT($A18 = "end repeat"), NOT($A18 = "")), $C18 = "")</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="B18">
-    <cfRule type="expression" dxfId="95" priority="65">
-      <formula>AND(AND(NOT($A18 = "end group"), NOT($A18 = "end repeat"), NOT($A18 = "")), $B18 = "")</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="A18">
-    <cfRule type="cellIs" dxfId="94" priority="66" operator="equal">
-      <formula>"hidden"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="H18">
-    <cfRule type="expression" dxfId="93" priority="67">
-      <formula>AND(NOT($G18 = ""), $H18 = "")</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="I19">
-    <cfRule type="expression" dxfId="92" priority="1454">
-      <formula>AND($A18="begin group", NOT($B18 = ""))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="I19">
-    <cfRule type="expression" dxfId="91" priority="1457">
-      <formula>AND($I19 = "", $A18 = "calculate")</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="I19">
-    <cfRule type="expression" dxfId="90" priority="1459">
-      <formula>AND($A18="begin repeat", NOT($B18 = ""))</formula>
+  <conditionalFormatting sqref="I20">
+    <cfRule type="expression" dxfId="95" priority="1459">
+      <formula>AND($A19="begin repeat", NOT($B19 = ""))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A14:H14 J14:N14">
-    <cfRule type="containsText" dxfId="89" priority="56" operator="containsText" text="calculate"/>
+    <cfRule type="containsText" dxfId="94" priority="56" operator="containsText" text="calculate"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A14:H14 J14:N14">
-    <cfRule type="expression" dxfId="88" priority="57">
+    <cfRule type="expression" dxfId="93" priority="57">
       <formula>AND($A14="begin group", NOT($B14 = ""))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A14:H14 J14:N14">
-    <cfRule type="cellIs" dxfId="87" priority="58" operator="equal">
+    <cfRule type="cellIs" dxfId="92" priority="58" operator="equal">
       <formula>"note"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A14:H14 J14:N14">
-    <cfRule type="expression" dxfId="86" priority="59">
+    <cfRule type="expression" dxfId="91" priority="59">
       <formula>AND($A14="begin repeat", NOT($B14 = ""))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C14">
-    <cfRule type="expression" dxfId="85" priority="51">
+    <cfRule type="expression" dxfId="90" priority="51">
       <formula>AND(AND(NOT($A14 = "end group"), NOT($A14 = "end repeat"), NOT($A14 = "")), $C14 = "")</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B14">
-    <cfRule type="expression" dxfId="84" priority="52">
+    <cfRule type="expression" dxfId="89" priority="52">
       <formula>AND(AND(NOT($A14 = "end group"), NOT($A14 = "end repeat"), NOT($A14 = "")), $B14 = "")</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A14">
-    <cfRule type="cellIs" dxfId="83" priority="53" operator="equal">
+    <cfRule type="cellIs" dxfId="88" priority="53" operator="equal">
       <formula>"hidden"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H14">
-    <cfRule type="expression" dxfId="82" priority="54">
+    <cfRule type="expression" dxfId="87" priority="54">
       <formula>AND(NOT($G14 = ""), $H14 = "")</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A15:H15 J15:N15">
-    <cfRule type="containsText" dxfId="81" priority="47" operator="containsText" text="calculate"/>
+    <cfRule type="containsText" dxfId="86" priority="47" operator="containsText" text="calculate"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A15:H15 J15:N15">
-    <cfRule type="expression" dxfId="80" priority="48">
+    <cfRule type="expression" dxfId="85" priority="48">
       <formula>AND($A15="begin group", NOT($B15 = ""))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A15:H15 J15:N15">
-    <cfRule type="cellIs" dxfId="79" priority="49" operator="equal">
+    <cfRule type="cellIs" dxfId="84" priority="49" operator="equal">
       <formula>"note"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A15:H15 J15:N15">
-    <cfRule type="expression" dxfId="78" priority="50">
+    <cfRule type="expression" dxfId="83" priority="50">
       <formula>AND($A15="begin repeat", NOT($B15 = ""))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C15">
-    <cfRule type="expression" dxfId="77" priority="42">
+    <cfRule type="expression" dxfId="82" priority="42">
       <formula>AND(AND(NOT($A15 = "end group"), NOT($A15 = "end repeat"), NOT($A15 = "")), $C15 = "")</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B15">
-    <cfRule type="expression" dxfId="76" priority="43">
+    <cfRule type="expression" dxfId="81" priority="43">
       <formula>AND(AND(NOT($A15 = "end group"), NOT($A15 = "end repeat"), NOT($A15 = "")), $B15 = "")</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A15">
-    <cfRule type="cellIs" dxfId="75" priority="44" operator="equal">
+    <cfRule type="cellIs" dxfId="80" priority="44" operator="equal">
       <formula>"hidden"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H15">
-    <cfRule type="expression" dxfId="74" priority="45">
+    <cfRule type="expression" dxfId="79" priority="45">
       <formula>AND(NOT($G15 = ""), $H15 = "")</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A16:H16 J16:N16">
-    <cfRule type="containsText" dxfId="73" priority="38" operator="containsText" text="calculate"/>
+    <cfRule type="containsText" dxfId="78" priority="38" operator="containsText" text="calculate"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A16:H16 J16:N16">
-    <cfRule type="expression" dxfId="72" priority="39">
+    <cfRule type="expression" dxfId="77" priority="39">
       <formula>AND($A16="begin group", NOT($B16 = ""))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A16:H16 J16:N16">
-    <cfRule type="cellIs" dxfId="71" priority="40" operator="equal">
+    <cfRule type="cellIs" dxfId="76" priority="40" operator="equal">
       <formula>"note"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A16:H16 J16:N16">
-    <cfRule type="expression" dxfId="70" priority="41">
+    <cfRule type="expression" dxfId="75" priority="41">
       <formula>AND($A16="begin repeat", NOT($B16 = ""))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C16">
-    <cfRule type="expression" dxfId="69" priority="33">
+    <cfRule type="expression" dxfId="74" priority="33">
       <formula>AND(AND(NOT($A16 = "end group"), NOT($A16 = "end repeat"), NOT($A16 = "")), $C16 = "")</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B16">
-    <cfRule type="expression" dxfId="68" priority="34">
+    <cfRule type="expression" dxfId="73" priority="34">
       <formula>AND(AND(NOT($A16 = "end group"), NOT($A16 = "end repeat"), NOT($A16 = "")), $B16 = "")</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A16">
-    <cfRule type="cellIs" dxfId="67" priority="35" operator="equal">
+    <cfRule type="cellIs" dxfId="72" priority="35" operator="equal">
       <formula>"hidden"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H16">
-    <cfRule type="expression" dxfId="66" priority="36">
+    <cfRule type="expression" dxfId="71" priority="36">
       <formula>AND(NOT($G16 = ""), $H16 = "")</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="A17:H17 J17:N17">
-    <cfRule type="containsText" dxfId="65" priority="29" operator="containsText" text="calculate"/>
+  <conditionalFormatting sqref="A17:H18 J17:N18">
+    <cfRule type="containsText" dxfId="70" priority="29" operator="containsText" text="calculate"/>
   </conditionalFormatting>
-  <conditionalFormatting sqref="A17:H17 J17:N17">
-    <cfRule type="cellIs" dxfId="64" priority="31" operator="equal">
+  <conditionalFormatting sqref="A17:H18 J17:N18">
+    <cfRule type="expression" dxfId="69" priority="30">
+      <formula>AND($A17="begin group", NOT($B17 = ""))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A17:H18 J17:N18">
+    <cfRule type="cellIs" dxfId="68" priority="31" operator="equal">
       <formula>"note"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="A17">
-    <cfRule type="cellIs" dxfId="63" priority="26" operator="equal">
+  <conditionalFormatting sqref="A17:H18 J17:N18">
+    <cfRule type="expression" dxfId="67" priority="32">
+      <formula>AND($A17="begin repeat", NOT($B17 = ""))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C17:C18">
+    <cfRule type="expression" dxfId="66" priority="24">
+      <formula>AND(AND(NOT($A17 = "end group"), NOT($A17 = "end repeat"), NOT($A17 = "")), $C17 = "")</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="B17:B18">
+    <cfRule type="expression" dxfId="65" priority="25">
+      <formula>AND(AND(NOT($A17 = "end group"), NOT($A17 = "end repeat"), NOT($A17 = "")), $B17 = "")</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A17:A18">
+    <cfRule type="cellIs" dxfId="64" priority="26" operator="equal">
       <formula>"hidden"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="G66">
+  <conditionalFormatting sqref="H17:H18">
+    <cfRule type="expression" dxfId="63" priority="27">
+      <formula>AND(NOT($G17 = ""), $H17 = "")</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="G67">
     <cfRule type="containsText" dxfId="62" priority="18" operator="containsText" text="calculate"/>
   </conditionalFormatting>
-  <conditionalFormatting sqref="G66">
+  <conditionalFormatting sqref="G67">
     <cfRule type="expression" dxfId="61" priority="19">
-      <formula>AND($A66="begin group", NOT($B66 = ""))</formula>
+      <formula>AND($A67="begin group", NOT($B67 = ""))</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="G66">
+  <conditionalFormatting sqref="G67">
     <cfRule type="expression" dxfId="60" priority="20">
-      <formula>AND($A66="end group", $B66 = "", $C66 = "", $D66 = "", $E66 = "", $F66 = "", $G66 = "", $H66 = "", $I66 = "", $J66 = "", $K66 = "", $L66 = "", $M66 = "")</formula>
+      <formula>AND($A67="end group", $B67 = "", $C67 = "", $D67 = "", $E67 = "", $F67 = "", $G67 = "", $H67 = "", $I67 = "", $J67 = "", $K67 = "", $L67 = "", $M67 = "")</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="G66">
+  <conditionalFormatting sqref="G67">
     <cfRule type="cellIs" dxfId="59" priority="21" operator="equal">
       <formula>"note"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="G66">
+  <conditionalFormatting sqref="G67">
     <cfRule type="expression" dxfId="58" priority="22">
-      <formula>AND($A66="begin repeat", NOT($B66 = ""))</formula>
+      <formula>AND($A67="begin repeat", NOT($B67 = ""))</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="G66">
+  <conditionalFormatting sqref="G67">
     <cfRule type="expression" dxfId="57" priority="23">
-      <formula>AND($A66="end repeat", $B66 = "", $C66 = "", $D66 = "", $E66 = "", $F66 = "", $G66 = "", $H66 = "", $I66 = "", $J66 = "", $K66 = "", $L66 = "", $M66 = "")</formula>
+      <formula>AND($A67="end repeat", $B67 = "", $C67 = "", $D67 = "", $E67 = "", $F67 = "", $G67 = "", $H67 = "", $I67 = "", $J67 = "", $K67 = "", $L67 = "", $M67 = "")</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="C24:C25">
+  <conditionalFormatting sqref="C25:C26">
     <cfRule type="expression" dxfId="56" priority="1460">
-      <formula>AND($A22="begin group", NOT($B22 = ""))</formula>
+      <formula>AND($A23="begin group", NOT($B23 = ""))</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="C24:C25">
+  <conditionalFormatting sqref="C25:C26">
     <cfRule type="expression" dxfId="55" priority="1466">
-      <formula>AND($A22="begin repeat", NOT($B22 = ""))</formula>
+      <formula>AND($A23="begin repeat", NOT($B23 = ""))</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="C20">
+  <conditionalFormatting sqref="C21">
     <cfRule type="expression" dxfId="54" priority="1507">
-      <formula>AND($A24="end group", $B24 = "", $C20 = "", $D24 = "", $E24 = "", $F24 = "", $G24 = "", $H24 = "", $I24 = "", $J24 = "", $K24 = "", $L24 = "", $M24 = "")</formula>
+      <formula>AND($A25="end group", $B25 = "", $C21 = "", $D25 = "", $E25 = "", $F25 = "", $G25 = "", $H25 = "", $I25 = "", $J25 = "", $K25 = "", $L25 = "", $M25 = "")</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="C20">
+  <conditionalFormatting sqref="C21">
     <cfRule type="expression" dxfId="53" priority="1508">
-      <formula>AND(AND(NOT($A24 = "end group"), NOT($A24 = "end repeat"), NOT($A24 = "")), $C20 = "")</formula>
+      <formula>AND(AND(NOT($A25 = "end group"), NOT($A25 = "end repeat"), NOT($A25 = "")), $C21 = "")</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="C20">
+  <conditionalFormatting sqref="C21">
     <cfRule type="expression" dxfId="52" priority="1509">
-      <formula>AND($A24="end repeat", $B24 = "", $C20 = "", $D24 = "", $E24 = "", $F24 = "", $G24 = "", $H24 = "", $I24 = "", $J24 = "", $K24 = "", $L24 = "", $M24 = "")</formula>
+      <formula>AND($A25="end repeat", $B25 = "", $C21 = "", $D25 = "", $E25 = "", $F25 = "", $G25 = "", $H25 = "", $I25 = "", $J25 = "", $K25 = "", $L25 = "", $M25 = "")</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="C20">
+  <conditionalFormatting sqref="C21">
     <cfRule type="expression" dxfId="51" priority="1510">
-      <formula>AND($C20 = "", $A24 = "calculate")</formula>
+      <formula>AND($C21 = "", $A25 = "calculate")</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="C20">
+  <conditionalFormatting sqref="C21">
     <cfRule type="expression" dxfId="50" priority="1511">
-      <formula>AND($A24="end repeat", $B24 = "", $C20 = "", $D24 = "", $E24 = "", $F24 = "", $G24 = "", $H24 = "", $C20 = "", $J24 = "", $K24 = "", $L24 = "", $M24 = "")</formula>
+      <formula>AND($A25="end repeat", $B25 = "", $C21 = "", $D25 = "", $E25 = "", $F25 = "", $G25 = "", $H25 = "", $C21 = "", $J25 = "", $K25 = "", $L25 = "", $M25 = "")</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="C20">
+  <conditionalFormatting sqref="C21">
     <cfRule type="expression" dxfId="49" priority="1512">
-      <formula>AND($A24="end group", $B24 = "", $C20 = "", $D24 = "", $E24 = "", $F24 = "", $G24 = "", $H24 = "", $C20 = "", $J24 = "", $K24 = "", $L24 = "", $M24 = "")</formula>
+      <formula>AND($A25="end group", $B25 = "", $C21 = "", $D25 = "", $E25 = "", $F25 = "", $G25 = "", $H25 = "", $C21 = "", $J25 = "", $K25 = "", $L25 = "", $M25 = "")</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="A20:C20">
+  <conditionalFormatting sqref="A21:C21">
     <cfRule type="expression" dxfId="48" priority="1513">
-      <formula>AND($A29="begin group", NOT($B20 = ""))</formula>
+      <formula>AND($A30="begin group", NOT($B21 = ""))</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="D28:N28">
+  <conditionalFormatting sqref="D29:N29">
     <cfRule type="expression" dxfId="47" priority="1514">
-      <formula>AND($A29="begin group", NOT($B20 = ""))</formula>
+      <formula>AND($A30="begin group", NOT($B21 = ""))</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="A20:C20">
+  <conditionalFormatting sqref="A21:C21">
     <cfRule type="expression" dxfId="46" priority="1515">
-      <formula>AND(AND(NOT($A29 = "end group"), NOT($A29 = "end repeat"), NOT($A29 = "")), $B20 = "")</formula>
+      <formula>AND(AND(NOT($A30 = "end group"), NOT($A30 = "end repeat"), NOT($A30 = "")), $B21 = "")</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="A20:C20">
+  <conditionalFormatting sqref="A21:C21">
     <cfRule type="expression" dxfId="45" priority="1516">
-      <formula>AND($A29="begin repeat", NOT($B20 = ""))</formula>
+      <formula>AND($A30="begin repeat", NOT($B21 = ""))</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="D28:N28">
+  <conditionalFormatting sqref="D29:N29">
     <cfRule type="expression" dxfId="44" priority="1517">
-      <formula>AND($A29="begin repeat", NOT($B20 = ""))</formula>
+      <formula>AND($A30="begin repeat", NOT($B21 = ""))</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="C20">
+  <conditionalFormatting sqref="C21">
     <cfRule type="expression" dxfId="43" priority="1525">
-      <formula>AND($A29="end group", $B20 = "", $C33 = "", $D28 = "", $E28 = "", $F28 = "", $G28 = "", $H28 = "", $I28 = "", $J28 = "", $K28 = "", $L28 = "", $M28 = "")</formula>
+      <formula>AND($A30="end group", $B21 = "", $C34 = "", $D29 = "", $E29 = "", $F29 = "", $G29 = "", $H29 = "", $I29 = "", $J29 = "", $K29 = "", $L29 = "", $M29 = "")</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="C20">
+  <conditionalFormatting sqref="C21">
     <cfRule type="expression" dxfId="42" priority="1526">
-      <formula>AND($A29="end repeat", $B20 = "", $C33 = "", $D28 = "", $E28 = "", $F28 = "", $G28 = "", $H28 = "", $I28 = "", $J28 = "", $K28 = "", $L28 = "", $M28 = "")</formula>
+      <formula>AND($A30="end repeat", $B21 = "", $C34 = "", $D29 = "", $E29 = "", $F29 = "", $G29 = "", $H29 = "", $I29 = "", $J29 = "", $K29 = "", $L29 = "", $M29 = "")</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="C26:C27">
+  <conditionalFormatting sqref="C27:C28">
     <cfRule type="expression" dxfId="41" priority="1530">
-      <formula>AND($A23="end group", $B23 = "", $C26 = "", $D23 = "", $E23 = "", $F23 = "", $G23 = "", $H23 = "", $I23 = "", $J23 = "", $K23 = "", $L23 = "", $M23 = "")</formula>
+      <formula>AND($A24="end group", $B24 = "", $C27 = "", $D24 = "", $E24 = "", $F24 = "", $G24 = "", $H24 = "", $I24 = "", $J24 = "", $K24 = "", $L24 = "", $M24 = "")</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="C26:C27">
+  <conditionalFormatting sqref="C27:C28">
     <cfRule type="expression" dxfId="40" priority="1532">
-      <formula>AND(AND(NOT($A23 = "end group"), NOT($A23 = "end repeat"), NOT($A23 = "")), $C26 = "")</formula>
+      <formula>AND(AND(NOT($A24 = "end group"), NOT($A24 = "end repeat"), NOT($A24 = "")), $C27 = "")</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="C26:C27">
+  <conditionalFormatting sqref="C27:C28">
     <cfRule type="expression" dxfId="39" priority="1534">
-      <formula>AND($A23="end repeat", $B23 = "", $C26 = "", $D23 = "", $E23 = "", $F23 = "", $G23 = "", $H23 = "", $I23 = "", $J23 = "", $K23 = "", $L23 = "", $M23 = "")</formula>
+      <formula>AND($A24="end repeat", $B24 = "", $C27 = "", $D24 = "", $E24 = "", $F24 = "", $G24 = "", $H24 = "", $I24 = "", $J24 = "", $K24 = "", $L24 = "", $M24 = "")</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="C26:C27">
+  <conditionalFormatting sqref="C27:C28">
     <cfRule type="expression" dxfId="38" priority="1536">
-      <formula>AND($C26 = "", $A23 = "calculate")</formula>
+      <formula>AND($C27 = "", $A24 = "calculate")</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="C26:C27">
+  <conditionalFormatting sqref="C27:C28">
     <cfRule type="expression" dxfId="37" priority="1538">
-      <formula>AND($A23="end repeat", $B23 = "", $C26 = "", $D23 = "", $E23 = "", $F23 = "", $G23 = "", $H23 = "", $C26 = "", $J23 = "", $K23 = "", $L23 = "", $M23 = "")</formula>
+      <formula>AND($A24="end repeat", $B24 = "", $C27 = "", $D24 = "", $E24 = "", $F24 = "", $G24 = "", $H24 = "", $C27 = "", $J24 = "", $K24 = "", $L24 = "", $M24 = "")</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="C26:C27">
+  <conditionalFormatting sqref="C27:C28">
     <cfRule type="expression" dxfId="36" priority="1540">
-      <formula>AND($A23="end group", $B23 = "", $C26 = "", $D23 = "", $E23 = "", $F23 = "", $G23 = "", $H23 = "", $C26 = "", $J23 = "", $K23 = "", $L23 = "", $M23 = "")</formula>
+      <formula>AND($A24="end group", $B24 = "", $C27 = "", $D24 = "", $E24 = "", $F24 = "", $G24 = "", $H24 = "", $C27 = "", $J24 = "", $K24 = "", $L24 = "", $M24 = "")</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="G74:N74">
+  <conditionalFormatting sqref="G75:N75">
     <cfRule type="expression" dxfId="35" priority="1544">
       <formula>AND(#REF!="begin group", NOT(#REF! = ""))</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="I74">
+  <conditionalFormatting sqref="I75">
     <cfRule type="expression" dxfId="34" priority="1555">
-      <formula>AND($I74 = "", #REF! = "calculate")</formula>
+      <formula>AND($I75 = "", #REF! = "calculate")</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="G74:N74">
+  <conditionalFormatting sqref="G75:N75">
     <cfRule type="expression" dxfId="33" priority="1564">
       <formula>AND(#REF!="begin repeat", NOT(#REF! = ""))</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="G74:J74">
+  <conditionalFormatting sqref="G75:J75">
     <cfRule type="expression" dxfId="32" priority="1573">
-      <formula>AND(#REF!="end repeat", #REF! = "", #REF! = "", #REF! = "", #REF! = "", #REF! = "", $G74 = "", $H74 = "", $I74 = "", $J74 = "", $K74 = "", $L74 = "", $M74 = "")</formula>
+      <formula>AND(#REF!="end repeat", #REF! = "", #REF! = "", #REF! = "", #REF! = "", #REF! = "", $G75 = "", $H75 = "", $I75 = "", $J75 = "", $K75 = "", $L75 = "", $M75 = "")</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="G74:J74">
+  <conditionalFormatting sqref="G75:J75">
     <cfRule type="expression" dxfId="31" priority="1579">
-      <formula>AND(#REF!="end group", #REF! = "", #REF! = "", #REF! = "", #REF! = "", #REF! = "", $G74 = "", $H74 = "", $I74 = "", $J74 = "", $K74 = "", $L74 = "", $M74 = "")</formula>
+      <formula>AND(#REF!="end group", #REF! = "", #REF! = "", #REF! = "", #REF! = "", #REF! = "", $G75 = "", $H75 = "", $I75 = "", $J75 = "", $K75 = "", $L75 = "", $M75 = "")</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="A74:F74">
+  <conditionalFormatting sqref="A75:F75">
     <cfRule type="expression" dxfId="30" priority="1593">
-      <formula>AND($A74="end repeat", $B74 = "", $C74 = "", $D74 = "", $E74 = "", $F74 = "", #REF! = "", #REF! = "", #REF! = "", #REF! = "", #REF! = "", #REF! = "", #REF! = "")</formula>
+      <formula>AND($A75="end repeat", $B75 = "", $C75 = "", $D75 = "", $E75 = "", $F75 = "", #REF! = "", #REF! = "", #REF! = "", #REF! = "", #REF! = "", #REF! = "", #REF! = "")</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="A74:F74">
+  <conditionalFormatting sqref="A75:F75">
     <cfRule type="expression" dxfId="29" priority="1594">
-      <formula>AND($A74="end group", $B74 = "", $C74 = "", $D74 = "", $E74 = "", $F74 = "", #REF! = "", #REF! = "", #REF! = "", #REF! = "", #REF! = "", #REF! = "", #REF! = "")</formula>
+      <formula>AND($A75="end group", $B75 = "", $C75 = "", $D75 = "", $E75 = "", $F75 = "", #REF! = "", #REF! = "", #REF! = "", #REF! = "", #REF! = "", #REF! = "", #REF! = "")</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="I38 B30:B51 B56:B107">
+  <conditionalFormatting sqref="I39 B31:B52 B57:B108">
     <cfRule type="expression" dxfId="28" priority="1623">
-      <formula>COUNTIF($B$2:$B$1003,B30)&gt;1</formula>
+      <formula>COUNTIF($B$2:$B$1004,B31)&gt;1</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="L52:N55 A52:J55">
-    <cfRule type="containsText" dxfId="27" priority="1" operator="containsText" text="calculate"/>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="A52:J55">
-    <cfRule type="expression" dxfId="26" priority="2">
-      <formula>AND($A52="begin group", NOT($B52 = ""))</formula>
+  <conditionalFormatting sqref="A1">
+    <cfRule type="expression" dxfId="27" priority="1626">
+      <formula>AND(A1 = "type", COUNTIF($A$1:$A$966, "begin group") = COUNTIF($A$1:$A$966, "end group"))</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="A52:N55">
-    <cfRule type="expression" dxfId="25" priority="3">
-      <formula>AND($A52="end group", $B52 = "", $C52 = "", $D52 = "", $E52 = "", $F52 = "", $G52 = "", $H52 = "", $I52 = "", $J52 = "", $K52 = "", $L52 = "", $M52 = "")</formula>
+  <conditionalFormatting sqref="A1">
+    <cfRule type="expression" dxfId="26" priority="1627">
+      <formula>OR(NOT(A1 = "type"), NOT(COUNTIF($A$1:$A$957, "begin group") = COUNTIF($A$1:$A$966, "end group")))</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="A52:J55">
-    <cfRule type="cellIs" dxfId="24" priority="4" operator="equal">
+  <conditionalFormatting sqref="L53:N56 A53:J56">
+    <cfRule type="containsText" dxfId="16" priority="1" operator="containsText" text="calculate"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A53:J56">
+    <cfRule type="expression" dxfId="15" priority="2">
+      <formula>AND($A53="begin group", NOT($B53 = ""))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A53:N56">
+    <cfRule type="expression" dxfId="14" priority="3">
+      <formula>AND($A53="end group", $B53 = "", $C53 = "", $D53 = "", $E53 = "", $F53 = "", $G53 = "", $H53 = "", $I53 = "", $J53 = "", $K53 = "", $L53 = "", $M53 = "")</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A53:J56">
+    <cfRule type="cellIs" dxfId="13" priority="4" operator="equal">
       <formula>"note"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="I52:I55">
-    <cfRule type="expression" dxfId="23" priority="5">
-      <formula>AND($I52 = "", $A52 = "calculate")</formula>
+  <conditionalFormatting sqref="I53:I56">
+    <cfRule type="expression" dxfId="12" priority="5">
+      <formula>AND($I53 = "", $A53 = "calculate")</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="C52:C55">
-    <cfRule type="expression" dxfId="22" priority="6">
-      <formula>AND(AND(NOT($A52 = "end group"), NOT($A52 = "end repeat"), NOT($A52 = "")), $C52 = "")</formula>
+  <conditionalFormatting sqref="C53:C56">
+    <cfRule type="expression" dxfId="11" priority="6">
+      <formula>AND(AND(NOT($A53 = "end group"), NOT($A53 = "end repeat"), NOT($A53 = "")), $C53 = "")</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="B52:B55">
-    <cfRule type="expression" dxfId="21" priority="7">
-      <formula>AND(AND(NOT($A52 = "end group"), NOT($A52 = "end repeat"), NOT($A52 = "")), $B52 = "")</formula>
+  <conditionalFormatting sqref="B53:B56">
+    <cfRule type="expression" dxfId="10" priority="7">
+      <formula>AND(AND(NOT($A53 = "end group"), NOT($A53 = "end repeat"), NOT($A53 = "")), $B53 = "")</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="A52:A55">
-    <cfRule type="cellIs" dxfId="20" priority="8" operator="equal">
+  <conditionalFormatting sqref="A53:A56">
+    <cfRule type="cellIs" dxfId="9" priority="8" operator="equal">
       <formula>"hidden"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="H52:H55">
-    <cfRule type="expression" dxfId="19" priority="9">
-      <formula>AND(NOT($G52 = ""), $H52 = "")</formula>
+  <conditionalFormatting sqref="H53:H56">
+    <cfRule type="expression" dxfId="8" priority="9">
+      <formula>AND(NOT($G53 = ""), $H53 = "")</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="A52:J55">
-    <cfRule type="expression" dxfId="18" priority="10">
-      <formula>AND($A52="begin repeat", NOT($B52 = ""))</formula>
+  <conditionalFormatting sqref="A53:J56">
+    <cfRule type="expression" dxfId="7" priority="10">
+      <formula>AND($A53="begin repeat", NOT($B53 = ""))</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="A52:N55">
-    <cfRule type="expression" dxfId="17" priority="11">
-      <formula>AND($A52="end repeat", $B52 = "", $C52 = "", $D52 = "", $E52 = "", $F52 = "", $G52 = "", $H52 = "", $I52 = "", $J52 = "", $K52 = "", $L52 = "", $M52 = "")</formula>
+  <conditionalFormatting sqref="A53:N56">
+    <cfRule type="expression" dxfId="6" priority="11">
+      <formula>AND($A53="end repeat", $B53 = "", $C53 = "", $D53 = "", $E53 = "", $F53 = "", $G53 = "", $H53 = "", $I53 = "", $J53 = "", $K53 = "", $L53 = "", $M53 = "")</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="K52:K55">
-    <cfRule type="containsText" dxfId="16" priority="12" operator="containsText" text="calculate"/>
+  <conditionalFormatting sqref="K53:K56">
+    <cfRule type="containsText" dxfId="5" priority="12" operator="containsText" text="calculate"/>
   </conditionalFormatting>
-  <conditionalFormatting sqref="K52:N55">
-    <cfRule type="expression" dxfId="15" priority="13">
-      <formula>AND($A52="begin group", NOT($B52 = ""))</formula>
+  <conditionalFormatting sqref="K53:N56">
+    <cfRule type="expression" dxfId="4" priority="13">
+      <formula>AND($A53="begin group", NOT($B53 = ""))</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="K52:N55">
-    <cfRule type="cellIs" dxfId="14" priority="14" operator="equal">
+  <conditionalFormatting sqref="K53:N56">
+    <cfRule type="cellIs" dxfId="3" priority="14" operator="equal">
       <formula>"note"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="I53">
-    <cfRule type="expression" dxfId="13" priority="15">
-      <formula>AND(AND(NOT($A53 = "end group"), NOT($A53 = "end repeat"), NOT($A53 = "")), $B53 = "")</formula>
+  <conditionalFormatting sqref="I54">
+    <cfRule type="expression" dxfId="2" priority="15">
+      <formula>AND(AND(NOT($A54 = "end group"), NOT($A54 = "end repeat"), NOT($A54 = "")), $B54 = "")</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="K52:N55">
-    <cfRule type="expression" dxfId="12" priority="16">
-      <formula>AND($A52="begin repeat", NOT($B52 = ""))</formula>
+  <conditionalFormatting sqref="K53:N56">
+    <cfRule type="expression" dxfId="1" priority="16">
+      <formula>AND($A53="begin repeat", NOT($B53 = ""))</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="I53 B52:B55">
-    <cfRule type="expression" dxfId="11" priority="17">
-      <formula>COUNTIF($B$2:$B$972,B52)&gt;1</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="A1">
-    <cfRule type="expression" dxfId="1" priority="1642">
-      <formula>AND(A1 = "type", COUNTIF($A$1:$A$965, "begin group") = COUNTIF($A$1:$A$965, "end group"))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="A1">
-    <cfRule type="expression" dxfId="0" priority="1643">
-      <formula>OR(NOT(A1 = "type"), NOT(COUNTIF($A$1:$A$956, "begin group") = COUNTIF($A$1:$A$965, "end group")))</formula>
+  <conditionalFormatting sqref="I54 B53:B56">
+    <cfRule type="expression" dxfId="0" priority="17">
+      <formula>COUNTIF($B$2:$B$973,B53)&gt;1</formula>
     </cfRule>
   </conditionalFormatting>
   <dataValidations count="1">
-    <dataValidation type="list" allowBlank="1" sqref="D2:D113">
+    <dataValidation type="list" allowBlank="1" sqref="D2:D114">
       <formula1>"yes,no"</formula1>
       <formula2>0</formula2>
     </dataValidation>
@@ -19209,7 +19299,7 @@
   <dimension ref="A1:Z2811"/>
   <sheetViews>
     <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A2596" activePane="bottomLeft" state="frozen"/>
+      <pane ySplit="1" topLeftCell="A2803" activePane="bottomLeft" state="frozen"/>
       <selection pane="bottomLeft" activeCell="E1739" sqref="E1739:E2811"/>
     </sheetView>
   </sheetViews>
@@ -60443,45 +60533,45 @@
     </row>
   </sheetData>
   <conditionalFormatting sqref="A2:B3">
-    <cfRule type="containsText" dxfId="10" priority="2" operator="containsText" text="calculate"/>
+    <cfRule type="containsText" dxfId="25" priority="2" operator="containsText" text="calculate"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A2:B3">
-    <cfRule type="expression" dxfId="9" priority="3">
+    <cfRule type="expression" dxfId="24" priority="3">
       <formula>AND($A2="begin group", NOT($B2 = ""))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A2:B3">
-    <cfRule type="cellIs" dxfId="8" priority="5" operator="equal">
+    <cfRule type="cellIs" dxfId="23" priority="5" operator="equal">
       <formula>"note"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B2:B3">
-    <cfRule type="expression" dxfId="7" priority="6">
+    <cfRule type="expression" dxfId="22" priority="6">
       <formula>AND(AND(NOT($A2 = "end group"), NOT($A2 = "end repeat"), NOT($A2 = "")), $B2 = "")</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A2:A3">
-    <cfRule type="cellIs" dxfId="6" priority="7" operator="equal">
+    <cfRule type="cellIs" dxfId="21" priority="7" operator="equal">
       <formula>"hidden"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A2:B3">
-    <cfRule type="expression" dxfId="5" priority="8">
+    <cfRule type="expression" dxfId="20" priority="8">
       <formula>AND($A2="begin repeat", NOT($B2 = ""))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A2:B3">
-    <cfRule type="expression" dxfId="4" priority="362">
+    <cfRule type="expression" dxfId="19" priority="362">
       <formula>AND($A2="end group", $B2 = "", $C2 = "", $E2 = "", #REF! = "", $F2 = "", $G2 = "", $H2 = "", $I2 = "", $J2 = "", $K2 = "", $L2 = "", $M2 = "")</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A2:B3">
-    <cfRule type="expression" dxfId="3" priority="363">
+    <cfRule type="expression" dxfId="18" priority="363">
       <formula>AND($A2="end repeat", $B2 = "", $C2 = "", $E2 = "", #REF! = "", $F2 = "", $G2 = "", $H2 = "", $I2 = "", $J2 = "", $K2 = "", $L2 = "", $M2 = "")</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B2:B3">
-    <cfRule type="expression" dxfId="2" priority="773">
+    <cfRule type="expression" dxfId="17" priority="773">
       <formula>COUNTIF($B$2:$B$125,B2)&gt;1</formula>
     </cfRule>
   </conditionalFormatting>
@@ -60547,7 +60637,7 @@
       </c>
       <c r="C2" s="27">
         <f ca="1">NOW()</f>
-        <v>44480.655217824074</v>
+        <v>44480.664835648146</v>
       </c>
       <c r="D2" s="20" t="s">
         <v>220</v>
